--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14375421\OneDrive - National University of Ireland, Galway\PhD\Data\BAN\Adult\Ultra\MP\ultra_0Lmin_ad_mp\ultra_0Lmin_ad_mp_n10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80259CD-E404-4E40-B3E1-C045E7715CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="mass_conc" sheetId="2" r:id="rId2"/>
     <sheet name="MMAD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -175,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +240,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -242,7 +252,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2147,7 +2156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2217,7 +2225,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5315,20 +5323,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5363,7 +5377,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5643,19 +5663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EF88"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5671,7 +5691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5679,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5687,7 +5707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5695,7 +5715,7 @@
         <v>0.48696800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5723,7 @@
         <v>20.535299999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6113,7 +6133,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6523,7 +6543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6933,7 +6953,7 @@
         <v>0.72199074074074077</v>
       </c>
     </row>
-    <row r="10" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7343,7 +7363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7753,7 +7773,7 @@
         <v>3.1587500000000002E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.54200000000000004</v>
       </c>
@@ -8163,7 +8183,7 @@
         <v>3.2822800000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.58299999999999996</v>
       </c>
@@ -8573,7 +8593,7 @@
         <v>4.02643E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.626</v>
       </c>
@@ -8983,7 +9003,7 @@
         <v>5.3826799999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.67300000000000004</v>
       </c>
@@ -9393,7 +9413,7 @@
         <v>6.4016599999999996E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.72299999999999998</v>
       </c>
@@ -9803,7 +9823,7 @@
         <v>7.6705399999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.77700000000000002</v>
       </c>
@@ -10213,7 +10233,7 @@
         <v>8.0871700000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.83499999999999996</v>
       </c>
@@ -10623,7 +10643,7 @@
         <v>8.8270000000000004E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.89800000000000002</v>
       </c>
@@ -11033,7 +11053,7 @@
         <v>8.9993500000000004E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.96499999999999997</v>
       </c>
@@ -11443,7 +11463,7 @@
         <v>8.5872400000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.0369999999999999</v>
       </c>
@@ -11853,7 +11873,7 @@
         <v>8.2065199999999995E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.1140000000000001</v>
       </c>
@@ -12263,7 +12283,7 @@
         <v>7.33927E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.1970000000000001</v>
       </c>
@@ -12673,7 +12693,7 @@
         <v>7.3291700000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.286</v>
       </c>
@@ -13083,7 +13103,7 @@
         <v>6.4869099999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.3819999999999999</v>
       </c>
@@ -13493,7 +13513,7 @@
         <v>4.9792900000000004E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1.486</v>
       </c>
@@ -13903,7 +13923,7 @@
         <v>3.0894899999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.5960000000000001</v>
       </c>
@@ -14313,7 +14333,7 @@
         <v>3.32269E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1.7150000000000001</v>
       </c>
@@ -14723,7 +14743,7 @@
         <v>3.1717300000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.843</v>
       </c>
@@ -15133,7 +15153,7 @@
         <v>2.1647600000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.9810000000000001</v>
       </c>
@@ -15543,7 +15563,7 @@
         <v>9.7684599999999996E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.129</v>
       </c>
@@ -15953,7 +15973,7 @@
         <v>1.3637299999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2.2879999999999998</v>
       </c>
@@ -16363,7 +16383,7 @@
         <v>1.1281999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2.4580000000000002</v>
       </c>
@@ -16773,7 +16793,7 @@
         <v>7.0001500000000004E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2.6419999999999999</v>
       </c>
@@ -17183,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2.839</v>
       </c>
@@ -17593,7 +17613,7 @@
         <v>3.5932400000000002E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.0510000000000002</v>
       </c>
@@ -18003,7 +18023,7 @@
         <v>4.4589899999999998E-5</v>
       </c>
     </row>
-    <row r="37" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.278</v>
       </c>
@@ -18413,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.5230000000000001</v>
       </c>
@@ -18823,7 +18843,7 @@
         <v>6.8665100000000001E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.786</v>
       </c>
@@ -19233,7 +19253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4.0679999999999996</v>
       </c>
@@ -19643,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4.3710000000000004</v>
       </c>
@@ -20053,7 +20073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4.6980000000000004</v>
       </c>
@@ -20463,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5.048</v>
       </c>
@@ -20873,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5.4249999999999998</v>
       </c>
@@ -21283,7 +21303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5.8289999999999997</v>
       </c>
@@ -21693,7 +21713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>6.2640000000000002</v>
       </c>
@@ -22103,7 +22123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6.7320000000000002</v>
       </c>
@@ -22513,7 +22533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.234</v>
       </c>
@@ -22923,7 +22943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.774</v>
       </c>
@@ -23333,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8.3539999999999992</v>
       </c>
@@ -23743,7 +23763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.9770000000000003</v>
       </c>
@@ -24153,7 +24173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9.6470000000000002</v>
       </c>
@@ -24563,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10.37</v>
       </c>
@@ -24973,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11.14</v>
       </c>
@@ -25383,7 +25403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>11.97</v>
       </c>
@@ -25793,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12.86</v>
       </c>
@@ -26203,7 +26223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13.82</v>
       </c>
@@ -26613,7 +26633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>14.86</v>
       </c>
@@ -27023,7 +27043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>15.96</v>
       </c>
@@ -27433,7 +27453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>17.149999999999999</v>
       </c>
@@ -27843,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>18.43</v>
       </c>
@@ -28253,7 +28273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>19.809999999999999</v>
       </c>
@@ -28663,7 +28683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -29073,7 +29093,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="64" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -29483,7 +29503,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -29893,7 +29913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -30303,7 +30323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -30713,7 +30733,7 @@
         <v>996.9</v>
       </c>
     </row>
-    <row r="68" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -31123,7 +31143,7 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="69" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -31533,7 +31553,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="70" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -31943,7 +31963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -32353,7 +32373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -32763,7 +32783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -33173,7 +33193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -33583,7 +33603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -33993,7 +34013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -34403,7 +34423,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -34813,7 +34833,7 @@
         <v>3.1720000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -35223,7 +35243,7 @@
         <v>2.831</v>
       </c>
     </row>
-    <row r="79" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -35633,7 +35653,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="80" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>32</v>
       </c>
@@ -36043,7 +36063,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="81" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -36453,7 +36473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -36863,7 +36883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -37273,7 +37293,7 @@
         <v>0.96216199999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -37683,7 +37703,7 @@
         <v>1.0735699999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -38093,7 +38113,7 @@
         <v>0.99860599999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -38503,7 +38523,7 @@
         <v>0.89768700000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -38913,7 +38933,7 @@
         <v>1.4416</v>
       </c>
     </row>
-    <row r="88" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -39329,20 +39349,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -39353,7 +39373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2.3148148148148146E-4</v>
       </c>
@@ -39364,7 +39384,7 @@
         <v>3.6326900000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>4.6296296296296293E-4</v>
       </c>
@@ -39375,7 +39395,7 @@
         <v>3.6382200000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -39386,7 +39406,7 @@
         <v>3.3176199999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>9.2592592592592596E-4</v>
       </c>
@@ -39397,7 +39417,7 @@
         <v>4.7306400000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.1574074074074099E-3</v>
       </c>
@@ -39408,7 +39428,7 @@
         <v>3.1504699999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1.38888888888889E-3</v>
       </c>
@@ -39419,7 +39439,7 @@
         <v>4.40472E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1.6203703703703701E-3</v>
       </c>
@@ -39430,7 +39450,7 @@
         <v>3.3522600000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1.85185185185185E-3</v>
       </c>
@@ -39441,7 +39461,7 @@
         <v>5.31856E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2.0833333333333298E-3</v>
       </c>
@@ -39452,7 +39472,7 @@
         <v>4.1378300000000003E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2.3148148148148099E-3</v>
       </c>
@@ -39463,7 +39483,7 @@
         <v>3.7037200000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.54629629629629E-3</v>
       </c>
@@ -39474,7 +39494,7 @@
         <v>3.9327199999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -39485,7 +39505,7 @@
         <v>3.2292599999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>3.0092592592592601E-3</v>
       </c>
@@ -39496,7 +39516,7 @@
         <v>4.6995700000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3.2407407407407402E-3</v>
       </c>
@@ -39507,7 +39527,7 @@
         <v>3.2386200000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>3.4722222222222199E-3</v>
       </c>
@@ -39518,7 +39538,7 @@
         <v>3.2810199999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>3.7037037037036999E-3</v>
       </c>
@@ -39529,7 +39549,7 @@
         <v>4.0054499999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>3.9351851851851796E-3</v>
       </c>
@@ -39540,7 +39560,7 @@
         <v>6.7800100000000004E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>4.1666666666666597E-3</v>
       </c>
@@ -39551,7 +39571,7 @@
         <v>1.8431300000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>4.3981481481481502E-3</v>
       </c>
@@ -39562,7 +39582,7 @@
         <v>2.7609399999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>4.6296296296296302E-3</v>
       </c>
@@ -39573,7 +39593,7 @@
         <v>3.2138600000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>4.8611111111111103E-3</v>
       </c>
@@ -39584,7 +39604,7 @@
         <v>4.2484899999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>5.0925925925925904E-3</v>
       </c>
@@ -39595,7 +39615,7 @@
         <v>2.4558199999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>5.3240740740740696E-3</v>
       </c>
@@ -39606,7 +39626,7 @@
         <v>1.4585000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5.5555555555555497E-3</v>
       </c>
@@ -39617,7 +39637,7 @@
         <v>2.0382899999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>5.7870370370370298E-3</v>
       </c>
@@ -39628,7 +39648,7 @@
         <v>4.0148900000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>6.0185185185185203E-3</v>
       </c>
@@ -39639,7 +39659,7 @@
         <v>2.24432E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -39650,7 +39670,7 @@
         <v>3.0797399999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>6.4814814814814804E-3</v>
       </c>
@@ -39661,7 +39681,7 @@
         <v>2.63187E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6.7129629629629596E-3</v>
       </c>
@@ -39672,7 +39692,7 @@
         <v>3.67368E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -39683,7 +39703,7 @@
         <v>4.3904699999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>7.1759259259259198E-3</v>
       </c>
@@ -39694,7 +39714,7 @@
         <v>3.57373E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>7.4074074074074103E-3</v>
       </c>
@@ -39705,7 +39725,7 @@
         <v>4.1001599999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>7.6388888888888904E-3</v>
       </c>
@@ -39716,7 +39736,7 @@
         <v>3.9562800000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>7.8703703703703696E-3</v>
       </c>
@@ -39727,7 +39747,7 @@
         <v>4.0193399999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>8.1018518518518497E-3</v>
       </c>
@@ -39738,7 +39758,7 @@
         <v>4.9366E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>8.3333333333333297E-3</v>
       </c>
@@ -39749,7 +39769,7 @@
         <v>4.7125899999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>8.5648148148148098E-3</v>
       </c>
@@ -39760,7 +39780,7 @@
         <v>5.0790000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>8.7962962962962899E-3</v>
       </c>
@@ -39771,7 +39791,7 @@
         <v>4.99345E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>9.0277777777777804E-3</v>
       </c>
@@ -39782,7 +39802,7 @@
         <v>5.1772400000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>9.2592592592592605E-3</v>
       </c>
@@ -39793,7 +39813,7 @@
         <v>4.3770799999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>9.4907407407407406E-3</v>
       </c>
@@ -39804,7 +39824,7 @@
         <v>3.9608400000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>9.7222222222222206E-3</v>
       </c>
@@ -39815,7 +39835,7 @@
         <v>5.3033499999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9.9537037037037007E-3</v>
       </c>
@@ -39826,7 +39846,7 @@
         <v>4.7620599999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1.01851851851852E-2</v>
       </c>
@@ -39837,7 +39857,7 @@
         <v>3.1067399999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -39848,7 +39868,7 @@
         <v>2.3914600000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1.06481481481482E-2</v>
       </c>
@@ -39859,7 +39879,7 @@
         <v>2.4178499999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.08796296296296E-2</v>
       </c>
@@ -39870,7 +39890,7 @@
         <v>2.4388799999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1.1111111111111099E-2</v>
       </c>
@@ -39881,7 +39901,7 @@
         <v>2.42407E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1.13425925925926E-2</v>
       </c>
@@ -39892,7 +39912,7 @@
         <v>2.3558900000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1.1574074074074099E-2</v>
       </c>
@@ -39903,7 +39923,7 @@
         <v>2.3538099999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1.18055555555556E-2</v>
       </c>
@@ -39914,7 +39934,7 @@
         <v>2.5337200000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1.20370370370371E-2</v>
       </c>
@@ -39925,7 +39945,7 @@
         <v>2.5286300000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1.22685185185185E-2</v>
       </c>
@@ -39936,7 +39956,7 @@
         <v>2.3800700000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -39947,7 +39967,7 @@
         <v>2.30104E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1.27314814814815E-2</v>
       </c>
@@ -39958,7 +39978,7 @@
         <v>2.3153099999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1.2962962962963001E-2</v>
       </c>
@@ -39969,7 +39989,7 @@
         <v>2.2966899999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1.31944444444445E-2</v>
       </c>
@@ -39980,7 +40000,7 @@
         <v>2.1396499999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1.34259259259259E-2</v>
       </c>
@@ -39991,7 +40011,7 @@
         <v>2.15243E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1.3657407407407399E-2</v>
       </c>
@@ -40002,7 +40022,7 @@
         <v>2.0357299999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1.38888888888889E-2</v>
       </c>
@@ -40013,7 +40033,7 @@
         <v>2.1589500000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1.4120370370370399E-2</v>
       </c>
@@ -40024,7 +40044,7 @@
         <v>2.0201799999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1.43518518518519E-2</v>
       </c>
@@ -40035,7 +40055,7 @@
         <v>1.9680799999999998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1.4583333333333399E-2</v>
       </c>
@@ -40046,7 +40066,7 @@
         <v>2.1660599999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1.48148148148148E-2</v>
       </c>
@@ -40057,7 +40077,7 @@
         <v>2.0370900000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1.5046296296296301E-2</v>
       </c>
@@ -40068,7 +40088,7 @@
         <v>1.9067299999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1.52777777777778E-2</v>
       </c>
@@ -40079,7 +40099,7 @@
         <v>1.9205300000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1.5509259259259301E-2</v>
       </c>
@@ -40090,7 +40110,7 @@
         <v>1.89252E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1.5740740740740802E-2</v>
       </c>
@@ -40101,7 +40121,7 @@
         <v>1.9504799999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1.59722222222222E-2</v>
       </c>
@@ -40112,7 +40132,7 @@
         <v>1.9885E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1.6203703703703699E-2</v>
       </c>
@@ -40123,7 +40143,7 @@
         <v>1.8008400000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1.6435185185185198E-2</v>
       </c>
@@ -40134,7 +40154,7 @@
         <v>1.8832000000000002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1.6666666666666701E-2</v>
       </c>
@@ -40145,7 +40165,7 @@
         <v>1.79753E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1.68981481481482E-2</v>
       </c>
@@ -40156,7 +40176,7 @@
         <v>1.8065999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1.7129629629629599E-2</v>
       </c>
@@ -40167,7 +40187,7 @@
         <v>1.8600200000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1.7361111111111101E-2</v>
       </c>
@@ -40178,7 +40198,7 @@
         <v>1.80406E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1.7592592592592601E-2</v>
       </c>
@@ -40189,7 +40209,7 @@
         <v>1.7744699999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1.78240740740741E-2</v>
       </c>
@@ -40200,7 +40220,7 @@
         <v>1.82679E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1.8055555555555599E-2</v>
       </c>
@@ -40211,7 +40231,7 @@
         <v>1.8218999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>1.8287037037037102E-2</v>
       </c>
@@ -40222,7 +40242,7 @@
         <v>1.7785700000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>1.85185185185185E-2</v>
       </c>
@@ -40233,7 +40253,7 @@
         <v>1.7359200000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1.8749999999999999E-2</v>
       </c>
@@ -40244,7 +40264,7 @@
         <v>1.7323000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>1.8981481481481498E-2</v>
       </c>
@@ -40255,7 +40275,7 @@
         <v>1.7062600000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>1.9212962962963001E-2</v>
       </c>
@@ -40266,7 +40286,7 @@
         <v>1.7619900000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>1.94444444444445E-2</v>
       </c>
@@ -40277,7 +40297,7 @@
         <v>1.7243700000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>1.9675925925925899E-2</v>
       </c>
@@ -40288,7 +40308,7 @@
         <v>1.6905400000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>1.9907407407407401E-2</v>
       </c>
@@ -40299,7 +40319,7 @@
         <v>1.71358E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>2.0138888888888901E-2</v>
       </c>
@@ -40310,7 +40330,7 @@
         <v>1.8509500000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>2.03703703703704E-2</v>
       </c>
@@ -40321,7 +40341,7 @@
         <v>2.06982E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>2.0601851851851899E-2</v>
       </c>
@@ -40332,7 +40352,7 @@
         <v>1.82043E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>2.0833333333333402E-2</v>
       </c>
@@ -40343,7 +40363,7 @@
         <v>1.80489E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>2.10648148148148E-2</v>
       </c>
@@ -40354,7 +40374,7 @@
         <v>1.7940999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>2.1296296296296299E-2</v>
       </c>
@@ -40365,7 +40385,7 @@
         <v>1.7803900000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>2.1527777777777798E-2</v>
       </c>
@@ -40376,7 +40396,7 @@
         <v>1.9567899999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>2.1759259259259301E-2</v>
       </c>
@@ -40387,7 +40407,7 @@
         <v>1.7153499999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>2.19907407407408E-2</v>
       </c>
@@ -40398,7 +40418,7 @@
         <v>1.72584E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>2.2222222222222199E-2</v>
       </c>
@@ -40409,7 +40429,7 @@
         <v>1.6745900000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>2.2453703703703701E-2</v>
       </c>
@@ -40420,7 +40440,7 @@
         <v>1.6183699999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>2.2685185185185201E-2</v>
       </c>
@@ -40431,7 +40451,7 @@
         <v>1.6945499999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>2.29166666666667E-2</v>
       </c>
@@ -40442,7 +40462,7 @@
         <v>1.6771299999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>2.3148148148148199E-2</v>
       </c>
@@ -40453,7 +40473,7 @@
         <v>1.6958899999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2.3379629629629601E-2</v>
       </c>
@@ -40464,7 +40484,7 @@
         <v>1.6496799999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>2.36111111111111E-2</v>
       </c>
@@ -40475,7 +40495,7 @@
         <v>1.6108399999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2.3842592592592599E-2</v>
       </c>
@@ -40486,7 +40506,7 @@
         <v>1.6557200000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>2.4074074074074098E-2</v>
       </c>
@@ -40497,7 +40517,7 @@
         <v>1.6156500000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>2.4305555555555601E-2</v>
       </c>
@@ -40508,7 +40528,7 @@
         <v>1.5723399999999998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>2.45370370370371E-2</v>
       </c>
@@ -40519,7 +40539,7 @@
         <v>1.58119E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>2.4768518518518499E-2</v>
       </c>
@@ -40530,7 +40550,7 @@
         <v>1.5884300000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -40541,7 +40561,7 @@
         <v>1.5519399999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>2.5231481481481501E-2</v>
       </c>
@@ -40552,7 +40572,7 @@
         <v>1.5995700000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>2.5462962962963E-2</v>
       </c>
@@ -40563,7 +40583,7 @@
         <v>1.5526099999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>2.5694444444444499E-2</v>
       </c>
@@ -40574,7 +40594,7 @@
         <v>1.54763E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>2.5925925925925901E-2</v>
       </c>
@@ -40585,7 +40605,7 @@
         <v>1.5898800000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>2.61574074074074E-2</v>
       </c>
@@ -40596,7 +40616,7 @@
         <v>1.5093199999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>2.6388888888888899E-2</v>
       </c>
@@ -40607,7 +40627,7 @@
         <v>1.4452100000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>2.6620370370370398E-2</v>
       </c>
@@ -40618,7 +40638,7 @@
         <v>1.4755300000000001E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>2.6851851851851901E-2</v>
       </c>
@@ -40629,7 +40649,7 @@
         <v>1.4801099999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>2.70833333333333E-2</v>
       </c>
@@ -40640,7 +40660,7 @@
         <v>1.4327100000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>2.7314814814814799E-2</v>
       </c>
@@ -40651,7 +40671,7 @@
         <v>1.5821999999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>2.7546296296296301E-2</v>
       </c>
@@ -40662,7 +40682,7 @@
         <v>1.46035E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>2.7777777777777801E-2</v>
       </c>
@@ -40673,7 +40693,7 @@
         <v>1.44993E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>2.80092592592593E-2</v>
       </c>
@@ -40684,7 +40704,7 @@
         <v>1.48247E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>2.8240740740740799E-2</v>
       </c>
@@ -40695,7 +40715,7 @@
         <v>1.4504299999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>2.8472222222222201E-2</v>
       </c>
@@ -40706,7 +40726,7 @@
         <v>1.4482E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>2.87037037037037E-2</v>
       </c>
@@ -40717,7 +40737,7 @@
         <v>1.4146300000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>2.8935185185185199E-2</v>
       </c>
@@ -40728,7 +40748,7 @@
         <v>1.4037600000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>2.9166666666666698E-2</v>
       </c>
@@ -40739,7 +40759,7 @@
         <v>1.3447799999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>2.9398148148148201E-2</v>
       </c>
@@ -40750,7 +40770,7 @@
         <v>1.4321E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>2.96296296296296E-2</v>
       </c>
@@ -40761,7 +40781,7 @@
         <v>1.3457200000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>2.9861111111111099E-2</v>
       </c>
@@ -40772,7 +40792,7 @@
         <v>1.39189E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>3.0092592592592601E-2</v>
       </c>
@@ -40783,7 +40803,7 @@
         <v>1.4188600000000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>3.03240740740741E-2</v>
       </c>
@@ -40794,7 +40814,7 @@
         <v>1.4002300000000001E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>3.05555555555556E-2</v>
       </c>
@@ -40805,7 +40825,7 @@
         <v>1.3887099999999999E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>3.0787037037037099E-2</v>
       </c>
@@ -40816,7 +40836,7 @@
         <v>1.42621E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>3.1018518518518501E-2</v>
       </c>
@@ -40827,7 +40847,7 @@
         <v>1.3329000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>3.125E-2</v>
       </c>
@@ -40838,7 +40858,7 @@
         <v>1.35476E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -40858,21 +40878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -40883,7 +40903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2.3148148148148146E-4</v>
       </c>
@@ -40894,7 +40914,7 @@
         <v>1.5504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>4.6296296296296293E-4</v>
       </c>
@@ -40905,7 +40925,7 @@
         <v>1.47631</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -40916,7 +40936,7 @@
         <v>1.4430499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>9.2592592592592596E-4</v>
       </c>
@@ -40927,7 +40947,7 @@
         <v>2.0278499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1.1574074074074099E-3</v>
       </c>
@@ -40938,7 +40958,7 @@
         <v>1.3790800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1.38888888888889E-3</v>
       </c>
@@ -40949,7 +40969,7 @@
         <v>1.80705</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1.6203703703703701E-3</v>
       </c>
@@ -40960,7 +40980,7 @@
         <v>1.3927</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1.85185185185185E-3</v>
       </c>
@@ -40971,7 +40991,7 @@
         <v>2.1124399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2.0833333333333298E-3</v>
       </c>
@@ -40982,7 +41002,7 @@
         <v>1.7072400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2.3148148148148099E-3</v>
       </c>
@@ -40993,7 +41013,7 @@
         <v>1.55392</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.54629629629629E-3</v>
       </c>
@@ -41004,7 +41024,7 @@
         <v>1.6332899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -41015,7 +41035,7 @@
         <v>1.35514</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>3.0092592592592601E-3</v>
       </c>
@@ -41026,7 +41046,7 @@
         <v>2.0727099999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3.2407407407407402E-3</v>
       </c>
@@ -41037,7 +41057,7 @@
         <v>1.44574</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>3.4722222222222199E-3</v>
       </c>
@@ -41048,7 +41068,7 @@
         <v>1.45577</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>3.7037037037036999E-3</v>
       </c>
@@ -41059,7 +41079,7 @@
         <v>1.7193099999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>3.9351851851851796E-3</v>
       </c>
@@ -41070,7 +41090,7 @@
         <v>1.4953000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>4.1666666666666597E-3</v>
       </c>
@@ -41081,7 +41101,7 @@
         <v>1.3403400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>4.3981481481481502E-3</v>
       </c>
@@ -41092,7 +41112,7 @@
         <v>1.2756700000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>4.6296296296296302E-3</v>
       </c>
@@ -41103,7 +41123,7 @@
         <v>1.24278</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>4.8611111111111103E-3</v>
       </c>
@@ -41114,7 +41134,7 @@
         <v>1.1914199999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>5.0925925925925904E-3</v>
       </c>
@@ -41125,7 +41145,7 @@
         <v>1.1815800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>5.3240740740740696E-3</v>
       </c>
@@ -41136,7 +41156,7 @@
         <v>1.21479</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>5.5555555555555497E-3</v>
       </c>
@@ -41147,7 +41167,7 @@
         <v>1.1975100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>5.7870370370370298E-3</v>
       </c>
@@ -41158,7 +41178,7 @@
         <v>1.1438200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>6.0185185185185203E-3</v>
       </c>
@@ -41169,7 +41189,7 @@
         <v>1.1669700000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -41180,7 +41200,7 @@
         <v>1.1309400000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>6.4814814814814804E-3</v>
       </c>
@@ -41191,7 +41211,7 @@
         <v>1.1406400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>6.7129629629629596E-3</v>
       </c>
@@ -41202,7 +41222,7 @@
         <v>1.1384700000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -41213,7 +41233,7 @@
         <v>1.1100300000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>7.1759259259259198E-3</v>
       </c>
@@ -41224,7 +41244,7 @@
         <v>1.12785</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>7.4074074074074103E-3</v>
       </c>
@@ -41235,7 +41255,7 @@
         <v>1.10172</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>7.6388888888888904E-3</v>
       </c>
@@ -41246,7 +41266,7 @@
         <v>1.10423</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>7.8703703703703696E-3</v>
       </c>
@@ -41257,7 +41277,7 @@
         <v>1.0957300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>8.1018518518518497E-3</v>
       </c>
@@ -41268,7 +41288,7 @@
         <v>1.0805400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>8.3333333333333297E-3</v>
       </c>
@@ -41279,7 +41299,7 @@
         <v>1.09951</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>8.5648148148148098E-3</v>
       </c>
@@ -41290,7 +41310,7 @@
         <v>1.09589</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>8.7962962962962899E-3</v>
       </c>
@@ -41301,7 +41321,7 @@
         <v>1.10134</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>9.0277777777777804E-3</v>
       </c>
@@ -41312,7 +41332,7 @@
         <v>1.07528</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>9.2592592592592605E-3</v>
       </c>
@@ -41323,7 +41343,7 @@
         <v>1.10114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>9.4907407407407406E-3</v>
       </c>
@@ -41334,7 +41354,7 @@
         <v>1.1248199999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>9.7222222222222206E-3</v>
       </c>
@@ -41345,7 +41365,7 @@
         <v>1.08161</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9.9537037037037007E-3</v>
       </c>
@@ -41356,7 +41376,7 @@
         <v>1.08752</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1.01851851851852E-2</v>
       </c>
@@ -41367,7 +41387,7 @@
         <v>1.0910200000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -41378,7 +41398,7 @@
         <v>1.06731</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1.06481481481482E-2</v>
       </c>
@@ -41389,7 +41409,7 @@
         <v>1.0858699999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1.08796296296296E-2</v>
       </c>
@@ -41400,7 +41420,7 @@
         <v>1.0793900000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1.1111111111111099E-2</v>
       </c>
@@ -41411,7 +41431,7 @@
         <v>1.0740099999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1.13425925925926E-2</v>
       </c>
@@ -41422,7 +41442,7 @@
         <v>1.0489900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1.1574074074074099E-2</v>
       </c>
@@ -41433,7 +41453,7 @@
         <v>1.06382</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1.18055555555556E-2</v>
       </c>
@@ -41444,7 +41464,7 @@
         <v>1.0817300000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>1.20370370370371E-2</v>
       </c>
@@ -41455,7 +41475,7 @@
         <v>1.07795</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1.22685185185185E-2</v>
       </c>
@@ -41466,7 +41486,7 @@
         <v>1.07718</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -41477,7 +41497,7 @@
         <v>1.0772200000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>1.27314814814815E-2</v>
       </c>
@@ -41488,7 +41508,7 @@
         <v>1.08087</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>1.2962962962963001E-2</v>
       </c>
@@ -41499,7 +41519,7 @@
         <v>1.0694399999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>1.31944444444445E-2</v>
       </c>
@@ -41510,7 +41530,7 @@
         <v>1.05714</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>1.34259259259259E-2</v>
       </c>
@@ -41521,7 +41541,7 @@
         <v>1.0681799999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>1.3657407407407399E-2</v>
       </c>
@@ -41532,7 +41552,7 @@
         <v>1.04213</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>1.38888888888889E-2</v>
       </c>
@@ -41543,7 +41563,7 @@
         <v>1.06491</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>1.4120370370370399E-2</v>
       </c>
@@ -41554,7 +41574,7 @@
         <v>1.04834</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>1.43518518518519E-2</v>
       </c>
@@ -41565,7 +41585,7 @@
         <v>1.05626</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1.4583333333333399E-2</v>
       </c>
@@ -41576,7 +41596,7 @@
         <v>1.10859</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>1.48148148148148E-2</v>
       </c>
@@ -41587,7 +41607,7 @@
         <v>1.0737399999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>1.5046296296296301E-2</v>
       </c>
@@ -41598,7 +41618,7 @@
         <v>1.03617</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>1.52777777777778E-2</v>
       </c>
@@ -41609,7 +41629,7 @@
         <v>1.05457</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1.5509259259259301E-2</v>
       </c>
@@ -41620,7 +41640,7 @@
         <v>1.04901</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>1.5740740740740802E-2</v>
       </c>
@@ -41631,7 +41651,7 @@
         <v>1.0725100000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>1.59722222222222E-2</v>
       </c>
@@ -41642,7 +41662,7 @@
         <v>1.08782</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>1.6203703703703699E-2</v>
       </c>
@@ -41653,7 +41673,7 @@
         <v>1.0428599999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>1.6435185185185198E-2</v>
       </c>
@@ -41664,7 +41684,7 @@
         <v>1.04834</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1.6666666666666701E-2</v>
       </c>
@@ -41675,7 +41695,7 @@
         <v>1.0572999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>1.68981481481482E-2</v>
       </c>
@@ -41686,7 +41706,7 @@
         <v>1.0531900000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>1.7129629629629599E-2</v>
       </c>
@@ -41697,7 +41717,7 @@
         <v>1.0666800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>1.7361111111111101E-2</v>
       </c>
@@ -41708,7 +41728,7 @@
         <v>1.0583100000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>1.7592592592592601E-2</v>
       </c>
@@ -41719,7 +41739,7 @@
         <v>1.0593399999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>1.78240740740741E-2</v>
       </c>
@@ -41730,7 +41750,7 @@
         <v>1.07033</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>1.8055555555555599E-2</v>
       </c>
@@ -41741,7 +41761,7 @@
         <v>1.07223</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>1.8287037037037102E-2</v>
       </c>
@@ -41752,7 +41772,7 @@
         <v>1.06717</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>1.85185185185185E-2</v>
       </c>
@@ -41763,7 +41783,7 @@
         <v>1.0583</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1.8749999999999999E-2</v>
       </c>
@@ -41774,7 +41794,7 @@
         <v>1.0623499999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>1.8981481481481498E-2</v>
       </c>
@@ -41785,7 +41805,7 @@
         <v>1.0523899999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>1.9212962962963001E-2</v>
       </c>
@@ -41796,7 +41816,7 @@
         <v>1.0730999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>1.94444444444445E-2</v>
       </c>
@@ -41807,7 +41827,7 @@
         <v>1.0605599999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>1.9675925925925899E-2</v>
       </c>
@@ -41818,7 +41838,7 @@
         <v>1.0554699999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>1.9907407407407401E-2</v>
       </c>
@@ -41829,7 +41849,7 @@
         <v>1.06857</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>2.0138888888888901E-2</v>
       </c>
@@ -41840,7 +41860,7 @@
         <v>1.0787500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>2.03703703703704E-2</v>
       </c>
@@ -41851,7 +41871,7 @@
         <v>1.16232</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>2.0601851851851899E-2</v>
       </c>
@@ -41862,7 +41882,7 @@
         <v>1.0577399999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>2.0833333333333402E-2</v>
       </c>
@@ -41873,7 +41893,7 @@
         <v>1.0603800000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>2.10648148148148E-2</v>
       </c>
@@ -41884,7 +41904,7 @@
         <v>1.06593</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>2.1296296296296299E-2</v>
       </c>
@@ -41895,7 +41915,7 @@
         <v>1.06149</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>2.1527777777777798E-2</v>
       </c>
@@ -41906,7 +41926,7 @@
         <v>1.15133</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>2.1759259259259301E-2</v>
       </c>
@@ -41917,7 +41937,7 @@
         <v>1.0571900000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>2.19907407407408E-2</v>
       </c>
@@ -41928,7 +41948,7 @@
         <v>1.0683800000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>2.2222222222222199E-2</v>
       </c>
@@ -41939,7 +41959,7 @@
         <v>1.0462499999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>2.2453703703703701E-2</v>
       </c>
@@ -41950,7 +41970,7 @@
         <v>1.03718</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>2.2685185185185201E-2</v>
       </c>
@@ -41961,7 +41981,7 @@
         <v>1.0572999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>2.29166666666667E-2</v>
       </c>
@@ -41972,7 +41992,7 @@
         <v>1.0601400000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>2.3148148148148199E-2</v>
       </c>
@@ -41983,7 +42003,7 @@
         <v>1.0592699999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>2.3379629629629601E-2</v>
       </c>
@@ -41994,7 +42014,7 @@
         <v>1.05907</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>2.36111111111111E-2</v>
       </c>
@@ -42005,7 +42025,7 @@
         <v>1.0589299999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>2.3842592592592599E-2</v>
       </c>
@@ -42016,7 +42036,7 @@
         <v>1.0713999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>2.4074074074074098E-2</v>
       </c>
@@ -42027,7 +42047,7 @@
         <v>1.0548900000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>2.4305555555555601E-2</v>
       </c>
@@ -42038,7 +42058,7 @@
         <v>1.04698</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>2.45370370370371E-2</v>
       </c>
@@ -42049,7 +42069,7 @@
         <v>1.05341</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>2.4768518518518499E-2</v>
       </c>
@@ -42060,7 +42080,7 @@
         <v>1.05752</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42071,7 +42091,7 @@
         <v>1.0435399999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>2.5231481481481501E-2</v>
       </c>
@@ -42082,7 +42102,7 @@
         <v>1.0619799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>2.5462962962963E-2</v>
       </c>
@@ -42093,7 +42113,7 @@
         <v>1.05437</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>2.5694444444444499E-2</v>
       </c>
@@ -42104,7 +42124,7 @@
         <v>1.0564899999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>2.5925925925925901E-2</v>
       </c>
@@ -42115,7 +42135,7 @@
         <v>1.07735</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>2.61574074074074E-2</v>
       </c>
@@ -42126,7 +42146,7 @@
         <v>1.04634</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>2.6388888888888899E-2</v>
       </c>
@@ -42137,7 +42157,7 @@
         <v>1.02885</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>2.6620370370370398E-2</v>
       </c>
@@ -42148,7 +42168,7 @@
         <v>1.0345800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>2.6851851851851901E-2</v>
       </c>
@@ -42159,7 +42179,7 @@
         <v>1.04684</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>2.70833333333333E-2</v>
       </c>
@@ -42170,7 +42190,7 @@
         <v>1.03725</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>2.7314814814814799E-2</v>
       </c>
@@ -42181,7 +42201,7 @@
         <v>1.09076</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>2.7546296296296301E-2</v>
       </c>
@@ -42192,7 +42212,7 @@
         <v>1.05623</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>2.7777777777777801E-2</v>
       </c>
@@ -42203,7 +42223,7 @@
         <v>1.0452999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>2.80092592592593E-2</v>
       </c>
@@ -42214,7 +42234,7 @@
         <v>1.06657</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>2.8240740740740799E-2</v>
       </c>
@@ -42225,7 +42245,7 @@
         <v>1.06521</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>2.8472222222222201E-2</v>
       </c>
@@ -42236,7 +42256,7 @@
         <v>1.0571600000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>2.87037037037037E-2</v>
       </c>
@@ -42247,7 +42267,7 @@
         <v>1.0588599999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>2.8935185185185199E-2</v>
       </c>
@@ -42258,7 +42278,7 @@
         <v>1.0386899999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>2.9166666666666698E-2</v>
       </c>
@@ -42269,7 +42289,7 @@
         <v>1.02485</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>2.9398148148148201E-2</v>
       </c>
@@ -42280,7 +42300,7 @@
         <v>1.0568200000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>2.96296296296296E-2</v>
       </c>
@@ -42291,7 +42311,7 @@
         <v>1.0304599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>2.9861111111111099E-2</v>
       </c>
@@ -42302,7 +42322,7 @@
         <v>1.05348</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>3.0092592592592601E-2</v>
       </c>
@@ -42313,7 +42333,7 @@
         <v>1.07534</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>3.03240740740741E-2</v>
       </c>
@@ -42324,7 +42344,7 @@
         <v>1.06273</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>3.05555555555556E-2</v>
       </c>
@@ -42335,7 +42355,7 @@
         <v>1.0571200000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>3.0787037037037099E-2</v>
       </c>
@@ -42346,7 +42366,7 @@
         <v>1.08273</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>3.1018518518518501E-2</v>
       </c>
@@ -42357,7 +42377,7 @@
         <v>1.0468</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>3.125E-2</v>
       </c>
@@ -42368,7 +42388,7 @@
         <v>1.04522</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -42388,6 +42408,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -42604,22 +42639,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42636,29 +42681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80259CD-E404-4E40-B3E1-C045E7715CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317A1F6-5EC5-444B-8267-1DDA626E65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2299,6 +2299,1279 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14725077179229248"/>
+                  <c:y val="-0.16697611603123413"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$A$43:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06481481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$B$43:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.8846999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.61129E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6887399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.36373E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2617999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1260899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2346700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0624300000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C41-1E43-B85D-F4A7C9392FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$A$2:$A$136</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>2.3148148148148146E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6296296296296293E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3148148148148099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.54629629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9351851851851796E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1666666666666597E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5555555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7870370370370298E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1759259259259198E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.5648148148148098E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7962962962962899E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4907407407407406E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.06481481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1574074074074099E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.18055555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.20370370370371E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.22685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.27314814814815E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2962962962963001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.31944444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.34259259259259E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3657407407407399E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.38888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4120370370370399E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.43518518518519E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4583333333333399E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.48148148148148E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5046296296296301E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.52777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5509259259259301E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5740740740740802E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.59722222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6203703703703699E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6435185185185198E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6666666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.68981481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7129629629629599E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7361111111111101E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7592592592592601E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.78240740740741E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8055555555555599E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8287037037037102E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.85185185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8981481481481498E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9212962962963001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.94444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9675925925925899E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9907407407407401E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0138888888888901E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.03703703703704E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0601851851851899E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0833333333333402E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.10648148148148E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1296296296296299E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1527777777777798E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1759259259259301E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.19907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2222222222222199E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2453703703703701E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2685185185185201E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.29166666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3148148148148199E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.3379629629629601E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.36111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.3842592592592599E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4074074074074098E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4305555555555601E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.45370370370371E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.4768518518518499E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5231481481481501E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5462962962963E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.5694444444444499E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5925925925925901E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.61574074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6388888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.6620370370370398E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.6851851851851901E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.70833333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.7314814814814799E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7546296296296301E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7777777777777801E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.80092592592593E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8240740740740799E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8472222222222201E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.87037037037037E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8935185185185199E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.9166666666666698E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.9398148148148201E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.96296296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.9861111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.0092592592592601E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.03240740740741E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.05555555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.0787037037037099E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.1018518518518501E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$C$2:$C$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>3.6326900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6382200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3176199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7306400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1504699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.40472E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3522600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.31856E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1378300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7037200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9327199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2292599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6995700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2386200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2810199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0054499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7800100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8431300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7609399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2138600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2484899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4558199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0382899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0148900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.24432E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0797399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.63187E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.67368E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3904699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.57373E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1001599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9562800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0193399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9366E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7125899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.99345E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1772400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3770799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9608400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3033499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7620599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1067399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3914600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4178499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4388799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.42407E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3558900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3538099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5337200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5286300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3800700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.30104E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3153099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2966899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1396499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.15243E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0357299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1589500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0201799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9680799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1660599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0370900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9067299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9205300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.89252E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9504799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9885E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8008400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8832000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.79753E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8065999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8600200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.80406E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7744699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.82679E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7785700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7359200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7323000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7062600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7619900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7243700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6905400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.71358E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8509500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.06982E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.82043E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.80489E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7940999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7803900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9567899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7153499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.72584E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6745900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6183699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6945499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6771299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6958899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6496799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6108399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6557200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6156500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5723399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.58119E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5884300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5519399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5995700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5526099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.54763E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5898800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5093199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4452100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4755300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4801099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4327100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5821999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.46035E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.44993E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.48247E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4504299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4482E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4146300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4037600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3447799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4321E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3457200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.39189E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4188600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4002300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3887099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.42621E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3329000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.35476E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C41-1E43-B85D-F4A7C9392FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="733341792"/>
+        <c:axId val="733336216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="733341792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733336216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="733336216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="733341792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>MMAD!$A$2:$A$136</c:f>
@@ -4248,6 +5521,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5319,6 +6632,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5352,6 +7181,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B4EFB5-CF4F-3C43-A1FB-8BC362CECD26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39352,8 +41219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42408,21 +44275,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -42639,32 +44491,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42681,4 +44523,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317A1F6-5EC5-444B-8267-1DDA626E65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B91F40-48EB-CC41-B581-0E6D5BFF2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32720" yWindow="6940" windowWidth="37240" windowHeight="24940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2273,8 +2273,922 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$A$43:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.06481481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$B$43:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.8846999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.61129E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6887399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.36373E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2617999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1260899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2346700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0624300000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9FC6-BB44-B92A-34448F78CDCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$A$2:$A$136</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>2.3148148148148146E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6296296296296293E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3148148148148099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.54629629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9351851851851796E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1666666666666597E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5555555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7870370370370298E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.1759259259259198E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.5648148148148098E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7962962962962899E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0277777777777804E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.2592592592592605E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4907407407407406E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.7222222222222206E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.9537037037037007E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.01851851851852E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0416666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.06481481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.08796296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1111111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.13425925925926E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1574074074074099E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.18055555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.20370370370371E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.22685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.27314814814815E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2962962962963001E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.31944444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.34259259259259E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3657407407407399E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.38888888888889E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4120370370370399E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.43518518518519E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4583333333333399E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.48148148148148E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5046296296296301E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.52777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5509259259259301E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5740740740740802E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.59722222222222E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6203703703703699E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6435185185185198E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6666666666666701E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.68981481481482E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7129629629629599E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7361111111111101E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7592592592592601E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.78240740740741E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8055555555555599E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8287037037037102E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.85185185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8981481481481498E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9212962962963001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.94444444444445E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9675925925925899E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9907407407407401E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0138888888888901E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.03703703703704E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0601851851851899E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0833333333333402E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.10648148148148E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1296296296296299E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1527777777777798E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1759259259259301E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.19907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2222222222222199E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2453703703703701E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2685185185185201E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.29166666666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3148148148148199E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.3379629629629601E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.36111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.3842592592592599E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4074074074074098E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4305555555555601E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.45370370370371E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.4768518518518499E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.5231481481481501E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5462962962963E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.5694444444444499E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.5925925925925901E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.61574074074074E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.6388888888888899E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.6620370370370398E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.6851851851851901E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.70833333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.7314814814814799E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7546296296296301E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7777777777777801E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.80092592592593E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8240740740740799E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.8472222222222201E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.87037037037037E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.8935185185185199E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.9166666666666698E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.9398148148148201E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.96296296296296E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.9861111111111099E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.0092592592592601E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.03240740740741E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.05555555555556E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.0787037037037099E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.1018518518518501E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$C$2:$C$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>3.6326900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6382200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3176199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7306400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1504699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.40472E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3522600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.31856E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1378300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7037200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9327199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2292599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6995700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2386200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2810199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0054499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7800100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8431300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7609399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2138600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2484899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4558199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0382899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0148900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.24432E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0797399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.63187E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.67368E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3904699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.57373E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1001599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9562800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0193399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9366E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7125899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.99345E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1772400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3770799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9608400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3033499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7620599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1067399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3914600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4178499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4388799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.42407E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3558900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3538099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5337200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5286300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3800700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.30104E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3153099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2966899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1396499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.15243E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0357299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1589500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0201799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9680799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1660599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0370900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9067299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9205300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.89252E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9504799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9885E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8008400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8832000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.79753E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8065999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8600200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.80406E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7744699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.82679E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7785700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7359200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7323000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7062600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7619900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7243700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6905400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.71358E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8509500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.06982E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.82043E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.80489E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7940999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7803900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9567899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7153499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.72584E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6745900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6183699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6945499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6771299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6958899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6496799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6108399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6557200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6156500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5723399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.58119E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5884300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5519399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5995700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5526099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.54763E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5898800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5093199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4452100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4755300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4801099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4327100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5821999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.46035E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.44993E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.48247E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4504299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4482E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4146300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4037600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3447799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4321E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3457200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.39189E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4188600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4002300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3887099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.42621E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3329000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.35476E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9FC6-BB44-B92A-34448F78CDCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2418,869 +3332,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C41-1E43-B85D-F4A7C9392FDA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mass_conc!$A$2:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="135"/>
-                <c:pt idx="0">
-                  <c:v>2.3148148148148146E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6296296296296293E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.2592592592592596E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1574074074074099E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.38888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6203703703703701E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.85185185185185E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.0833333333333298E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3148148148148099E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.54629629629629E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.7777777777777801E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0092592592592601E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2407407407407402E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.4722222222222199E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.7037037037036999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.9351851851851796E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1666666666666597E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3981481481481502E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6296296296296302E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.8611111111111103E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.0925925925925904E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.3240740740740696E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5555555555555497E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.7870370370370298E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0185185185185203E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.4814814814814804E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.7129629629629596E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.9444444444444397E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.1759259259259198E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.4074074074074103E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.6388888888888904E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.8703703703703696E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.1018518518518497E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.3333333333333297E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.5648148148148098E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.7962962962962899E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.0277777777777804E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.2592592592592605E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.4907407407407406E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.7222222222222206E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.9537037037037007E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.01851851851852E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.0416666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.06481481481482E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.08796296296296E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.13425925925926E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.1574074074074099E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.18055555555556E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.20370370370371E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.22685185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.27314814814815E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.2962962962963001E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.31944444444445E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.34259259259259E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.3657407407407399E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.38888888888889E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.4120370370370399E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.43518518518519E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.4583333333333399E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.48148148148148E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5046296296296301E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.52777777777778E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.5509259259259301E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.5740740740740802E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.59722222222222E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.6203703703703699E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.6435185185185198E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.6666666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.68981481481482E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7129629629629599E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7361111111111101E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7592592592592601E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.78240740740741E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.8055555555555599E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.8287037037037102E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.85185185185185E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8981481481481498E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.9212962962963001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.94444444444445E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.9675925925925899E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.9907407407407401E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.0138888888888901E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.03703703703704E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.0601851851851899E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.0833333333333402E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.10648148148148E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.1296296296296299E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.1527777777777798E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.1759259259259301E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.19907407407408E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.2222222222222199E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.2453703703703701E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.2685185185185201E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.29166666666667E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.3148148148148199E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.3379629629629601E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.36111111111111E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.3842592592592599E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.4074074074074098E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.4305555555555601E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2.45370370370371E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.4768518518518499E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.5231481481481501E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.5462962962963E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.5694444444444499E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.5925925925925901E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.61574074074074E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.6388888888888899E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.6620370370370398E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.6851851851851901E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2.70833333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2.7314814814814799E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2.7546296296296301E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2.7777777777777801E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2.80092592592593E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2.8240740740740799E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2.8472222222222201E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2.87037037037037E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.8935185185185199E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.9166666666666698E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.9398148148148201E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.96296296296296E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.9861111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3.0092592592592601E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.03240740740741E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3.05555555555556E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3.0787037037037099E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3.1018518518518501E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mass_conc!$C$2:$C$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="135"/>
-                <c:pt idx="0">
-                  <c:v>3.6326900000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6382200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3176199999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7306400000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1504699999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.40472E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3522600000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.31856E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1378300000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7037200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9327199999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2292599999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.6995700000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2386200000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2810199999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0054499999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7800100000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8431300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.7609399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2138600000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.2484899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4558199999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.4585000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0382899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.0148900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.24432E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.0797399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.63187E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.67368E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.3904699999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.57373E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.1001599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9562800000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.0193399999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9366E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.7125899999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0790000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.99345E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.1772400000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.3770799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9608400000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.3033499999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.7620599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.1067399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.3914600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.4178499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.4388799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.42407E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3558900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.3538099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.5337200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.5286300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.3800700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.30104E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.3153099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.2966899999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.1396499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.15243E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.0357299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.1589500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.0201799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.9680799999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.1660599999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.0370900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.9067299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.9205300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.89252E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.9504799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.9885E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.8008400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.8832000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.79753E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8065999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8600200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.80406E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7744699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.82679E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.8218999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.7785700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.7359200000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.7323000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.7062600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.7619900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.7243700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.6905400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.71358E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.8509500000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.06982E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.82043E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.80489E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.7940999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.7803900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.9567899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.7153499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.72584E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.6745900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.6183699999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.6945499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.6771299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.6958899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.6496799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.6108399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.6557200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.6156500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.5723399999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.58119E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.5884300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.5519399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.5995700000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.5526099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.54763E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.5898800000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.5093199999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.4452100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.4755300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.4801099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.4327100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.5821999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.46035E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.44993E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.48247E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.4504299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.4482E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.4146300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1.4037600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1.3447799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1.4321E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1.3457200000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1.39189E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1.4188600000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.4002300000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.3887099999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.42621E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.3329000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.35476E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C41-1E43-B85D-F4A7C9392FDA}"/>
+              <c16:uniqueId val="{00000003-9FC6-BB44-B92A-34448F78CDCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3419,13 +3471,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -3462,21 +3507,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5521,46 +5551,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6632,536 +6622,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44492,18 +43966,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44526,14 +44000,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -44548,4 +44014,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B91F40-48EB-CC41-B581-0E6D5BFF2B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F489A6-9B64-C44B-8C58-6CF5F1D1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32720" yWindow="6940" windowWidth="37240" windowHeight="24940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2065,7 +2065,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2127,7 +2127,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2169,7 +2169,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2209,7 +2209,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -40693,8 +40693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43749,6 +43749,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -43965,22 +43980,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43997,29 +44022,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F489A6-9B64-C44B-8C58-6CF5F1D1C9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB5A2E7-750D-294E-9CAC-24E4D7E0733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25500" yWindow="4020" windowWidth="47620" windowHeight="27680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,6 +186,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,11 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -318,7 +323,7 @@
             <c:numRef>
               <c:f>mass_conc!$A$2:$A$136</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>2.3148148148148146E-4</c:v>
@@ -1180,7 +1185,7 @@
             <c:numRef>
               <c:f>mass_conc!$A$2:$A$136</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="135"/>
                 <c:pt idx="0">
                   <c:v>2.3148148148148146E-4</c:v>
@@ -2043,7 +2048,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="[$-F400]h:mm:ss\ am/pm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2273,494 +2278,418 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>mass_conc!$A$43:$A$50</c:f>
+              <c:f>mass_conc!$D$2:$D$136</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.7222222222222206E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9537037037037007E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.01851851851852E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0416666666666701E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.06481481481482E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.08796296296296E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1111111111111099E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.13425925925926E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mass_conc!$B$43:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.8846999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.61129E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6887399999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.36373E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.2617999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1260899999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2346700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0624300000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9FC6-BB44-B92A-34448F78CDCB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mass_conc!$A$2:$A$136</c:f>
-              <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="135"/>
                 <c:pt idx="0">
-                  <c:v>2.3148148148148146E-4</c:v>
+                  <c:v>5.5555555555555549E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6296296296296293E-4</c:v>
+                  <c:v>1.111111111111111E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9444444444444447E-4</c:v>
+                  <c:v>1.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2592592592592596E-4</c:v>
+                  <c:v>2.2222222222222223E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1574074074074099E-3</c:v>
+                  <c:v>2.7777777777777839E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.38888888888889E-3</c:v>
+                  <c:v>3.3333333333333361E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6203703703703701E-3</c:v>
+                  <c:v>3.8888888888888883E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.85185185185185E-3</c:v>
+                  <c:v>4.4444444444444398E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0833333333333298E-3</c:v>
+                  <c:v>4.999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3148148148148099E-3</c:v>
+                  <c:v>5.5555555555555441E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.54629629629629E-3</c:v>
+                  <c:v>6.1111111111110963E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7777777777777801E-3</c:v>
+                  <c:v>6.6666666666666721E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0092592592592601E-3</c:v>
+                  <c:v>7.2222222222222243E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2407407407407402E-3</c:v>
+                  <c:v>7.7777777777777765E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4722222222222199E-3</c:v>
+                  <c:v>8.3333333333333273E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7037037037036999E-3</c:v>
+                  <c:v>8.8888888888888795E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9351851851851796E-3</c:v>
+                  <c:v>9.4444444444444303E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1666666666666597E-3</c:v>
+                  <c:v>9.9999999999999839E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3981481481481502E-3</c:v>
+                  <c:v>0.1055555555555556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6296296296296302E-3</c:v>
+                  <c:v>0.11111111111111113</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8611111111111103E-3</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0925925925925904E-3</c:v>
+                  <c:v>0.12222222222222218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3240740740740696E-3</c:v>
+                  <c:v>0.12777777777777766</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5555555555555497E-3</c:v>
+                  <c:v>0.13333333333333319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7870370370370298E-3</c:v>
+                  <c:v>0.13888888888888873</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0185185185185203E-3</c:v>
+                  <c:v>0.14444444444444449</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2500000000000003E-3</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.4814814814814804E-3</c:v>
+                  <c:v>0.15555555555555553</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.7129629629629596E-3</c:v>
+                  <c:v>0.16111111111111104</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.9444444444444397E-3</c:v>
+                  <c:v>0.16666666666666655</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.1759259259259198E-3</c:v>
+                  <c:v>0.17222222222222208</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.4074074074074103E-3</c:v>
+                  <c:v>0.17777777777777784</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.6388888888888904E-3</c:v>
+                  <c:v>0.18333333333333338</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.8703703703703696E-3</c:v>
+                  <c:v>0.18888888888888888</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1018518518518497E-3</c:v>
+                  <c:v>0.19444444444444439</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.3333333333333297E-3</c:v>
+                  <c:v>0.1999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.5648148148148098E-3</c:v>
+                  <c:v>0.20555555555555544</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7962962962962899E-3</c:v>
+                  <c:v>0.21111111111111097</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.0277777777777804E-3</c:v>
+                  <c:v>0.21666666666666673</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.2592592592592605E-3</c:v>
+                  <c:v>0.22222222222222227</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4907407407407406E-3</c:v>
+                  <c:v>0.22777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.7222222222222206E-3</c:v>
+                  <c:v>0.23333333333333328</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.9537037037037007E-3</c:v>
+                  <c:v>0.23888888888888882</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.01851851851852E-2</c:v>
+                  <c:v>0.2444444444444448</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0416666666666701E-2</c:v>
+                  <c:v>0.25000000000000083</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.06481481481482E-2</c:v>
+                  <c:v>0.25555555555555681</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.08796296296296E-2</c:v>
+                  <c:v>0.26111111111111041</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1111111111111099E-2</c:v>
+                  <c:v>0.26666666666666639</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.13425925925926E-2</c:v>
+                  <c:v>0.27222222222222242</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1574074074074099E-2</c:v>
+                  <c:v>0.2777777777777784</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.18055555555556E-2</c:v>
+                  <c:v>0.28333333333333444</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.20370370370371E-2</c:v>
+                  <c:v>0.28888888888889042</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.22685185185185E-2</c:v>
+                  <c:v>0.29444444444444401</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.27314814814815E-2</c:v>
+                  <c:v>0.30555555555555602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2962962962963001E-2</c:v>
+                  <c:v>0.311111111111112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.31944444444445E-2</c:v>
+                  <c:v>0.31666666666666798</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.34259259259259E-2</c:v>
+                  <c:v>0.32222222222222163</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3657407407407399E-2</c:v>
+                  <c:v>0.32777777777777761</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.38888888888889E-2</c:v>
+                  <c:v>0.33333333333333359</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4120370370370399E-2</c:v>
+                  <c:v>0.33888888888888957</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.43518518518519E-2</c:v>
+                  <c:v>0.34444444444444561</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4583333333333399E-2</c:v>
+                  <c:v>0.35000000000000159</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.48148148148148E-2</c:v>
+                  <c:v>0.35555555555555518</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.5046296296296301E-2</c:v>
+                  <c:v>0.36111111111111122</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.52777777777778E-2</c:v>
+                  <c:v>0.3666666666666672</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.5509259259259301E-2</c:v>
+                  <c:v>0.37222222222222323</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5740740740740802E-2</c:v>
+                  <c:v>0.37777777777777921</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.59722222222222E-2</c:v>
+                  <c:v>0.3833333333333328</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6203703703703699E-2</c:v>
+                  <c:v>0.38888888888888878</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.6435185185185198E-2</c:v>
+                  <c:v>0.39444444444444476</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.6666666666666701E-2</c:v>
+                  <c:v>0.4000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.68981481481482E-2</c:v>
+                  <c:v>0.40555555555555678</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7129629629629599E-2</c:v>
+                  <c:v>0.41111111111111037</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7361111111111101E-2</c:v>
+                  <c:v>0.41666666666666641</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7592592592592601E-2</c:v>
+                  <c:v>0.42222222222222239</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.78240740740741E-2</c:v>
+                  <c:v>0.42777777777777837</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8055555555555599E-2</c:v>
+                  <c:v>0.43333333333333435</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.8287037037037102E-2</c:v>
+                  <c:v>0.43888888888889044</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.85185185185185E-2</c:v>
+                  <c:v>0.44444444444444398</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8749999999999999E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8981481481481498E-2</c:v>
+                  <c:v>0.45555555555555594</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9212962962963001E-2</c:v>
+                  <c:v>0.46111111111111203</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.94444444444445E-2</c:v>
+                  <c:v>0.46666666666666801</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.9675925925925899E-2</c:v>
+                  <c:v>0.47222222222222154</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.9907407407407401E-2</c:v>
+                  <c:v>0.47777777777777763</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0138888888888901E-2</c:v>
+                  <c:v>0.48333333333333361</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.03703703703704E-2</c:v>
+                  <c:v>0.48888888888888959</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0601851851851899E-2</c:v>
+                  <c:v>0.49444444444444557</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0833333333333402E-2</c:v>
+                  <c:v>0.50000000000000167</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.10648148148148E-2</c:v>
+                  <c:v>0.5055555555555552</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.1296296296296299E-2</c:v>
+                  <c:v>0.51111111111111118</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.1527777777777798E-2</c:v>
+                  <c:v>0.51666666666666716</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1759259259259301E-2</c:v>
+                  <c:v>0.52222222222222325</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.19907407407408E-2</c:v>
+                  <c:v>0.52777777777777923</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.2222222222222199E-2</c:v>
+                  <c:v>0.53333333333333277</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.2453703703703701E-2</c:v>
+                  <c:v>0.53888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2685185185185201E-2</c:v>
+                  <c:v>0.54444444444444484</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.29166666666667E-2</c:v>
+                  <c:v>0.55000000000000082</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.3148148148148199E-2</c:v>
+                  <c:v>0.5555555555555568</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.3379629629629601E-2</c:v>
+                  <c:v>0.56111111111111045</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.36111111111111E-2</c:v>
+                  <c:v>0.56666666666666643</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.3842592592592599E-2</c:v>
+                  <c:v>0.57222222222222241</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.4074074074074098E-2</c:v>
+                  <c:v>0.57777777777777839</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.4305555555555601E-2</c:v>
+                  <c:v>0.58333333333333437</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.45370370370371E-2</c:v>
+                  <c:v>0.58888888888889035</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.4768518518518499E-2</c:v>
+                  <c:v>0.594444444444444</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.5231481481481501E-2</c:v>
+                  <c:v>0.60555555555555607</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.5462962962963E-2</c:v>
+                  <c:v>0.61111111111111205</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2.5694444444444499E-2</c:v>
+                  <c:v>0.61666666666666803</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2.5925925925925901E-2</c:v>
+                  <c:v>0.62222222222222157</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.61574074074074E-2</c:v>
+                  <c:v>0.62777777777777755</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.6388888888888899E-2</c:v>
+                  <c:v>0.63333333333333353</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.6620370370370398E-2</c:v>
+                  <c:v>0.63888888888888951</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.6851851851851901E-2</c:v>
+                  <c:v>0.6444444444444456</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.70833333333333E-2</c:v>
+                  <c:v>0.64999999999999925</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.7314814814814799E-2</c:v>
+                  <c:v>0.65555555555555522</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.7546296296296301E-2</c:v>
+                  <c:v>0.6611111111111112</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.7777777777777801E-2</c:v>
+                  <c:v>0.66666666666666718</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.80092592592593E-2</c:v>
+                  <c:v>0.67222222222222316</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.8240740740740799E-2</c:v>
+                  <c:v>0.67777777777777914</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.8472222222222201E-2</c:v>
+                  <c:v>0.68333333333333279</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.87037037037037E-2</c:v>
+                  <c:v>0.68888888888888877</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.8935185185185199E-2</c:v>
+                  <c:v>0.69444444444444475</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.9166666666666698E-2</c:v>
+                  <c:v>0.70000000000000073</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.9398148148148201E-2</c:v>
+                  <c:v>0.70555555555555682</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.96296296296296E-2</c:v>
+                  <c:v>0.71111111111111036</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.9861111111111099E-2</c:v>
+                  <c:v>0.71666666666666634</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.0092592592592601E-2</c:v>
+                  <c:v>0.72222222222222243</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.03240740740741E-2</c:v>
+                  <c:v>0.72777777777777841</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.05555555555556E-2</c:v>
+                  <c:v>0.73333333333333439</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.0787037037037099E-2</c:v>
+                  <c:v>0.73888888888889037</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.1018518518518501E-2</c:v>
+                  <c:v>0.74444444444444402</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3188,7 +3117,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3265,66 +3194,540 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>mass_conc!$A$43:$A$50</c:f>
+              <c:f>mass_conc!$D$50:$D$136</c:f>
               <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>9.7222222222222206E-3</c:v>
+                  <c:v>0.27222222222222242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9537037037037007E-3</c:v>
+                  <c:v>0.2777777777777784</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01851851851852E-2</c:v>
+                  <c:v>0.28333333333333444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0416666666666701E-2</c:v>
+                  <c:v>0.28888888888889042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06481481481482E-2</c:v>
+                  <c:v>0.29444444444444401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08796296296296E-2</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1111111111111099E-2</c:v>
+                  <c:v>0.30555555555555602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.13425925925926E-2</c:v>
+                  <c:v>0.311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31666666666666798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32222222222222163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32777777777777761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33888888888888957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34444444444444561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35000000000000159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35555555555555518</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36111111111111122</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.37222222222222323</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.37777777777777921</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3833333333333328</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39444444444444476</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40555555555555678</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.41111111111111037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41666666666666641</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42222222222222239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.42777777777777837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.43333333333333435</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43888888888889044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.45555555555555594</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46111111111111203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46666666666666801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47222222222222154</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47777777777777763</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48333333333333361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.48888888888888959</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49444444444444557</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50000000000000167</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51111111111111118</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51666666666666716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52222222222222325</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52777777777777923</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53333333333333277</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54444444444444484</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5555555555555568</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.56111111111111045</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56666666666666643</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.57222222222222241</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.57777777777777839</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58333333333333437</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58888888888889035</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.594444444444444</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60555555555555607</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61111111111111205</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61666666666666803</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62222222222222157</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.62777777777777755</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.63333333333333353</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63888888888888951</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6444444444444456</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.64999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.65555555555555522</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.66666666666666718</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.67222222222222316</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.67777777777777914</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.68333333333333279</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.68888888888888877</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69444444444444475</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70555555555555682</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71111111111111036</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71666666666666634</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.72222222222222243</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.72777777777777841</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.73333333333333439</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73888888888889037</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.74444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mass_conc!$B$43:$B$50</c:f>
+              <c:f>mass_conc!$B$50:$B$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>8.8846999999999995E-2</c:v>
+                  <c:v>2.0624300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.61129E-2</c:v>
+                  <c:v>2.14284E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6887399999999999E-2</c:v>
+                  <c:v>2.2241899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.36373E-2</c:v>
+                  <c:v>2.1193300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2617999999999999E-2</c:v>
+                  <c:v>2.1445599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1260899999999999E-2</c:v>
+                  <c:v>1.97284E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2346700000000001E-2</c:v>
+                  <c:v>1.9697599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0624300000000002E-2</c:v>
+                  <c:v>2.0802000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9127999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0881799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.77427E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8108200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7759899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.83083E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8782199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8237E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.80144E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7800199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7595599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7033699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6772700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7220599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.63161E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6228699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7170500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6586500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6978400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7223100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.58581E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.56119E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.55566E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5356699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.50169E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.50543E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.57961E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.50913E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.54427E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.51834E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5082999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4970600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.51856E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.48387E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4629700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.45215E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5080700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4664699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.49131E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.45685E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4250799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.42311E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.41727E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.40424E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3542800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.44171E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.42957E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.39385E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.40597E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.34968E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.3901699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3880099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3290400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2989000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3479E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2885499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3632E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2692500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2464599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.28386E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.30463E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.27063E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3693500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.24408E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2278300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.49643E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.20318E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.22814E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2331399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.14968E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2777699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.18639E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.24309E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.21598E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2577E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.17068E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.14298E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.16174E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,7 +3771,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6662,16 +7065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1536700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40691,20 +41094,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
@@ -40714,8 +41118,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>2.3148148148148146E-4</v>
       </c>
       <c r="B2">
@@ -40724,9 +41128,13 @@
       <c r="C2">
         <v>3.6326900000000001E-3</v>
       </c>
+      <c r="D2" s="4">
+        <f>A2*24</f>
+        <v>5.5555555555555549E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>4.6296296296296293E-4</v>
       </c>
       <c r="B3">
@@ -40735,9 +41143,13 @@
       <c r="C3">
         <v>3.6382200000000002E-3</v>
       </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D66" si="0">A3*24</f>
+        <v>1.111111111111111E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="B4">
@@ -40746,9 +41158,13 @@
       <c r="C4">
         <v>3.3176199999999999E-3</v>
       </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>9.2592592592592596E-4</v>
       </c>
       <c r="B5">
@@ -40757,9 +41173,13 @@
       <c r="C5">
         <v>4.7306400000000004E-3</v>
       </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1.1574074074074099E-3</v>
       </c>
       <c r="B6">
@@ -40768,9 +41188,13 @@
       <c r="C6">
         <v>3.1504699999999998E-3</v>
       </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777839E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>1.38888888888889E-3</v>
       </c>
       <c r="B7">
@@ -40779,9 +41203,13 @@
       <c r="C7">
         <v>4.40472E-3</v>
       </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>1.6203703703703701E-3</v>
       </c>
       <c r="B8">
@@ -40790,9 +41218,13 @@
       <c r="C8">
         <v>3.3522600000000001E-3</v>
       </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888883E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>1.85185185185185E-3</v>
       </c>
       <c r="B9">
@@ -40801,9 +41233,13 @@
       <c r="C9">
         <v>5.31856E-3</v>
       </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444398E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>2.0833333333333298E-3</v>
       </c>
       <c r="B10">
@@ -40812,9 +41248,13 @@
       <c r="C10">
         <v>4.1378300000000003E-3</v>
       </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.999999999999992E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2.3148148148148099E-3</v>
       </c>
       <c r="B11">
@@ -40823,9 +41263,13 @@
       <c r="C11">
         <v>3.7037200000000002E-3</v>
       </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555441E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>2.54629629629629E-3</v>
       </c>
       <c r="B12">
@@ -40834,9 +41278,13 @@
       <c r="C12">
         <v>3.9327199999999998E-3</v>
       </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1111111111110963E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="B13">
@@ -40845,9 +41293,13 @@
       <c r="C13">
         <v>3.2292599999999999E-3</v>
       </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666721E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>3.0092592592592601E-3</v>
       </c>
       <c r="B14">
@@ -40856,9 +41308,13 @@
       <c r="C14">
         <v>4.6995700000000001E-3</v>
       </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2222222222222243E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>3.2407407407407402E-3</v>
       </c>
       <c r="B15">
@@ -40867,9 +41323,13 @@
       <c r="C15">
         <v>3.2386200000000002E-3</v>
       </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777765E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="B16">
@@ -40878,9 +41338,13 @@
       <c r="C16">
         <v>3.2810199999999999E-3</v>
       </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333273E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>3.7037037037036999E-3</v>
       </c>
       <c r="B17">
@@ -40889,9 +41353,13 @@
       <c r="C17">
         <v>4.0054499999999998E-3</v>
       </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888795E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>3.9351851851851796E-3</v>
       </c>
       <c r="B18">
@@ -40900,9 +41368,13 @@
       <c r="C18">
         <v>6.7800100000000004E-3</v>
       </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4444444444444303E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>4.1666666666666597E-3</v>
       </c>
       <c r="B19">
@@ -40911,9 +41383,13 @@
       <c r="C19">
         <v>1.8431300000000001E-2</v>
       </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999839E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>4.3981481481481502E-3</v>
       </c>
       <c r="B20">
@@ -40922,9 +41398,13 @@
       <c r="C20">
         <v>2.7609399999999999E-2</v>
       </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1055555555555556</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>4.6296296296296302E-3</v>
       </c>
       <c r="B21">
@@ -40933,9 +41413,13 @@
       <c r="C21">
         <v>3.2138600000000003E-2</v>
       </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11111111111111113</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="B22">
@@ -40944,9 +41428,13 @@
       <c r="C22">
         <v>4.2484899999999999E-2</v>
       </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666664</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>5.0925925925925904E-3</v>
       </c>
       <c r="B23">
@@ -40955,9 +41443,13 @@
       <c r="C23">
         <v>2.4558199999999999E-2</v>
       </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12222222222222218</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>5.3240740740740696E-3</v>
       </c>
       <c r="B24">
@@ -40966,9 +41458,13 @@
       <c r="C24">
         <v>1.4585000000000001E-2</v>
       </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12777777777777766</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>5.5555555555555497E-3</v>
       </c>
       <c r="B25">
@@ -40977,9 +41473,13 @@
       <c r="C25">
         <v>2.0382899999999999E-2</v>
       </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333319</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>5.7870370370370298E-3</v>
       </c>
       <c r="B26">
@@ -40988,9 +41488,13 @@
       <c r="C26">
         <v>4.0148900000000001E-2</v>
       </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888873</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>6.0185185185185203E-3</v>
       </c>
       <c r="B27">
@@ -40999,9 +41503,13 @@
       <c r="C27">
         <v>2.24432E-2</v>
       </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14444444444444449</v>
+      </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="B28">
@@ -41010,9 +41518,13 @@
       <c r="C28">
         <v>3.0797399999999999E-2</v>
       </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>6.4814814814814804E-3</v>
       </c>
       <c r="B29">
@@ -41021,9 +41533,13 @@
       <c r="C29">
         <v>2.63187E-2</v>
       </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15555555555555553</v>
+      </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>6.7129629629629596E-3</v>
       </c>
       <c r="B30">
@@ -41032,9 +41548,13 @@
       <c r="C30">
         <v>3.67368E-2</v>
       </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16111111111111104</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="B31">
@@ -41043,9 +41563,13 @@
       <c r="C31">
         <v>4.3904699999999998E-2</v>
       </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666655</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>7.1759259259259198E-3</v>
       </c>
       <c r="B32">
@@ -41054,9 +41578,13 @@
       <c r="C32">
         <v>3.57373E-2</v>
       </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17222222222222208</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>7.4074074074074103E-3</v>
       </c>
       <c r="B33">
@@ -41065,9 +41593,13 @@
       <c r="C33">
         <v>4.1001599999999999E-2</v>
       </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17777777777777784</v>
+      </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>7.6388888888888904E-3</v>
       </c>
       <c r="B34">
@@ -41076,9 +41608,13 @@
       <c r="C34">
         <v>3.9562800000000002E-2</v>
       </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333338</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>7.8703703703703696E-3</v>
       </c>
       <c r="B35">
@@ -41087,9 +41623,13 @@
       <c r="C35">
         <v>4.0193399999999997E-2</v>
       </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18888888888888888</v>
+      </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>8.1018518518518497E-3</v>
       </c>
       <c r="B36">
@@ -41098,9 +41638,13 @@
       <c r="C36">
         <v>4.9366E-2</v>
       </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19444444444444439</v>
+      </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>8.3333333333333297E-3</v>
       </c>
       <c r="B37">
@@ -41109,9 +41653,13 @@
       <c r="C37">
         <v>4.7125899999999998E-2</v>
       </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1999999999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>8.5648148148148098E-3</v>
       </c>
       <c r="B38">
@@ -41120,9 +41668,13 @@
       <c r="C38">
         <v>5.0790000000000002E-2</v>
       </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20555555555555544</v>
+      </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>8.7962962962962899E-3</v>
       </c>
       <c r="B39">
@@ -41131,9 +41683,13 @@
       <c r="C39">
         <v>4.99345E-2</v>
       </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21111111111111097</v>
+      </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>9.0277777777777804E-3</v>
       </c>
       <c r="B40">
@@ -41142,9 +41698,13 @@
       <c r="C40">
         <v>5.1772400000000003E-2</v>
       </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666673</v>
+      </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>9.2592592592592605E-3</v>
       </c>
       <c r="B41">
@@ -41153,9 +41713,13 @@
       <c r="C41">
         <v>4.3770799999999999E-2</v>
       </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222227</v>
+      </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>9.4907407407407406E-3</v>
       </c>
       <c r="B42">
@@ -41164,9 +41728,13 @@
       <c r="C42">
         <v>3.9608400000000002E-2</v>
       </c>
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22777777777777777</v>
+      </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>9.7222222222222206E-3</v>
       </c>
       <c r="B43">
@@ -41175,9 +41743,13 @@
       <c r="C43">
         <v>5.3033499999999997E-2</v>
       </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333328</v>
+      </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>9.9537037037037007E-3</v>
       </c>
       <c r="B44">
@@ -41186,9 +41758,13 @@
       <c r="C44">
         <v>4.7620599999999999E-2</v>
       </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23888888888888882</v>
+      </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>1.01851851851852E-2</v>
       </c>
       <c r="B45">
@@ -41197,9 +41773,13 @@
       <c r="C45">
         <v>3.1067399999999998E-2</v>
       </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2444444444444448</v>
+      </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>1.0416666666666701E-2</v>
       </c>
       <c r="B46">
@@ -41208,9 +41788,13 @@
       <c r="C46">
         <v>2.3914600000000001E-2</v>
       </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000083</v>
+      </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>1.06481481481482E-2</v>
       </c>
       <c r="B47">
@@ -41219,9 +41803,13 @@
       <c r="C47">
         <v>2.4178499999999999E-2</v>
       </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25555555555555681</v>
+      </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>1.08796296296296E-2</v>
       </c>
       <c r="B48">
@@ -41230,9 +41818,13 @@
       <c r="C48">
         <v>2.4388799999999999E-2</v>
       </c>
+      <c r="D48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26111111111111041</v>
+      </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>1.1111111111111099E-2</v>
       </c>
       <c r="B49">
@@ -41241,9 +41833,13 @@
       <c r="C49">
         <v>2.42407E-2</v>
       </c>
+      <c r="D49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666639</v>
+      </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
         <v>1.13425925925926E-2</v>
       </c>
       <c r="B50">
@@ -41252,9 +41848,13 @@
       <c r="C50">
         <v>2.3558900000000001E-2</v>
       </c>
+      <c r="D50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27222222222222242</v>
+      </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
         <v>1.1574074074074099E-2</v>
       </c>
       <c r="B51">
@@ -41263,9 +41863,13 @@
       <c r="C51">
         <v>2.3538099999999999E-2</v>
       </c>
+      <c r="D51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2777777777777784</v>
+      </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>1.18055555555556E-2</v>
       </c>
       <c r="B52">
@@ -41274,9 +41878,13 @@
       <c r="C52">
         <v>2.5337200000000001E-2</v>
       </c>
+      <c r="D52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333444</v>
+      </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
         <v>1.20370370370371E-2</v>
       </c>
       <c r="B53">
@@ -41285,9 +41893,13 @@
       <c r="C53">
         <v>2.5286300000000001E-2</v>
       </c>
+      <c r="D53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.28888888888889042</v>
+      </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>1.22685185185185E-2</v>
       </c>
       <c r="B54">
@@ -41296,9 +41908,13 @@
       <c r="C54">
         <v>2.3800700000000001E-2</v>
       </c>
+      <c r="D54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.29444444444444401</v>
+      </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="B55">
@@ -41307,9 +41923,13 @@
       <c r="C55">
         <v>2.30104E-2</v>
       </c>
+      <c r="D55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>1.27314814814815E-2</v>
       </c>
       <c r="B56">
@@ -41318,9 +41938,13 @@
       <c r="C56">
         <v>2.3153099999999999E-2</v>
       </c>
+      <c r="D56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555602</v>
+      </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>1.2962962962963001E-2</v>
       </c>
       <c r="B57">
@@ -41329,9 +41953,13 @@
       <c r="C57">
         <v>2.2966899999999998E-2</v>
       </c>
+      <c r="D57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.311111111111112</v>
+      </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>1.31944444444445E-2</v>
       </c>
       <c r="B58">
@@ -41340,9 +41968,13 @@
       <c r="C58">
         <v>2.1396499999999999E-2</v>
       </c>
+      <c r="D58" s="4">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666798</v>
+      </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
         <v>1.34259259259259E-2</v>
       </c>
       <c r="B59">
@@ -41351,9 +41983,13 @@
       <c r="C59">
         <v>2.15243E-2</v>
       </c>
+      <c r="D59" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32222222222222163</v>
+      </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
         <v>1.3657407407407399E-2</v>
       </c>
       <c r="B60">
@@ -41362,9 +41998,13 @@
       <c r="C60">
         <v>2.0357299999999998E-2</v>
       </c>
+      <c r="D60" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32777777777777761</v>
+      </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
         <v>1.38888888888889E-2</v>
       </c>
       <c r="B61">
@@ -41373,9 +42013,13 @@
       <c r="C61">
         <v>2.1589500000000001E-2</v>
       </c>
+      <c r="D61" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333359</v>
+      </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>1.4120370370370399E-2</v>
       </c>
       <c r="B62">
@@ -41384,9 +42028,13 @@
       <c r="C62">
         <v>2.0201799999999999E-2</v>
       </c>
+      <c r="D62" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33888888888888957</v>
+      </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
         <v>1.43518518518519E-2</v>
       </c>
       <c r="B63">
@@ -41395,9 +42043,13 @@
       <c r="C63">
         <v>1.9680799999999998E-2</v>
       </c>
+      <c r="D63" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34444444444444561</v>
+      </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>1.4583333333333399E-2</v>
       </c>
       <c r="B64">
@@ -41406,9 +42058,13 @@
       <c r="C64">
         <v>2.1660599999999999E-2</v>
       </c>
+      <c r="D64" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000159</v>
+      </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>1.48148148148148E-2</v>
       </c>
       <c r="B65">
@@ -41417,9 +42073,13 @@
       <c r="C65">
         <v>2.0370900000000001E-2</v>
       </c>
+      <c r="D65" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35555555555555518</v>
+      </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
         <v>1.5046296296296301E-2</v>
       </c>
       <c r="B66">
@@ -41428,9 +42088,13 @@
       <c r="C66">
         <v>1.9067299999999999E-2</v>
       </c>
+      <c r="D66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.36111111111111122</v>
+      </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
         <v>1.52777777777778E-2</v>
       </c>
       <c r="B67">
@@ -41439,9 +42103,13 @@
       <c r="C67">
         <v>1.9205300000000002E-2</v>
       </c>
+      <c r="D67" s="4">
+        <f t="shared" ref="D67:D130" si="1">A67*24</f>
+        <v>0.3666666666666672</v>
+      </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
         <v>1.5509259259259301E-2</v>
       </c>
       <c r="B68">
@@ -41450,9 +42118,13 @@
       <c r="C68">
         <v>1.89252E-2</v>
       </c>
+      <c r="D68" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37222222222222323</v>
+      </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
         <v>1.5740740740740802E-2</v>
       </c>
       <c r="B69">
@@ -41461,9 +42133,13 @@
       <c r="C69">
         <v>1.9504799999999999E-2</v>
       </c>
+      <c r="D69" s="4">
+        <f t="shared" si="1"/>
+        <v>0.37777777777777921</v>
+      </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>1.59722222222222E-2</v>
       </c>
       <c r="B70">
@@ -41472,9 +42148,13 @@
       <c r="C70">
         <v>1.9885E-2</v>
       </c>
+      <c r="D70" s="4">
+        <f t="shared" si="1"/>
+        <v>0.3833333333333328</v>
+      </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
         <v>1.6203703703703699E-2</v>
       </c>
       <c r="B71">
@@ -41483,9 +42163,13 @@
       <c r="C71">
         <v>1.8008400000000001E-2</v>
       </c>
+      <c r="D71" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38888888888888878</v>
+      </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
         <v>1.6435185185185198E-2</v>
       </c>
       <c r="B72">
@@ -41494,9 +42178,13 @@
       <c r="C72">
         <v>1.8832000000000002E-2</v>
       </c>
+      <c r="D72" s="4">
+        <f t="shared" si="1"/>
+        <v>0.39444444444444476</v>
+      </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
         <v>1.6666666666666701E-2</v>
       </c>
       <c r="B73">
@@ -41505,9 +42193,13 @@
       <c r="C73">
         <v>1.79753E-2</v>
       </c>
+      <c r="D73" s="4">
+        <f t="shared" si="1"/>
+        <v>0.4000000000000008</v>
+      </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
         <v>1.68981481481482E-2</v>
       </c>
       <c r="B74">
@@ -41516,9 +42208,13 @@
       <c r="C74">
         <v>1.8065999999999999E-2</v>
       </c>
+      <c r="D74" s="4">
+        <f t="shared" si="1"/>
+        <v>0.40555555555555678</v>
+      </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
         <v>1.7129629629629599E-2</v>
       </c>
       <c r="B75">
@@ -41527,9 +42223,13 @@
       <c r="C75">
         <v>1.8600200000000001E-2</v>
       </c>
+      <c r="D75" s="4">
+        <f t="shared" si="1"/>
+        <v>0.41111111111111037</v>
+      </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
         <v>1.7361111111111101E-2</v>
       </c>
       <c r="B76">
@@ -41538,9 +42238,13 @@
       <c r="C76">
         <v>1.80406E-2</v>
       </c>
+      <c r="D76" s="4">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666641</v>
+      </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
         <v>1.7592592592592601E-2</v>
       </c>
       <c r="B77">
@@ -41549,9 +42253,13 @@
       <c r="C77">
         <v>1.7744699999999999E-2</v>
       </c>
+      <c r="D77" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42222222222222239</v>
+      </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
         <v>1.78240740740741E-2</v>
       </c>
       <c r="B78">
@@ -41560,9 +42268,13 @@
       <c r="C78">
         <v>1.82679E-2</v>
       </c>
+      <c r="D78" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42777777777777837</v>
+      </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
         <v>1.8055555555555599E-2</v>
       </c>
       <c r="B79">
@@ -41571,9 +42283,13 @@
       <c r="C79">
         <v>1.8218999999999999E-2</v>
       </c>
+      <c r="D79" s="4">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333435</v>
+      </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
         <v>1.8287037037037102E-2</v>
       </c>
       <c r="B80">
@@ -41582,9 +42298,13 @@
       <c r="C80">
         <v>1.7785700000000002E-2</v>
       </c>
+      <c r="D80" s="4">
+        <f t="shared" si="1"/>
+        <v>0.43888888888889044</v>
+      </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
         <v>1.85185185185185E-2</v>
       </c>
       <c r="B81">
@@ -41593,9 +42313,13 @@
       <c r="C81">
         <v>1.7359200000000002E-2</v>
       </c>
+      <c r="D81" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444398</v>
+      </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B82">
@@ -41604,9 +42328,13 @@
       <c r="C82">
         <v>1.7323000000000002E-2</v>
       </c>
+      <c r="D82" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
         <v>1.8981481481481498E-2</v>
       </c>
       <c r="B83">
@@ -41615,9 +42343,13 @@
       <c r="C83">
         <v>1.7062600000000001E-2</v>
       </c>
+      <c r="D83" s="4">
+        <f t="shared" si="1"/>
+        <v>0.45555555555555594</v>
+      </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
         <v>1.9212962962963001E-2</v>
       </c>
       <c r="B84">
@@ -41626,9 +42358,13 @@
       <c r="C84">
         <v>1.7619900000000001E-2</v>
       </c>
+      <c r="D84" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46111111111111203</v>
+      </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
         <v>1.94444444444445E-2</v>
       </c>
       <c r="B85">
@@ -41637,9 +42373,13 @@
       <c r="C85">
         <v>1.7243700000000001E-2</v>
       </c>
+      <c r="D85" s="4">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666801</v>
+      </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>1.9675925925925899E-2</v>
       </c>
       <c r="B86">
@@ -41648,9 +42388,13 @@
       <c r="C86">
         <v>1.6905400000000001E-2</v>
       </c>
+      <c r="D86" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47222222222222154</v>
+      </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
         <v>1.9907407407407401E-2</v>
       </c>
       <c r="B87">
@@ -41659,9 +42403,13 @@
       <c r="C87">
         <v>1.71358E-2</v>
       </c>
+      <c r="D87" s="4">
+        <f t="shared" si="1"/>
+        <v>0.47777777777777763</v>
+      </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
         <v>2.0138888888888901E-2</v>
       </c>
       <c r="B88">
@@ -41670,9 +42418,13 @@
       <c r="C88">
         <v>1.8509500000000002E-2</v>
       </c>
+      <c r="D88" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48333333333333361</v>
+      </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
         <v>2.03703703703704E-2</v>
       </c>
       <c r="B89">
@@ -41681,9 +42433,13 @@
       <c r="C89">
         <v>2.06982E-2</v>
       </c>
+      <c r="D89" s="4">
+        <f t="shared" si="1"/>
+        <v>0.48888888888888959</v>
+      </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
         <v>2.0601851851851899E-2</v>
       </c>
       <c r="B90">
@@ -41692,9 +42448,13 @@
       <c r="C90">
         <v>1.82043E-2</v>
       </c>
+      <c r="D90" s="4">
+        <f t="shared" si="1"/>
+        <v>0.49444444444444557</v>
+      </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
         <v>2.0833333333333402E-2</v>
       </c>
       <c r="B91">
@@ -41703,9 +42463,13 @@
       <c r="C91">
         <v>1.80489E-2</v>
       </c>
+      <c r="D91" s="4">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000167</v>
+      </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>2.10648148148148E-2</v>
       </c>
       <c r="B92">
@@ -41714,9 +42478,13 @@
       <c r="C92">
         <v>1.7940999999999999E-2</v>
       </c>
+      <c r="D92" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5055555555555552</v>
+      </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
         <v>2.1296296296296299E-2</v>
       </c>
       <c r="B93">
@@ -41725,9 +42493,13 @@
       <c r="C93">
         <v>1.7803900000000001E-2</v>
       </c>
+      <c r="D93" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51111111111111118</v>
+      </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
         <v>2.1527777777777798E-2</v>
       </c>
       <c r="B94">
@@ -41736,9 +42508,13 @@
       <c r="C94">
         <v>1.9567899999999999E-2</v>
       </c>
+      <c r="D94" s="4">
+        <f t="shared" si="1"/>
+        <v>0.51666666666666716</v>
+      </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>2.1759259259259301E-2</v>
       </c>
       <c r="B95">
@@ -41747,9 +42523,13 @@
       <c r="C95">
         <v>1.7153499999999999E-2</v>
       </c>
+      <c r="D95" s="4">
+        <f t="shared" si="1"/>
+        <v>0.52222222222222325</v>
+      </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>2.19907407407408E-2</v>
       </c>
       <c r="B96">
@@ -41758,9 +42538,13 @@
       <c r="C96">
         <v>1.72584E-2</v>
       </c>
+      <c r="D96" s="4">
+        <f t="shared" si="1"/>
+        <v>0.52777777777777923</v>
+      </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>2.2222222222222199E-2</v>
       </c>
       <c r="B97">
@@ -41769,9 +42553,13 @@
       <c r="C97">
         <v>1.6745900000000001E-2</v>
       </c>
+      <c r="D97" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333277</v>
+      </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>2.2453703703703701E-2</v>
       </c>
       <c r="B98">
@@ -41780,9 +42568,13 @@
       <c r="C98">
         <v>1.6183699999999999E-2</v>
       </c>
+      <c r="D98" s="4">
+        <f t="shared" si="1"/>
+        <v>0.53888888888888886</v>
+      </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>2.2685185185185201E-2</v>
       </c>
       <c r="B99">
@@ -41791,9 +42583,13 @@
       <c r="C99">
         <v>1.6945499999999999E-2</v>
       </c>
+      <c r="D99" s="4">
+        <f t="shared" si="1"/>
+        <v>0.54444444444444484</v>
+      </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>2.29166666666667E-2</v>
       </c>
       <c r="B100">
@@ -41802,9 +42598,13 @@
       <c r="C100">
         <v>1.6771299999999999E-2</v>
       </c>
+      <c r="D100" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000082</v>
+      </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
         <v>2.3148148148148199E-2</v>
       </c>
       <c r="B101">
@@ -41813,9 +42613,13 @@
       <c r="C101">
         <v>1.6958899999999999E-2</v>
       </c>
+      <c r="D101" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5555555555555568</v>
+      </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
         <v>2.3379629629629601E-2</v>
       </c>
       <c r="B102">
@@ -41824,9 +42628,13 @@
       <c r="C102">
         <v>1.6496799999999999E-2</v>
       </c>
+      <c r="D102" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56111111111111045</v>
+      </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
         <v>2.36111111111111E-2</v>
       </c>
       <c r="B103">
@@ -41835,9 +42643,13 @@
       <c r="C103">
         <v>1.6108399999999998E-2</v>
       </c>
+      <c r="D103" s="4">
+        <f t="shared" si="1"/>
+        <v>0.56666666666666643</v>
+      </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
         <v>2.3842592592592599E-2</v>
       </c>
       <c r="B104">
@@ -41846,9 +42658,13 @@
       <c r="C104">
         <v>1.6557200000000001E-2</v>
       </c>
+      <c r="D104" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57222222222222241</v>
+      </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
         <v>2.4074074074074098E-2</v>
       </c>
       <c r="B105">
@@ -41857,9 +42673,13 @@
       <c r="C105">
         <v>1.6156500000000001E-2</v>
       </c>
+      <c r="D105" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777839</v>
+      </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
         <v>2.4305555555555601E-2</v>
       </c>
       <c r="B106">
@@ -41868,9 +42688,13 @@
       <c r="C106">
         <v>1.5723399999999998E-2</v>
       </c>
+      <c r="D106" s="4">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333437</v>
+      </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
         <v>2.45370370370371E-2</v>
       </c>
       <c r="B107">
@@ -41879,9 +42703,13 @@
       <c r="C107">
         <v>1.58119E-2</v>
       </c>
+      <c r="D107" s="4">
+        <f t="shared" si="1"/>
+        <v>0.58888888888889035</v>
+      </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
         <v>2.4768518518518499E-2</v>
       </c>
       <c r="B108">
@@ -41890,9 +42718,13 @@
       <c r="C108">
         <v>1.5884300000000001E-2</v>
       </c>
+      <c r="D108" s="4">
+        <f t="shared" si="1"/>
+        <v>0.594444444444444</v>
+      </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B109">
@@ -41901,9 +42733,13 @@
       <c r="C109">
         <v>1.5519399999999999E-2</v>
       </c>
+      <c r="D109" s="4">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
         <v>2.5231481481481501E-2</v>
       </c>
       <c r="B110">
@@ -41912,9 +42748,13 @@
       <c r="C110">
         <v>1.5995700000000002E-2</v>
       </c>
+      <c r="D110" s="4">
+        <f t="shared" si="1"/>
+        <v>0.60555555555555607</v>
+      </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
         <v>2.5462962962963E-2</v>
       </c>
       <c r="B111">
@@ -41923,9 +42763,13 @@
       <c r="C111">
         <v>1.5526099999999999E-2</v>
       </c>
+      <c r="D111" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111205</v>
+      </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
         <v>2.5694444444444499E-2</v>
       </c>
       <c r="B112">
@@ -41934,9 +42778,13 @@
       <c r="C112">
         <v>1.54763E-2</v>
       </c>
+      <c r="D112" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61666666666666803</v>
+      </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
         <v>2.5925925925925901E-2</v>
       </c>
       <c r="B113">
@@ -41945,9 +42793,13 @@
       <c r="C113">
         <v>1.5898800000000001E-2</v>
       </c>
+      <c r="D113" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62222222222222157</v>
+      </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
         <v>2.61574074074074E-2</v>
       </c>
       <c r="B114">
@@ -41956,9 +42808,13 @@
       <c r="C114">
         <v>1.5093199999999999E-2</v>
       </c>
+      <c r="D114" s="4">
+        <f t="shared" si="1"/>
+        <v>0.62777777777777755</v>
+      </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
         <v>2.6388888888888899E-2</v>
       </c>
       <c r="B115">
@@ -41967,9 +42823,13 @@
       <c r="C115">
         <v>1.4452100000000001E-2</v>
       </c>
+      <c r="D115" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63333333333333353</v>
+      </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
         <v>2.6620370370370398E-2</v>
       </c>
       <c r="B116">
@@ -41978,9 +42838,13 @@
       <c r="C116">
         <v>1.4755300000000001E-2</v>
       </c>
+      <c r="D116" s="4">
+        <f t="shared" si="1"/>
+        <v>0.63888888888888951</v>
+      </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
         <v>2.6851851851851901E-2</v>
       </c>
       <c r="B117">
@@ -41989,9 +42853,13 @@
       <c r="C117">
         <v>1.4801099999999999E-2</v>
       </c>
+      <c r="D117" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6444444444444456</v>
+      </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
         <v>2.70833333333333E-2</v>
       </c>
       <c r="B118">
@@ -42000,9 +42868,13 @@
       <c r="C118">
         <v>1.4327100000000001E-2</v>
       </c>
+      <c r="D118" s="4">
+        <f t="shared" si="1"/>
+        <v>0.64999999999999925</v>
+      </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
         <v>2.7314814814814799E-2</v>
       </c>
       <c r="B119">
@@ -42011,9 +42883,13 @@
       <c r="C119">
         <v>1.5821999999999999E-2</v>
       </c>
+      <c r="D119" s="4">
+        <f t="shared" si="1"/>
+        <v>0.65555555555555522</v>
+      </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
         <v>2.7546296296296301E-2</v>
       </c>
       <c r="B120">
@@ -42022,9 +42898,13 @@
       <c r="C120">
         <v>1.46035E-2</v>
       </c>
+      <c r="D120" s="4">
+        <f t="shared" si="1"/>
+        <v>0.6611111111111112</v>
+      </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
         <v>2.7777777777777801E-2</v>
       </c>
       <c r="B121">
@@ -42033,9 +42913,13 @@
       <c r="C121">
         <v>1.44993E-2</v>
       </c>
+      <c r="D121" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666718</v>
+      </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
         <v>2.80092592592593E-2</v>
       </c>
       <c r="B122">
@@ -42044,9 +42928,13 @@
       <c r="C122">
         <v>1.48247E-2</v>
       </c>
+      <c r="D122" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67222222222222316</v>
+      </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
         <v>2.8240740740740799E-2</v>
       </c>
       <c r="B123">
@@ -42055,9 +42943,13 @@
       <c r="C123">
         <v>1.4504299999999999E-2</v>
       </c>
+      <c r="D123" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67777777777777914</v>
+      </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
         <v>2.8472222222222201E-2</v>
       </c>
       <c r="B124">
@@ -42066,9 +42958,13 @@
       <c r="C124">
         <v>1.4482E-2</v>
       </c>
+      <c r="D124" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68333333333333279</v>
+      </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
         <v>2.87037037037037E-2</v>
       </c>
       <c r="B125">
@@ -42077,9 +42973,13 @@
       <c r="C125">
         <v>1.4146300000000001E-2</v>
       </c>
+      <c r="D125" s="4">
+        <f t="shared" si="1"/>
+        <v>0.68888888888888877</v>
+      </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
         <v>2.8935185185185199E-2</v>
       </c>
       <c r="B126">
@@ -42088,9 +42988,13 @@
       <c r="C126">
         <v>1.4037600000000001E-2</v>
       </c>
+      <c r="D126" s="4">
+        <f t="shared" si="1"/>
+        <v>0.69444444444444475</v>
+      </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
         <v>2.9166666666666698E-2</v>
       </c>
       <c r="B127">
@@ -42099,9 +43003,13 @@
       <c r="C127">
         <v>1.3447799999999999E-2</v>
       </c>
+      <c r="D127" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000073</v>
+      </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
         <v>2.9398148148148201E-2</v>
       </c>
       <c r="B128">
@@ -42110,9 +43018,13 @@
       <c r="C128">
         <v>1.4321E-2</v>
       </c>
+      <c r="D128" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70555555555555682</v>
+      </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
         <v>2.96296296296296E-2</v>
       </c>
       <c r="B129">
@@ -42121,9 +43033,13 @@
       <c r="C129">
         <v>1.3457200000000001E-2</v>
       </c>
+      <c r="D129" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71111111111111036</v>
+      </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
         <v>2.9861111111111099E-2</v>
       </c>
       <c r="B130">
@@ -42132,9 +43048,13 @@
       <c r="C130">
         <v>1.39189E-2</v>
       </c>
+      <c r="D130" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71666666666666634</v>
+      </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
         <v>3.0092592592592601E-2</v>
       </c>
       <c r="B131">
@@ -42143,9 +43063,13 @@
       <c r="C131">
         <v>1.4188600000000001E-2</v>
       </c>
+      <c r="D131" s="4">
+        <f t="shared" ref="D131:D136" si="2">A131*24</f>
+        <v>0.72222222222222243</v>
+      </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
         <v>3.03240740740741E-2</v>
       </c>
       <c r="B132">
@@ -42154,9 +43078,13 @@
       <c r="C132">
         <v>1.4002300000000001E-2</v>
       </c>
+      <c r="D132" s="4">
+        <f t="shared" si="2"/>
+        <v>0.72777777777777841</v>
+      </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
         <v>3.05555555555556E-2</v>
       </c>
       <c r="B133">
@@ -42165,9 +43093,13 @@
       <c r="C133">
         <v>1.3887099999999999E-2</v>
       </c>
+      <c r="D133" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333439</v>
+      </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
         <v>3.0787037037037099E-2</v>
       </c>
       <c r="B134">
@@ -42176,9 +43108,13 @@
       <c r="C134">
         <v>1.42621E-2</v>
       </c>
+      <c r="D134" s="4">
+        <f t="shared" si="2"/>
+        <v>0.73888888888889037</v>
+      </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
         <v>3.1018518518518501E-2</v>
       </c>
       <c r="B135">
@@ -42187,9 +43123,13 @@
       <c r="C135">
         <v>1.3329000000000001E-2</v>
       </c>
+      <c r="D135" s="4">
+        <f t="shared" si="2"/>
+        <v>0.74444444444444402</v>
+      </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
         <v>3.125E-2</v>
       </c>
       <c r="B136">
@@ -42198,9 +43138,13 @@
       <c r="C136">
         <v>1.35476E-2</v>
       </c>
+      <c r="D136" s="4">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B138">
@@ -43749,12 +44693,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -43763,7 +44701,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -43980,24 +44918,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -44005,7 +44932,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44022,4 +44949,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB5A2E7-750D-294E-9CAC-24E4D7E0733A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317CCAC-02CF-9D40-9A9F-3CB6CF21F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="4020" windowWidth="47620" windowHeight="27680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="mass_conc" sheetId="2" r:id="rId2"/>
-    <sheet name="MMAD" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="MMAD" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="expt_data" localSheetId="2">Sheet2!$A$2:$A$125</definedName>
+    <definedName name="prediction" localSheetId="2">Sheet2!$B$2:$B$125</definedName>
+    <definedName name="prediction_1" localSheetId="2">Sheet2!$D$2:$D$125</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +41,34 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{6F54CD7C-BB16-0840-92C9-FE7CEA94D749}" name="expt_data" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/expt_data.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{39B4AE3F-7D30-144D-82CE-4413462F921D}" name="prediction" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{49CB3D86-75F8-784E-9CE2-4B948B5576F6}" name="prediction1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="57">
   <si>
     <t>Sample File</t>
   </si>
@@ -181,13 +213,41 @@
   <si>
     <t>Median M2(µm)</t>
   </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Analytical</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Expt</t>
+  </si>
+  <si>
+    <t>pred2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -218,13 +278,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,6 +2341,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>80cm</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>mass_conc!$D$2:$D$136</c:f>
@@ -2696,414 +2760,414 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>mass_conc!$C$2:$C$136</c:f>
+              <c:f>mass_conc!$B$2:$B$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="135"/>
                 <c:pt idx="0">
-                  <c:v>3.6326900000000001E-3</c:v>
+                  <c:v>4.0416699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6382200000000002E-3</c:v>
+                  <c:v>3.8558199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3176199999999999E-3</c:v>
+                  <c:v>3.3782500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7306400000000004E-3</c:v>
+                  <c:v>3.03222E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1504699999999998E-3</c:v>
+                  <c:v>2.8012699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.40472E-3</c:v>
+                  <c:v>5.2236899999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3522600000000001E-3</c:v>
+                  <c:v>4.1138399999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.31856E-3</c:v>
+                  <c:v>3.3455799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1378300000000003E-3</c:v>
+                  <c:v>2.9750599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7037200000000002E-3</c:v>
+                  <c:v>2.7991600000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9327199999999998E-3</c:v>
+                  <c:v>3.7537199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2292599999999999E-3</c:v>
+                  <c:v>3.27853E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6995700000000001E-3</c:v>
+                  <c:v>4.0413200000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2386200000000002E-3</c:v>
+                  <c:v>3.0645799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2810199999999999E-3</c:v>
+                  <c:v>2.6114799999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0054499999999998E-3</c:v>
+                  <c:v>2.9873299999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7800100000000004E-3</c:v>
+                  <c:v>5.6827500000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8431300000000001E-2</c:v>
+                  <c:v>5.21171E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7609399999999999E-2</c:v>
+                  <c:v>5.0446100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2138600000000003E-2</c:v>
+                  <c:v>3.2091099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.2484899999999999E-2</c:v>
+                  <c:v>6.71794E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4558199999999999E-2</c:v>
+                  <c:v>3.2810899999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4585000000000001E-2</c:v>
+                  <c:v>2.2348799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0382899999999999E-2</c:v>
+                  <c:v>7.4035100000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0148900000000001E-2</c:v>
+                  <c:v>4.6245700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.24432E-2</c:v>
+                  <c:v>5.0746600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0797399999999999E-2</c:v>
+                  <c:v>4.8176700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.63187E-2</c:v>
+                  <c:v>5.5447000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.67368E-2</c:v>
+                  <c:v>5.6009700000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3904699999999998E-2</c:v>
+                  <c:v>7.0573200000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.57373E-2</c:v>
+                  <c:v>4.6516799999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.1001599999999999E-2</c:v>
+                  <c:v>4.8563500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.9562800000000002E-2</c:v>
+                  <c:v>8.4387400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0193399999999997E-2</c:v>
+                  <c:v>8.1036800000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9366E-2</c:v>
+                  <c:v>5.8882999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.7125899999999998E-2</c:v>
+                  <c:v>5.5333399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0790000000000002E-2</c:v>
+                  <c:v>9.4362600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.99345E-2</c:v>
+                  <c:v>0.123312</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.1772400000000003E-2</c:v>
+                  <c:v>8.5886599999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3770799999999999E-2</c:v>
+                  <c:v>0.130327</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.9608400000000002E-2</c:v>
+                  <c:v>0.145485</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.3033499999999997E-2</c:v>
+                  <c:v>8.8846999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.7620599999999999E-2</c:v>
+                  <c:v>5.61129E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.1067399999999998E-2</c:v>
+                  <c:v>2.6887399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3914600000000001E-2</c:v>
+                  <c:v>2.36373E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.4178499999999999E-2</c:v>
+                  <c:v>2.2617999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4388799999999999E-2</c:v>
+                  <c:v>2.1260899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.42407E-2</c:v>
+                  <c:v>2.2346700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3558900000000001E-2</c:v>
+                  <c:v>2.0624300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3538099999999999E-2</c:v>
+                  <c:v>2.14284E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.5337200000000001E-2</c:v>
+                  <c:v>2.2241899999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5286300000000001E-2</c:v>
+                  <c:v>2.1193300000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3800700000000001E-2</c:v>
+                  <c:v>2.1445599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.30104E-2</c:v>
+                  <c:v>1.97284E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.3153099999999999E-2</c:v>
+                  <c:v>1.9697599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.2966899999999998E-2</c:v>
+                  <c:v>2.0802000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1396499999999999E-2</c:v>
+                  <c:v>1.9127999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.15243E-2</c:v>
+                  <c:v>1.9599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0357299999999998E-2</c:v>
+                  <c:v>2.0881799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.1589500000000001E-2</c:v>
+                  <c:v>1.77427E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0201799999999999E-2</c:v>
+                  <c:v>1.8108200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.9680799999999998E-2</c:v>
+                  <c:v>1.7759899999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1660599999999999E-2</c:v>
+                  <c:v>1.83083E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0370900000000001E-2</c:v>
+                  <c:v>1.8782199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.9067299999999999E-2</c:v>
+                  <c:v>1.8237E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9205300000000002E-2</c:v>
+                  <c:v>1.80144E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.89252E-2</c:v>
+                  <c:v>1.7800199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.9504799999999999E-2</c:v>
+                  <c:v>1.7595599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.9885E-2</c:v>
+                  <c:v>1.7033699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.8008400000000001E-2</c:v>
+                  <c:v>1.6772700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8832000000000002E-2</c:v>
+                  <c:v>1.7220599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.79753E-2</c:v>
+                  <c:v>1.63161E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.8065999999999999E-2</c:v>
+                  <c:v>1.6228699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.8600200000000001E-2</c:v>
+                  <c:v>1.7170500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.80406E-2</c:v>
+                  <c:v>1.6586500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.7744699999999999E-2</c:v>
+                  <c:v>1.6978400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.82679E-2</c:v>
+                  <c:v>1.7223100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8218999999999999E-2</c:v>
+                  <c:v>1.58581E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7785700000000002E-2</c:v>
+                  <c:v>1.56119E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7359200000000002E-2</c:v>
+                  <c:v>1.55566E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.7323000000000002E-2</c:v>
+                  <c:v>1.5356699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.7062600000000001E-2</c:v>
+                  <c:v>1.50169E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.7619900000000001E-2</c:v>
+                  <c:v>1.50543E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.7243700000000001E-2</c:v>
+                  <c:v>1.57961E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.6905400000000001E-2</c:v>
+                  <c:v>1.50913E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.71358E-2</c:v>
+                  <c:v>1.54427E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8509500000000002E-2</c:v>
+                  <c:v>1.51834E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.06982E-2</c:v>
+                  <c:v>1.5082999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.82043E-2</c:v>
+                  <c:v>1.4970600000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.80489E-2</c:v>
+                  <c:v>1.51856E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.7940999999999999E-2</c:v>
+                  <c:v>1.48387E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.7803900000000001E-2</c:v>
+                  <c:v>1.4629700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9567899999999999E-2</c:v>
+                  <c:v>1.45215E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.7153499999999999E-2</c:v>
+                  <c:v>1.5080700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.72584E-2</c:v>
+                  <c:v>1.4664699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.6745900000000001E-2</c:v>
+                  <c:v>1.49131E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.6183699999999999E-2</c:v>
+                  <c:v>1.45685E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.6945499999999999E-2</c:v>
+                  <c:v>1.4250799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6771299999999999E-2</c:v>
+                  <c:v>1.42311E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.6958899999999999E-2</c:v>
+                  <c:v>1.41727E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.6496799999999999E-2</c:v>
+                  <c:v>1.40424E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.6108399999999998E-2</c:v>
+                  <c:v>1.3542800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.6557200000000001E-2</c:v>
+                  <c:v>1.44171E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.6156500000000001E-2</c:v>
+                  <c:v>1.42957E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.5723399999999998E-2</c:v>
+                  <c:v>1.39385E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.58119E-2</c:v>
+                  <c:v>1.40597E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.5884300000000001E-2</c:v>
+                  <c:v>1.34968E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.5519399999999999E-2</c:v>
+                  <c:v>1.3901699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.5995700000000002E-2</c:v>
+                  <c:v>1.3880099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.5526099999999999E-2</c:v>
+                  <c:v>1.3290400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.54763E-2</c:v>
+                  <c:v>1.2989000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.5898800000000001E-2</c:v>
+                  <c:v>1.3479E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.5093199999999999E-2</c:v>
+                  <c:v>1.2885499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.4452100000000001E-2</c:v>
+                  <c:v>1.3632E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.4755300000000001E-2</c:v>
+                  <c:v>1.2692500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.4801099999999999E-2</c:v>
+                  <c:v>1.2464599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4327100000000001E-2</c:v>
+                  <c:v>1.28386E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.5821999999999999E-2</c:v>
+                  <c:v>1.30463E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.46035E-2</c:v>
+                  <c:v>1.27063E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.44993E-2</c:v>
+                  <c:v>1.3693500000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.48247E-2</c:v>
+                  <c:v>1.24408E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.4504299999999999E-2</c:v>
+                  <c:v>1.2278300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.4482E-2</c:v>
+                  <c:v>1.49643E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.4146300000000001E-2</c:v>
+                  <c:v>1.20318E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.4037600000000001E-2</c:v>
+                  <c:v>1.22814E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.3447799999999999E-2</c:v>
+                  <c:v>1.2331399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.4321E-2</c:v>
+                  <c:v>1.14968E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.3457200000000001E-2</c:v>
+                  <c:v>1.2777699999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.39189E-2</c:v>
+                  <c:v>1.18639E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.4188600000000001E-2</c:v>
+                  <c:v>1.24309E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.4002300000000001E-2</c:v>
+                  <c:v>1.21598E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.3887099999999999E-2</c:v>
+                  <c:v>1.2577E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.42621E-2</c:v>
+                  <c:v>1.17068E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.3329000000000001E-2</c:v>
+                  <c:v>1.14298E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.35476E-2</c:v>
+                  <c:v>1.16174E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,6 +3182,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>2m for fitting</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -3736,6 +3803,1688 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9FC6-BB44-B92A-34448F78CDCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Analytical</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$D$2:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>5.5555555555555549E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777839E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333361E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8888888888888883E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4444444444444398E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5555555555555441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1111111111110963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666721E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2222222222222243E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7777777777777765E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3333333333333273E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8888888888888795E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4444444444444303E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999839E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12222222222222218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12777777777777766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13333333333333319</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13888888888888873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14444444444444449</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16111111111111104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16666666666666655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17222222222222208</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18333333333333338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19444444444444439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20555555555555544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21111111111111097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21666666666666673</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22222222222222227</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23888888888888882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25000000000000083</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25555555555555681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26111111111111041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26666666666666639</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27222222222222242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28333333333333444</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28888888888889042</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29444444444444401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.30555555555555602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31666666666666798</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32222222222222163</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32777777777777761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33888888888888957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.34444444444444561</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.35000000000000159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.35555555555555518</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36111111111111122</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37222222222222323</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37777777777777921</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.3833333333333328</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.39444444444444476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.40555555555555678</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.41111111111111037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41666666666666641</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42222222222222239</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.42777777777777837</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43333333333333435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43888888888889044</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.45555555555555594</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46111111111111203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46666666666666801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47222222222222154</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47777777777777763</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48333333333333361</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48888888888888959</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49444444444444557</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.50000000000000167</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51111111111111118</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51666666666666716</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52222222222222325</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.52777777777777923</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.53333333333333277</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54444444444444484</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5555555555555568</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.56111111111111045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.56666666666666643</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.57222222222222241</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.57777777777777839</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.58333333333333437</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.58888888888889035</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.594444444444444</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60555555555555607</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.61111111111111205</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.61666666666666803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.62222222222222157</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.62777777777777755</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.63333333333333353</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63888888888888951</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.6444444444444456</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.64999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.65555555555555522</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.6611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.66666666666666718</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.67222222222222316</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.67777777777777914</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.68333333333333279</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.68888888888888877</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.69444444444444475</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.70000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.70555555555555682</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.71111111111111036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.71666666666666634</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.72222222222222243</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.72777777777777841</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.73333333333333439</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.73888888888889037</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.74444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$E$2:$E$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.942111837477432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6356749064530303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.374836560426167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1528116154216956</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9638245398819749</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.802959215851208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.666031056072975</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5494781503848158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4502686098026998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3658216980384537</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2939406988454776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2327557728720471</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1806753175583411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1363445648029846</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0986103394007853</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0664910615134515</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0391512128480094</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0158796023320094</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99607086591083871</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9792097192216731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.96485755350908786</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95264102610209567</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94224234865685663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.93339102053326606</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92585679226586948</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.91944367608797617</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91398484770483146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.744494536742571E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.336106856476371E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9884882887590896E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6925962370129499E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4407336657428441E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2263488776672656E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0438650845160418E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.8853533812042283E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5631904812181608E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4377687415552824E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.4798125834157139E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.6644027076537305E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.9703278694261457E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.379533110397162E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8766500953790282E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4485973360598998E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0842399024443205E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7740997700876546E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5101092683879062E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2854012163917808E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0941302869197757E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.3132095215814857E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.9273805532840914E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.7477664161812406E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.74368182545249E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8890075437293078E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1615109417661125E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5422676613887301E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0151693364514513E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5665045661492738E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1846022405551654E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8595279402130628E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.5828255122333237E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3472971005155343E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.1468159080253611E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7616682051552371E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.30910745837258E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.0726913990301846E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.0202571547569666E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.124427769373932E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.3619000465422369E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.7128383640676601E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1603586901587471E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.6900893793606499E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2897973231593793E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9490697303128251E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.659043259068957E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4121734551900189E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2020384981779266E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0231721505537862E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.7092156470507611E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.4132624843023803E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.3101504071466319E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.3711841776991503E-6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5719384815438997E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8916225523988676E-6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.3125393422234425E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8196251681741931E-6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4000578612495702E-6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0429232233997526E-6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7389311166577958E-6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4801737989196153E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2599202199676801E-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0724409267628274E-6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.1285902326854426E-7</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.7702330782740908E-7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.6140028801515757E-7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.6298226395506986E-7</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.7920908906636793E-7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.079015730096974E-7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.4720479444147395E-7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.9553984897302718E-7</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5156277715434129E-7</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1412960407711541E-7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.8226658117267562E-7</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5514485610503967E-7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3205891184764255E-7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1240821407946673E-7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.5681589494793609E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.1443928659680643E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.9324867516801709E-8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.900915311077096E-8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.0228442917781077E-8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.275432445554413E-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.6392373592828284E-8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.0977096997455733E-8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.6367627160730469E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.2444058013066715E-8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.9104325809192344E-8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.6261554145479792E-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.3841794045363931E-8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1782100325726996E-8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0028894204792907E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D798-684F-BE26-5BC043C7D996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2m</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$D$2:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>5.5555555555555549E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777839E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333361E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8888888888888883E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4444444444444398E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5555555555555441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1111111111110963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666721E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2222222222222243E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7777777777777765E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3333333333333273E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8888888888888795E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4444444444444303E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999839E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12222222222222218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12777777777777766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13333333333333319</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13888888888888873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14444444444444449</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16111111111111104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16666666666666655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17222222222222208</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18333333333333338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19444444444444439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20555555555555544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21111111111111097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21666666666666673</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22222222222222227</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23888888888888882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25000000000000083</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25555555555555681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26111111111111041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26666666666666639</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27222222222222242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28333333333333444</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28888888888889042</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29444444444444401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.30555555555555602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31666666666666798</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32222222222222163</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32777777777777761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33888888888888957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.34444444444444561</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.35000000000000159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.35555555555555518</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36111111111111122</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37222222222222323</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37777777777777921</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.3833333333333328</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.39444444444444476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.40555555555555678</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.41111111111111037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41666666666666641</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42222222222222239</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.42777777777777837</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43333333333333435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43888888888889044</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.45555555555555594</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46111111111111203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46666666666666801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47222222222222154</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47777777777777763</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48333333333333361</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48888888888888959</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49444444444444557</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.50000000000000167</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51111111111111118</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51666666666666716</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52222222222222325</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.52777777777777923</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.53333333333333277</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54444444444444484</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5555555555555568</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.56111111111111045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.56666666666666643</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.57222222222222241</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.57777777777777839</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.58333333333333437</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.58888888888889035</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.594444444444444</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60555555555555607</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.61111111111111205</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.61666666666666803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.62222222222222157</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.62777777777777755</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.63333333333333353</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63888888888888951</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.6444444444444456</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.64999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.65555555555555522</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.6611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.66666666666666718</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.67222222222222316</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.67777777777777914</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.68333333333333279</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.68888888888888877</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.69444444444444475</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.70000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.70555555555555682</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.71111111111111036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.71666666666666634</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.72222222222222243</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.72777777777777841</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.73333333333333439</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.73888888888889037</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.74444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$C$2:$C$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>3.6326900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6382200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3176199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7306400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1504699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.40472E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3522600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.31856E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1378300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7037200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9327199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2292599999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6995700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2386200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2810199999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0054499999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7800100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8431300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7609399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2138600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2484899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4558199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0382899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0148900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.24432E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0797399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.63187E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.67368E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3904699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.57373E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1001599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9562800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0193399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9366E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7125899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.99345E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1772400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3770799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9608400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.3033499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7620599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1067399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.3914600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4178499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4388799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.42407E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3558900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3538099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5337200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.5286300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.3800700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.30104E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.3153099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2966899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1396499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.15243E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0357299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1589500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0201799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9680799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1660599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0370900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9067299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9205300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.89252E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9504799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9885E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8008400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8832000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.79753E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8065999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8600200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.80406E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7744699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.82679E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7785700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7359200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7323000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7062600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7619900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7243700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6905400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.71358E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8509500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.06982E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.82043E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.80489E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7940999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7803900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9567899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7153499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.72584E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.6745900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6183699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6945499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.6771299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.6958899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6496799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6108399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6557200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.6156500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5723399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.58119E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5884300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.5519399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5995700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.5526099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.54763E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.5898800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5093199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4452100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4755300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4801099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4327100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5821999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.46035E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.44993E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.48247E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4504299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4482E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4146300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4037600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3447799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4321E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3457200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.39189E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4188600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4002300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3887099999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.42621E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.3329000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.35476E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D798-684F-BE26-5BC043C7D996}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3929,6 +5678,1441 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>3.6326900000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6382200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3176199999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7306400000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1504699999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4047199999999896E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3522600000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3185599999999904E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1378300000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7037200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9327199999999903E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2292599999999899E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6995700000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2386200000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.28101999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0054499999999903E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7800100000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8431300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7609399999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2138600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2484899999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4558199999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4585000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0382899999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0148900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2443199999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0797399999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.63187E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.67368E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3904699999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5737299999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1001599999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9562800000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.01933999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9366E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7125899999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0790000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9934499999999903E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1772400000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3770799999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.9608400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.30334999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7620599999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1067399999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2966899999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1396499999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1524299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0357299999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1589500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.0201799999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9680799999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1660599999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0370900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9067299999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9205300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8925199999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9504799999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9884999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8008400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8832000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7975299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8065999999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8600200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.80406E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7744699999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.82679E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8218999999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7785700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7359200000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7323000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7062600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7619900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7243700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6905400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7135799999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.8509500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0698199999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8204299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8048899999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7940999999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7803900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9567899999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7153499999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.72584E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6745900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6183699999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6945499999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6771299999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.6958899999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6496799999999898E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6108399999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6557200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.6156500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5723399999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.58119E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5884300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.55193999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5995700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.55260999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.54763E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5898800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.50931999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4452100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4755300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.48010999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4327100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.5821999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.46035E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4499299999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.4824699999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4504299999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4482E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4146300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4037600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.34477999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4321E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.3457200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.3918899999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4188600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4002300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3887099999999901E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4262099999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3329000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.3547599999999899E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000083-6BAC-A04C-9ADD-DFD4D545368E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9577145750141903E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.05289071031014E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6119650681626397E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6356918862401002E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.58203868970212E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8865921079868899E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.56896607574133E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7339002716934398E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2905784822058701E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7614459888032303E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4230108533703699E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8380912379352301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7903978266745098E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1984420470445397E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5984140243616002E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9922112042854598E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0682134461597297E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6218864581606801E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7492256363552701E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1603684244492398E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.43876671550239E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.8208848718373297E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6801427962203202E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.1240164931182599E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.91880703087654E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6367287655225301E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4859690361762202E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.44041728961924E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7864512432996401E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-5.0655122102040004E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-6.2747064335990001E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5.1893115044248901E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.9701212863666002E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.6464238280623201E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2369275748124404E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.37095969666968E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.5807621710620504E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1322940630939301E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.3890797056825498E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.35290344939977E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.1242012056645302E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8584622257310402E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.76608212619818E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.1851370463183301E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0486527583121099E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7685352222452299E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.8813195348186098E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.8913625383797299E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8501395519842507E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.4211108386869193E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.01578798305449E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1612967244102E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.72191091000743E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6128113841480502E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.48610193687689E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.31076978922159E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.24020245234204E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0915361898135899E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.5902483214875699E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.2318573094895098E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.23082121119872E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0597526190735102E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.98738083052341E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.2401544798667799E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.9690822039203199E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.3274035016497799E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5.43601928743257E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.81797016894015E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-4.5677979376552696E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.21960966268425E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.04476532761133E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.65526016548923E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.8438806865904698E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-8.6890132239866892E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.9880408277669999E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.1952075864962598E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.17499832103249E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.8738631133741903E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3721424399897001E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.2395555924971402E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5697971028821398E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.8674534426587602E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3.4480615406315899E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.3385073470004199E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.0488131208000402E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.0950081584980901E-6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-8.8209185447910997E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-6.1034338994143903E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.7314217592978298E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.1593459887647498E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.9836150015924097E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-4.3679087506207298E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.9441202967786501E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-3.1222789184372798E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.6887881313759701E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.2437053085618901E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2257665777600801E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2153979092150899E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-2.6074144323170699E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.73958728069096E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.06854711507327E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.5475086874277203E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.9246926342187804E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.1948008321420699E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.7865641276986299E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.5798141152499899E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7833433655476E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-6.3216646911048004E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.09772504710244E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000084-6BAC-A04C-9ADD-DFD4D545368E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$125</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="124"/>
+                <c:pt idx="0">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8511946666666599E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8591964057297501E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3175431448637003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9050679847666699E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.59096342749873E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3517692106317401E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1696200757059402E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.03091142384639E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9252831972367499E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8448460932268702E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7835923175158699E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7369468659542099E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7014258204980698E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6743761376660801E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6537774944697699E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6380913918206399E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6261462450469401E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.61704987900645E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6101228921129298E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.60484791227929E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.60083095473727E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5977719955747401E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5954425631472801E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.5936686736817E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5923178365425702E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5912891585939901E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5905058085577502E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5899092785357701E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5894550140937399E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5891090865197901E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2618133678896799E-7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.2454196775502898E-7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.4714242446158799E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8820178601633299E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.43317814968036E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.09138157091823E-7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.3109956260887306E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.3289183304380198E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8195437749502E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6701377685582502E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7948519339544602E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1283117488522699E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6207337659900498E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.23420732025599E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.3986300608907698E-9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.1571644059895696E-9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.45026264492732E-9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.1504374097975097E-9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1606056102047202E-9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4068373612083899E-9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.83283420892661E-9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3957242361091801E-9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.06285998688524E-9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.0938004979468702E-10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.1635217534666397E-10</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.6935923877902904E-10</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.57422434508848E-10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7218127637703898E-10</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0726915844562199E-10</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5783783739497699E-10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2019532042466899E-10</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1530112743731601E-11</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.9701228877132706E-11</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.3078283871284303E-11</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.0419720916067303E-11</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.07800802847102E-11</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.3439383569731599E-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7849358970058201E-11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3592491231442699E-11</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.03508377072122E-11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.8822814314720605E-12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.0024475624458503E-12</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5709325470232303E-12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4808174718851701E-12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.6506823603143298E-12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.01852496777898E-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.53712987514052E-12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.17054200010679E-12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.9138113582546901E-13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.7879694127421798E-13</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.1691164302746996E-13</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.9363413482061798E-13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.9975690078960499E-13</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2826831217758902E-13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7382893340286701E-13</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.32372723133249E-13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.00803344337974E-13</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.6762900914953304E-14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.8455827984460202E-14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.4514782331306398E-14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3898516441002E-14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.58141084089435E-14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.96577391257951E-14</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4969593426048199E-14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.13995167962695E-14</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.6808625651988994E-15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.610576239559E-15</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.0340294977380703E-15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.8334711023297296E-15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.9192321377934601E-15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.2230286982330699E-15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.6928618074557001E-15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.28913364970052E-15</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.8169003486934706E-16</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7.4756820193598E-16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.6928174545458202E-16</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.3351456745824898E-16</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.3012630687541502E-16</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.51394962642628E-16</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.91440142532896E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000082-6BAC-A04C-9ADD-DFD4D545368E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1658782607"/>
+        <c:axId val="1194165311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1658782607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194165311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1194165311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658782607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -7029,16 +10213,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513644</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>32457</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7065,16 +10249,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409222</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>145345</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7105,6 +10289,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D95724-7F8C-0E4E-B048-D8374BAC221C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7143,6 +10368,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="prediction_1" connectionId="3" xr16:uid="{4721C2B7-B843-C34A-B5FF-2DCE816314B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="prediction" connectionId="2" xr16:uid="{DD8C8C1E-CF28-C846-AD97-291678B95325}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="expt_data" connectionId="1" xr16:uid="{1F62504D-3050-2745-A8DD-DA2B78CF18AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41094,20 +44331,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -41117,8 +44356,26 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2.3148148148148146E-4</v>
       </c>
@@ -41132,8 +44389,25 @@
         <f>A2*24</f>
         <v>5.5555555555555549E-3</v>
       </c>
+      <c r="E2">
+        <f>AVERAGE(C$2:C$16)</f>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <f>(E2-C2)^2</f>
+        <v>4.7744289355111148E-8</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>4.6296296296296293E-4</v>
       </c>
@@ -41147,8 +44421,16 @@
         <f t="shared" ref="D3:D66" si="0">A3*24</f>
         <v>1.111111111111111E-2</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E16" si="1">AVERAGE(C$2:C$16)</f>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F66" si="2">(E3-C3)^2</f>
+        <v>4.5358208641777768E-8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -41162,8 +44444,16 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8470192490844473E-7</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>9.2592592592592596E-4</v>
       </c>
@@ -41177,8 +44467,16 @@
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7342409432177821E-7</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1.1574074074074099E-3</v>
       </c>
@@ -41192,8 +44490,16 @@
         <f t="shared" si="0"/>
         <v>2.7777777777777839E-2</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9101505847511151E-7</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1.38888888888889E-3</v>
       </c>
@@ -41207,8 +44513,16 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333361E-2</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0639029464177763E-7</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1.6203703703703701E-3</v>
       </c>
@@ -41222,8 +44536,16 @@
         <f t="shared" si="0"/>
         <v>3.8888888888888883E-2</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4893580160177781E-7</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>1.85185185185185E-3</v>
       </c>
@@ -41237,8 +44559,16 @@
         <f t="shared" si="0"/>
         <v>4.4444444444444398E-2</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1531610214684439E-6</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2.0833333333333298E-3</v>
       </c>
@@ -41252,8 +44582,16 @@
         <f t="shared" si="0"/>
         <v>4.999999999999992E-2</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="2"/>
+        <v>8.2159814315111215E-8</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2.3148148148148099E-3</v>
       </c>
@@ -41267,8 +44605,16 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555441E-2</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1748777308444431E-8</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2.54629629629629E-3</v>
       </c>
@@ -41282,8 +44628,16 @@
         <f t="shared" si="0"/>
         <v>6.1111111111110963E-2</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6463799751110543E-9</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -41297,8 +44651,16 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666721E-2</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8680272960177815E-7</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>3.0092592592592601E-3</v>
       </c>
@@ -41312,8 +44674,16 @@
         <f t="shared" si="0"/>
         <v>7.2222222222222243E-2</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="2"/>
+        <v>7.1974070620844446E-7</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>3.2407407407407402E-3</v>
       </c>
@@ -41327,8 +44697,16 @@
         <f t="shared" si="0"/>
         <v>7.7777777777777765E-2</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.7524772224177769E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3.4722222222222199E-3</v>
       </c>
@@ -41342,8 +44720,16 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333273E-2</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>3.8511946666666668E-3</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="2"/>
+        <v>3.2509915050844466E-7</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3.7037037037036999E-3</v>
       </c>
@@ -41357,8 +44743,16 @@
         <f t="shared" si="0"/>
         <v>8.8888888888888795E-2</v>
       </c>
+      <c r="E17">
+        <f>G$2/36.25*(1-EXP(-H$2*D17))+I$2*EXP(-H$2*D17)</f>
+        <v>2.942111837477432</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="2"/>
+        <v>8.6324691441356851</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3.9351851851851796E-3</v>
       </c>
@@ -41372,8 +44766,16 @@
         <f t="shared" si="0"/>
         <v>9.4444444444444303E-2</v>
       </c>
+      <c r="E18">
+        <f>G$2/36.25*(1-EXP(-H$2*D18))+I$2*EXP(-H$2*D18)</f>
+        <v>2.6356749064530303</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9110883765967888</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>4.1666666666666597E-3</v>
       </c>
@@ -41387,8 +44789,16 @@
         <f t="shared" si="0"/>
         <v>9.9999999999999839E-2</v>
       </c>
+      <c r="E19">
+        <f>G$2/36.25*(1-EXP(-H$2*D19))+I$2*EXP(-H$2*D19)</f>
+        <v>2.374836560426167</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5526457513641114</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>4.3981481481481502E-3</v>
       </c>
@@ -41402,8 +44812,16 @@
         <f t="shared" si="0"/>
         <v>0.1055555555555556</v>
       </c>
+      <c r="E20">
+        <f>G$2/36.25*(1-EXP(-H$2*D20))+I$2*EXP(-H$2*D20)</f>
+        <v>2.1528116154216956</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5164844564332842</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>4.6296296296296302E-3</v>
       </c>
@@ -41417,8 +44835,16 @@
         <f t="shared" si="0"/>
         <v>0.11111111111111113</v>
       </c>
+      <c r="E21">
+        <f>G$2/36.25*(1-EXP(-H$2*D21))+I$2*EXP(-H$2*D21)</f>
+        <v>1.9638245398819749</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>3.7314105703377094</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>4.8611111111111103E-3</v>
       </c>
@@ -41432,8 +44858,16 @@
         <f t="shared" si="0"/>
         <v>0.11666666666666664</v>
       </c>
+      <c r="E22">
+        <f>G$2/36.25*(1-EXP(-H$2*D22))+I$2*EXP(-H$2*D22)</f>
+        <v>1.802959215851208</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0992698167717787</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>5.0925925925925904E-3</v>
       </c>
@@ -41447,8 +44881,16 @@
         <f t="shared" si="0"/>
         <v>0.12222222222222218</v>
       </c>
+      <c r="E23">
+        <f>G$2/36.25*(1-EXP(-H$2*D23))+I$2*EXP(-H$2*D23)</f>
+        <v>1.666031056072975</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6944331372243697</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>5.3240740740740696E-3</v>
       </c>
@@ -41462,8 +44904,16 @@
         <f t="shared" si="0"/>
         <v>0.12777777777777766</v>
       </c>
+      <c r="E24">
+        <f>G$2/36.25*(1-EXP(-H$2*D24))+I$2*EXP(-H$2*D24)</f>
+        <v>1.5494781503848158</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3558969830982246</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>5.5555555555555497E-3</v>
       </c>
@@ -41477,8 +44927,16 @@
         <f t="shared" si="0"/>
         <v>0.13333333333333319</v>
       </c>
+      <c r="E25">
+        <f>G$2/36.25*(1-EXP(-H$2*D25))+I$2*EXP(-H$2*D25)</f>
+        <v>1.4502686098026998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0445731430979706</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>5.7870370370370298E-3</v>
       </c>
@@ -41492,8 +44950,16 @@
         <f t="shared" si="0"/>
         <v>0.13888888888888873</v>
       </c>
+      <c r="E26">
+        <f>G$2/36.25*(1-EXP(-H$2*D26))+I$2*EXP(-H$2*D26)</f>
+        <v>1.3658216980384537</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="2"/>
+        <v>1.757408367459103</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>6.0185185185185203E-3</v>
       </c>
@@ -41507,8 +44973,16 @@
         <f t="shared" si="0"/>
         <v>0.14444444444444449</v>
       </c>
+      <c r="E27">
+        <f>G$2/36.25*(1-EXP(-H$2*D27))+I$2*EXP(-H$2*D27)</f>
+        <v>1.2939406988454776</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="2"/>
+        <v>1.616705889570305</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -41522,8 +44996,16 @@
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
+      <c r="E28">
+        <f>G$2/36.25*(1-EXP(-H$2*D28))+I$2*EXP(-H$2*D28)</f>
+        <v>1.2327557728720471</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4447039301172191</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>6.4814814814814804E-3</v>
       </c>
@@ -41537,8 +45019,16 @@
         <f t="shared" si="0"/>
         <v>0.15555555555555553</v>
       </c>
+      <c r="E29">
+        <f>G$2/36.25*(1-EXP(-H$2*D29))+I$2*EXP(-H$2*D29)</f>
+        <v>1.1806753175583411</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3325392005007342</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>6.7129629629629596E-3</v>
       </c>
@@ -41552,8 +45042,16 @@
         <f t="shared" si="0"/>
         <v>0.16111111111111104</v>
       </c>
+      <c r="E30">
+        <f>G$2/36.25*(1-EXP(-H$2*D30))+I$2*EXP(-H$2*D30)</f>
+        <v>1.1363445648029846</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2091372364150161</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -41567,8 +45065,16 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666655</v>
       </c>
+      <c r="E31">
+        <f>G$2/36.25*(1-EXP(-H$2*D31))+I$2*EXP(-H$2*D31)</f>
+        <v>1.0986103394007853</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1124039857838197</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>7.1759259259259198E-3</v>
       </c>
@@ -41582,8 +45088,16 @@
         <f t="shared" si="0"/>
         <v>0.17222222222222208</v>
       </c>
+      <c r="E32">
+        <f>G$2/36.25*(1-EXP(-H$2*D32))+I$2*EXP(-H$2*D32)</f>
+        <v>1.0664910615134515</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
+        <v>1.062453316874129</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>7.4074074074074103E-3</v>
       </c>
@@ -41597,8 +45111,16 @@
         <f t="shared" si="0"/>
         <v>0.17777777777777784</v>
       </c>
+      <c r="E33">
+        <f>G$2/36.25*(1-EXP(-H$2*D33))+I$2*EXP(-H$2*D33)</f>
+        <v>1.0391512128480094</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99630264962863102</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>7.6388888888888904E-3</v>
       </c>
@@ -41612,8 +45134,16 @@
         <f t="shared" si="0"/>
         <v>0.18333333333333338</v>
       </c>
+      <c r="E34">
+        <f>G$2/36.25*(1-EXP(-H$2*D34))+I$2*EXP(-H$2*D34)</f>
+        <v>1.0158796023320094</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.95319449851579985</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>7.8703703703703696E-3</v>
       </c>
@@ -41627,8 +45157,16 @@
         <f t="shared" si="0"/>
         <v>0.18888888888888888</v>
       </c>
+      <c r="E35">
+        <f>G$2/36.25*(1-EXP(-H$2*D35))+I$2*EXP(-H$2*D35)</f>
+        <v>0.99607086591083871</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
+        <v>0.91370172983612652</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>8.1018518518518497E-3</v>
       </c>
@@ -41642,8 +45180,16 @@
         <f t="shared" si="0"/>
         <v>0.19444444444444439</v>
       </c>
+      <c r="E36">
+        <f>G$2/36.25*(1-EXP(-H$2*D36))+I$2*EXP(-H$2*D36)</f>
+        <v>0.9792097192216731</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="2"/>
+        <v>0.86460934217599361</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>8.3333333333333297E-3</v>
       </c>
@@ -41657,8 +45203,16 @@
         <f t="shared" si="0"/>
         <v>0.1999999999999999</v>
       </c>
+      <c r="E37">
+        <f>G$2/36.25*(1-EXP(-H$2*D37))+I$2*EXP(-H$2*D37)</f>
+        <v>0.96485755350908786</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
+        <v>0.84223138785252438</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>8.5648148148148098E-3</v>
       </c>
@@ -41672,8 +45226,16 @@
         <f t="shared" si="0"/>
         <v>0.20555555555555544</v>
       </c>
+      <c r="E38">
+        <f>G$2/36.25*(1-EXP(-H$2*D38))+I$2*EXP(-H$2*D38)</f>
+        <v>0.95264102610209567</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
+        <v>0.81333527328140287</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>8.7962962962962899E-3</v>
       </c>
@@ -41687,8 +45249,16 @@
         <f t="shared" si="0"/>
         <v>0.21111111111111097</v>
       </c>
+      <c r="E39">
+        <f>G$2/36.25*(1-EXP(-H$2*D39))+I$2*EXP(-H$2*D39)</f>
+        <v>0.94224234865685663</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>0.79621329677462782</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>9.0277777777777804E-3</v>
       </c>
@@ -41702,8 +45272,16 @@
         <f t="shared" si="0"/>
         <v>0.21666666666666673</v>
       </c>
+      <c r="E40">
+        <f>G$2/36.25*(1-EXP(-H$2*D40))+I$2*EXP(-H$2*D40)</f>
+        <v>0.93339102053326606</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>0.77725139207097893</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>9.2592592592592605E-3</v>
       </c>
@@ -41717,8 +45295,16 @@
         <f t="shared" si="0"/>
         <v>0.22222222222222227</v>
       </c>
+      <c r="E41">
+        <f>G$2/36.25*(1-EXP(-H$2*D41))+I$2*EXP(-H$2*D41)</f>
+        <v>0.92585679226586948</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
+        <v>0.77807569775166352</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>9.4907407407407406E-3</v>
       </c>
@@ -41732,8 +45318,16 @@
         <f t="shared" si="0"/>
         <v>0.22777777777777777</v>
       </c>
+      <c r="E42">
+        <f>G$2/36.25*(1-EXP(-H$2*D42))+I$2*EXP(-H$2*D42)</f>
+        <v>0.91944367608797617</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
+        <v>0.77411011304880528</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>9.7222222222222206E-3</v>
       </c>
@@ -41747,8 +45341,16 @@
         <f t="shared" si="0"/>
         <v>0.23333333333333328</v>
       </c>
+      <c r="E43">
+        <f>G$2/36.25*(1-EXP(-H$2*D43))+I$2*EXP(-H$2*D43)</f>
+        <v>0.91398484770483146</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7412372231147657</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>9.9537037037037007E-3</v>
       </c>
@@ -41762,8 +45364,16 @@
         <f t="shared" si="0"/>
         <v>0.23888888888888882</v>
       </c>
+      <c r="E44">
+        <f>0/36.25*(1-EXP(-H$2*D44))+I$2*EXP(-H$2*D44)</f>
+        <v>2.744494536742571E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>4.0705703985291638E-4</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>1.01851851851852E-2</v>
       </c>
@@ -41777,8 +45387,16 @@
         <f t="shared" si="0"/>
         <v>0.2444444444444448</v>
       </c>
+      <c r="E45">
+        <f>0/36.25*(1-EXP(-H$2*D45))+I$2*EXP(-H$2*D45)</f>
+        <v>2.336106856476371E-2</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9387544189710993E-5</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1.0416666666666701E-2</v>
       </c>
@@ -41792,8 +45410,16 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000083</v>
       </c>
+      <c r="E46">
+        <f>0/36.25*(1-EXP(-H$2*D46))+I$2*EXP(-H$2*D46)</f>
+        <v>1.9884882887590896E-2</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>1.6238620006042776E-5</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1.06481481481482E-2</v>
       </c>
@@ -41807,8 +45433,16 @@
         <f t="shared" si="0"/>
         <v>0.25555555555555681</v>
       </c>
+      <c r="E47">
+        <f>0/36.25*(1-EXP(-H$2*D47))+I$2*EXP(-H$2*D47)</f>
+        <v>1.6925962370129499E-2</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2599302072687599E-5</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1.08796296296296E-2</v>
       </c>
@@ -41822,8 +45456,16 @@
         <f t="shared" si="0"/>
         <v>0.26111111111111041</v>
       </c>
+      <c r="E48">
+        <f>0/36.25*(1-EXP(-H$2*D48))+I$2*EXP(-H$2*D48)</f>
+        <v>1.4407336657428441E-2</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9629610459099765E-5</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1.1111111111111099E-2</v>
       </c>
@@ -41837,8 +45479,16 @@
         <f t="shared" si="0"/>
         <v>0.26666666666666639</v>
       </c>
+      <c r="E49">
+        <f>0/36.25*(1-EXP(-H$2*D49))+I$2*EXP(-H$2*D49)</f>
+        <v>1.2263488776672656E-2</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4345358868819849E-4</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1.13425925925926E-2</v>
       </c>
@@ -41852,8 +45502,16 @@
         <f t="shared" si="0"/>
         <v>0.27222222222222242</v>
       </c>
+      <c r="E50">
+        <f>0/36.25*(1-EXP(-H$2*D50))+I$2*EXP(-H$2*D50)</f>
+        <v>1.0438650845160418E-2</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7214093788506878E-4</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1.1574074074074099E-2</v>
       </c>
@@ -41867,8 +45525,16 @@
         <f t="shared" si="0"/>
         <v>0.2777777777777784</v>
       </c>
+      <c r="E51">
+        <f>0/36.25*(1-EXP(-H$2*D51))+I$2*EXP(-H$2*D51)</f>
+        <v>8.8853533812042283E-3</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1470298347463091E-4</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>1.18055555555556E-2</v>
       </c>
@@ -41882,8 +45548,16 @@
         <f t="shared" si="0"/>
         <v>0.28333333333333444</v>
       </c>
+      <c r="E52">
+        <f>0/36.25*(1-EXP(-H$2*D52))+I$2*EXP(-H$2*D52)</f>
+        <v>7.5631904812181608E-3</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="2"/>
+        <v>3.159154143737475E-4</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1.20370370370371E-2</v>
       </c>
@@ -41897,8 +45571,16 @@
         <f t="shared" si="0"/>
         <v>0.28888888888889042</v>
       </c>
+      <c r="E53">
+        <f>0/36.25*(1-EXP(-H$2*D53))+I$2*EXP(-H$2*D53)</f>
+        <v>6.4377687415552824E-3</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5526713060056767E-4</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>1.22685185185185E-2</v>
       </c>
@@ -41912,8 +45594,16 @@
         <f t="shared" si="0"/>
         <v>0.29444444444444401</v>
       </c>
+      <c r="E54">
+        <f>0/36.25*(1-EXP(-H$2*D54))+I$2*EXP(-H$2*D54)</f>
+        <v>5.4798125834157139E-3</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3565491573115655E-4</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -41927,8 +45617,16 @@
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
+      <c r="E55">
+        <f>0/36.25*(1-EXP(-H$2*D55))+I$2*EXP(-H$2*D55)</f>
+        <v>4.6644027076537305E-3</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3657561665077659E-4</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>1.27314814814815E-2</v>
       </c>
@@ -41942,8 +45640,16 @@
         <f t="shared" si="0"/>
         <v>0.30555555555555602</v>
       </c>
+      <c r="E56">
+        <f>0/36.25*(1-EXP(-H$2*D56))+I$2*EXP(-H$2*D56)</f>
+        <v>3.9703278694261457E-3</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6797874661352099E-4</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>1.2962962962963001E-2</v>
       </c>
@@ -41957,8 +45663,16 @@
         <f t="shared" si="0"/>
         <v>0.311111111111112</v>
       </c>
+      <c r="E57">
+        <f>0/36.25*(1-EXP(-H$2*D57))+I$2*EXP(-H$2*D57)</f>
+        <v>3.379533110397162E-3</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="2"/>
+        <v>3.8366494166790953E-4</v>
+      </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>1.31944444444445E-2</v>
       </c>
@@ -41972,8 +45686,16 @@
         <f t="shared" si="0"/>
         <v>0.31666666666666798</v>
       </c>
+      <c r="E58">
+        <f>0/36.25*(1-EXP(-H$2*D58))+I$2*EXP(-H$2*D58)</f>
+        <v>2.8766500953790282E-3</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4298484048968936E-4</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>1.34259259259259E-2</v>
       </c>
@@ -41987,8 +45709,16 @@
         <f t="shared" si="0"/>
         <v>0.32222222222222163</v>
       </c>
+      <c r="E59">
+        <f>0/36.25*(1-EXP(-H$2*D59))+I$2*EXP(-H$2*D59)</f>
+        <v>2.4485973360598998E-3</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="2"/>
+        <v>3.6388243212305148E-4</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>1.3657407407407399E-2</v>
       </c>
@@ -42002,8 +45732,16 @@
         <f t="shared" si="0"/>
         <v>0.32777777777777761</v>
       </c>
+      <c r="E60">
+        <f>0/36.25*(1-EXP(-H$2*D60))+I$2*EXP(-H$2*D60)</f>
+        <v>2.0842399024443205E-3</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3390472532888159E-4</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>1.38888888888889E-2</v>
       </c>
@@ -42017,8 +45755,16 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333359</v>
       </c>
+      <c r="E61">
+        <f>0/36.25*(1-EXP(-H$2*D61))+I$2*EXP(-H$2*D61)</f>
+        <v>1.7740997700876546E-3</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9265008627161027E-4</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>1.4120370370370399E-2</v>
       </c>
@@ -42032,8 +45778,16 @@
         <f t="shared" si="0"/>
         <v>0.33888888888888957</v>
       </c>
+      <c r="E62">
+        <f>0/36.25*(1-EXP(-H$2*D62))+I$2*EXP(-H$2*D62)</f>
+        <v>1.5101092683879062E-3</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4937930240623344E-4</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>1.43518518518519E-2</v>
       </c>
@@ -42047,8 +45801,16 @@
         <f t="shared" si="0"/>
         <v>0.34444444444444561</v>
       </c>
+      <c r="E63">
+        <f>0/36.25*(1-EXP(-H$2*D63))+I$2*EXP(-H$2*D63)</f>
+        <v>1.2854012163917808E-3</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3839069640797468E-4</v>
+      </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>1.4583333333333399E-2</v>
       </c>
@@ -42062,8 +45824,16 @@
         <f t="shared" si="0"/>
         <v>0.35000000000000159</v>
       </c>
+      <c r="E64">
+        <f>0/36.25*(1-EXP(-H$2*D64))+I$2*EXP(-H$2*D64)</f>
+        <v>1.0941302869197757E-3</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="2"/>
+        <v>4.2297967645904614E-4</v>
+      </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1.48148148148148E-2</v>
       </c>
@@ -42077,8 +45847,16 @@
         <f t="shared" si="0"/>
         <v>0.35555555555555518</v>
       </c>
+      <c r="E65">
+        <f>0/36.25*(1-EXP(-H$2*D65))+I$2*EXP(-H$2*D65)</f>
+        <v>9.3132095215814857E-4</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="2"/>
+        <v>3.7789723355729203E-4</v>
+      </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1.5046296296296301E-2</v>
       </c>
@@ -42092,8 +45870,16 @@
         <f t="shared" si="0"/>
         <v>0.36111111111111122</v>
       </c>
+      <c r="E66">
+        <f>0/36.25*(1-EXP(-H$2*D66))+I$2*EXP(-H$2*D66)</f>
+        <v>7.9273805532840914E-4</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3395961426963905E-4</v>
+      </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1.52777777777778E-2</v>
       </c>
@@ -42104,11 +45890,19 @@
         <v>1.9205300000000002E-2</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D130" si="1">A67*24</f>
+        <f t="shared" ref="D67:D130" si="3">A67*24</f>
         <v>0.3666666666666672</v>
       </c>
+      <c r="E67">
+        <f>0/36.25*(1-EXP(-H$2*D67))+I$2*EXP(-H$2*D67)</f>
+        <v>6.7477664161812406E-4</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" ref="F67:F130" si="4">(E67-C67)^2</f>
+        <v>3.4338029593553634E-4</v>
+      </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1.5509259259259301E-2</v>
       </c>
@@ -42119,11 +45913,19 @@
         <v>1.89252E-2</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37222222222222323</v>
       </c>
+      <c r="E68">
+        <f>0/36.25*(1-EXP(-H$2*D68))+I$2*EXP(-H$2*D68)</f>
+        <v>5.74368182545249E-4</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3675302839250966E-4</v>
+      </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1.5740740740740802E-2</v>
       </c>
@@ -42134,11 +45936,19 @@
         <v>1.9504799999999999E-2</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37777777777777921</v>
       </c>
+      <c r="E69">
+        <f>0/36.25*(1-EXP(-H$2*D69))+I$2*EXP(-H$2*D69)</f>
+        <v>4.8890075437293078E-4</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="4"/>
+        <v>3.6160442411984018E-4</v>
+      </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>1.59722222222222E-2</v>
       </c>
@@ -42149,11 +45959,19 @@
         <v>1.9885E-2</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3833333333333328</v>
       </c>
+      <c r="E70">
+        <f>0/36.25*(1-EXP(-H$2*D70))+I$2*EXP(-H$2*D70)</f>
+        <v>4.1615109417661125E-4</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="4"/>
+        <v>3.7903607771778058E-4</v>
+      </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>1.6203703703703699E-2</v>
       </c>
@@ -42164,11 +45982,19 @@
         <v>1.8008400000000001E-2</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.38888888888888878</v>
       </c>
+      <c r="E71">
+        <f>0/36.25*(1-EXP(-H$2*D71))+I$2*EXP(-H$2*D71)</f>
+        <v>3.5422676613887301E-4</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1166983257117865E-4</v>
+      </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>1.6435185185185198E-2</v>
       </c>
@@ -42179,11 +46005,19 @@
         <v>1.8832000000000002E-2</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.39444444444444476</v>
       </c>
+      <c r="E72">
+        <f>0/36.25*(1-EXP(-H$2*D72))+I$2*EXP(-H$2*D72)</f>
+        <v>3.0151693364514513E-4</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4337880267246406E-4</v>
+      </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>1.6666666666666701E-2</v>
       </c>
@@ -42194,11 +46028,19 @@
         <v>1.79753E-2</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4000000000000008</v>
       </c>
+      <c r="E73">
+        <f>0/36.25*(1-EXP(-H$2*D73))+I$2*EXP(-H$2*D73)</f>
+        <v>2.5665045661492738E-4</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1395054164130002E-4</v>
+      </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>1.68981481481482E-2</v>
       </c>
@@ -42209,11 +46051,19 @@
         <v>1.8065999999999999E-2</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.40555555555555678</v>
       </c>
+      <c r="E74">
+        <f>0/36.25*(1-EXP(-H$2*D74))+I$2*EXP(-H$2*D74)</f>
+        <v>2.1846022405551654E-4</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="4"/>
+        <v>3.185346760539204E-4</v>
+      </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>1.7129629629629599E-2</v>
       </c>
@@ -42224,11 +46074,19 @@
         <v>1.8600200000000001E-2</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41111111111111037</v>
       </c>
+      <c r="E75">
+        <f>0/36.25*(1-EXP(-H$2*D75))+I$2*EXP(-H$2*D75)</f>
+        <v>1.8595279402130628E-4</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3908450016289414E-4</v>
+      </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>1.7361111111111101E-2</v>
       </c>
@@ -42239,11 +46097,19 @@
         <v>1.80406E-2</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41666666666666641</v>
       </c>
+      <c r="E76">
+        <f>0/36.25*(1-EXP(-H$2*D76))+I$2*EXP(-H$2*D76)</f>
+        <v>1.5828255122333237E-4</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1977727733882246E-4</v>
+      </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>1.7592592592592601E-2</v>
       </c>
@@ -42254,11 +46120,19 @@
         <v>1.7744699999999999E-2</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42222222222222239</v>
       </c>
+      <c r="E77">
+        <f>0/36.25*(1-EXP(-H$2*D77))+I$2*EXP(-H$2*D77)</f>
+        <v>1.3472971005155343E-4</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1011105361286698E-4</v>
+      </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>1.78240740740741E-2</v>
       </c>
@@ -42269,11 +46143,19 @@
         <v>1.82679E-2</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42777777777777837</v>
       </c>
+      <c r="E78">
+        <f>0/36.25*(1-EXP(-H$2*D78))+I$2*EXP(-H$2*D78)</f>
+        <v>1.1468159080253611E-4</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2953933861202568E-4</v>
+      </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>1.8055555555555599E-2</v>
       </c>
@@ -42284,11 +46166,19 @@
         <v>1.8218999999999999E-2</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43333333333333435</v>
       </c>
+      <c r="E79">
+        <f>0/36.25*(1-EXP(-H$2*D79))+I$2*EXP(-H$2*D79)</f>
+        <v>9.7616682051552371E-5</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2838453335602024E-4</v>
+      </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>1.8287037037037102E-2</v>
       </c>
@@ -42299,11 +46189,19 @@
         <v>1.7785700000000002E-2</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43888888888889044</v>
       </c>
+      <c r="E80">
+        <f>0/36.25*(1-EXP(-H$2*D80))+I$2*EXP(-H$2*D80)</f>
+        <v>8.30910745837258E-5</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="4"/>
+        <v>3.1338236276622799E-4</v>
+      </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>1.85185185185185E-2</v>
       </c>
@@ -42314,11 +46212,19 @@
         <v>1.7359200000000002E-2</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44444444444444398</v>
       </c>
+      <c r="E81">
+        <f>0/36.25*(1-EXP(-H$2*D81))+I$2*EXP(-H$2*D81)</f>
+        <v>7.0726913990301846E-5</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9889130164568182E-4</v>
+      </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>1.8749999999999999E-2</v>
       </c>
@@ -42329,11 +46235,19 @@
         <v>1.7323000000000002E-2</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44999999999999996</v>
       </c>
+      <c r="E82">
+        <f>0/36.25*(1-EXP(-H$2*D82))+I$2*EXP(-H$2*D82)</f>
+        <v>6.0202571547569666E-5</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9800417505578393E-4</v>
+      </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>1.8981481481481498E-2</v>
       </c>
@@ -42344,11 +46258,19 @@
         <v>1.7062600000000001E-2</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45555555555555594</v>
       </c>
+      <c r="E83">
+        <f>0/36.25*(1-EXP(-H$2*D83))+I$2*EXP(-H$2*D83)</f>
+        <v>5.124427769373932E-5</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8938622351084203E-4</v>
+      </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>1.9212962962963001E-2</v>
       </c>
@@ -42359,11 +46281,19 @@
         <v>1.7619900000000001E-2</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46111111111111203</v>
       </c>
+      <c r="E84">
+        <f>0/36.25*(1-EXP(-H$2*D84))+I$2*EXP(-H$2*D84)</f>
+        <v>4.3619000465422369E-5</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="4"/>
+        <v>3.0892565377460031E-4</v>
+      </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>1.94444444444445E-2</v>
       </c>
@@ -42374,11 +46304,19 @@
         <v>1.7243700000000001E-2</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46666666666666801</v>
       </c>
+      <c r="E85">
+        <f>0/36.25*(1-EXP(-H$2*D85))+I$2*EXP(-H$2*D85)</f>
+        <v>3.7128383640676601E-5</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9606610678890237E-4</v>
+      </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>1.9675925925925899E-2</v>
       </c>
@@ -42389,11 +46327,19 @@
         <v>1.6905400000000001E-2</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.47222222222222154</v>
       </c>
+      <c r="E86">
+        <f>0/36.25*(1-EXP(-H$2*D86))+I$2*EXP(-H$2*D86)</f>
+        <v>3.1603586901587471E-5</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8472500539069288E-4</v>
+      </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>1.9907407407407401E-2</v>
       </c>
@@ -42404,11 +46350,19 @@
         <v>1.71358E-2</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.47777777777777763</v>
       </c>
+      <c r="E87">
+        <f>0/36.25*(1-EXP(-H$2*D87))+I$2*EXP(-H$2*D87)</f>
+        <v>2.6900893793606499E-5</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9271442862634998E-4</v>
+      </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>2.0138888888888901E-2</v>
       </c>
@@ -42419,11 +46373,19 @@
         <v>1.8509500000000002E-2</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48333333333333361</v>
       </c>
+      <c r="E88">
+        <f>0/36.25*(1-EXP(-H$2*D88))+I$2*EXP(-H$2*D88)</f>
+        <v>2.2897973231593793E-5</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="4"/>
+        <v>3.4175445449611782E-4</v>
+      </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>2.03703703703704E-2</v>
       </c>
@@ -42434,11 +46396,19 @@
         <v>2.06982E-2</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48888888888888959</v>
       </c>
+      <c r="E89">
+        <f>0/36.25*(1-EXP(-H$2*D89))+I$2*EXP(-H$2*D89)</f>
+        <v>1.9490697303128251E-5</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="4"/>
+        <v>4.2760901842544213E-4</v>
+      </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>2.0601851851851899E-2</v>
       </c>
@@ -42449,11 +46419,19 @@
         <v>1.82043E-2</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.49444444444444557</v>
       </c>
+      <c r="E90">
+        <f>0/36.25*(1-EXP(-H$2*D90))+I$2*EXP(-H$2*D90)</f>
+        <v>1.659043259068957E-5</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="4"/>
+        <v>3.3079277930843219E-4</v>
+      </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>2.0833333333333402E-2</v>
       </c>
@@ -42464,11 +46442,19 @@
         <v>1.80489E-2</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50000000000000167</v>
       </c>
+      <c r="E91">
+        <f>0/36.25*(1-EXP(-H$2*D91))+I$2*EXP(-H$2*D91)</f>
+        <v>1.4121734551900189E-5</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2525322708387911E-4</v>
+      </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>2.10648148148148E-2</v>
       </c>
@@ -42479,11 +46465,19 @@
         <v>1.7940999999999999E-2</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5055555555555552</v>
       </c>
+      <c r="E92">
+        <f>0/36.25*(1-EXP(-H$2*D92))+I$2*EXP(-H$2*D92)</f>
+        <v>1.2020384981779266E-5</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2144831003573878E-4</v>
+      </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>2.1296296296296299E-2</v>
       </c>
@@ -42494,11 +46488,19 @@
         <v>1.7803900000000001E-2</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.51111111111111118</v>
       </c>
+      <c r="E93">
+        <f>0/36.25*(1-EXP(-H$2*D93))+I$2*EXP(-H$2*D93)</f>
+        <v>1.0231721505537862E-5</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="4"/>
+        <v>3.166146308051001E-4</v>
+      </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>2.1527777777777798E-2</v>
       </c>
@@ -42509,11 +46511,19 @@
         <v>1.9567899999999999E-2</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.51666666666666716</v>
       </c>
+      <c r="E94">
+        <f>0/36.25*(1-EXP(-H$2*D94))+I$2*EXP(-H$2*D94)</f>
+        <v>8.7092156470507611E-6</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="4"/>
+        <v>3.8256194413871731E-4</v>
+      </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>2.1759259259259301E-2</v>
       </c>
@@ -42524,11 +46534,19 @@
         <v>1.7153499999999999E-2</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52222222222222325</v>
       </c>
+      <c r="E95">
+        <f>0/36.25*(1-EXP(-H$2*D95))+I$2*EXP(-H$2*D95)</f>
+        <v>7.4132624843023803E-6</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9398829041041161E-4</v>
+      </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>2.19907407407408E-2</v>
       </c>
@@ -42539,11 +46557,19 @@
         <v>1.72584E-2</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52777777777777923</v>
       </c>
+      <c r="E96">
+        <f>0/36.25*(1-EXP(-H$2*D96))+I$2*EXP(-H$2*D96)</f>
+        <v>6.3101504071466319E-6</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="4"/>
+        <v>2.9763460417842476E-4</v>
+      </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>2.2222222222222199E-2</v>
       </c>
@@ -42554,11 +46580,19 @@
         <v>1.6745900000000001E-2</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53333333333333277</v>
       </c>
+      <c r="E97">
+        <f>0/36.25*(1-EXP(-H$2*D97))+I$2*EXP(-H$2*D97)</f>
+        <v>5.3711841776991503E-6</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8024530503337691E-4</v>
+      </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>2.2453703703703701E-2</v>
       </c>
@@ -42569,11 +46603,19 @@
         <v>1.6183699999999999E-2</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53888888888888886</v>
       </c>
+      <c r="E98">
+        <f>0/36.25*(1-EXP(-H$2*D98))+I$2*EXP(-H$2*D98)</f>
+        <v>4.5719384815438997E-6</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6176418483101388E-4</v>
+      </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>2.2685185185185201E-2</v>
       </c>
@@ -42584,11 +46626,19 @@
         <v>1.6945499999999999E-2</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.54444444444444484</v>
       </c>
+      <c r="E99">
+        <f>0/36.25*(1-EXP(-H$2*D99))+I$2*EXP(-H$2*D99)</f>
+        <v>3.8916225523988676E-6</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8701809441480274E-4</v>
+      </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>2.29166666666667E-2</v>
       </c>
@@ -42599,11 +46649,19 @@
         <v>1.6771299999999999E-2</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55000000000000082</v>
       </c>
+      <c r="E100">
+        <f>0/36.25*(1-EXP(-H$2*D100))+I$2*EXP(-H$2*D100)</f>
+        <v>3.3125393422234425E-6</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8116540348077645E-4</v>
+      </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>2.3148148148148199E-2</v>
       </c>
@@ -42614,11 +46672,19 @@
         <v>1.6958899999999999E-2</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5555555555555568</v>
       </c>
+      <c r="E101">
+        <f>0/36.25*(1-EXP(-H$2*D101))+I$2*EXP(-H$2*D101)</f>
+        <v>2.8196251681741931E-6</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8750866167775692E-4</v>
+      </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>2.3379629629629601E-2</v>
       </c>
@@ -42629,11 +46695,19 @@
         <v>1.6496799999999999E-2</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.56111111111111045</v>
       </c>
+      <c r="E102">
+        <f>0/36.25*(1-EXP(-H$2*D102))+I$2*EXP(-H$2*D102)</f>
+        <v>2.4000578612495702E-6</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7206522945122678E-4</v>
+      </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>2.36111111111111E-2</v>
       </c>
@@ -42644,11 +46718,19 @@
         <v>1.6108399999999998E-2</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.56666666666666643</v>
       </c>
+      <c r="E103">
+        <f>0/36.25*(1-EXP(-H$2*D103))+I$2*EXP(-H$2*D103)</f>
+        <v>2.0429232233997526E-6</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5941473828463158E-4</v>
+      </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>2.3842592592592599E-2</v>
       </c>
@@ -42659,11 +46741,19 @@
         <v>1.6557200000000001E-2</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57222222222222241</v>
       </c>
+      <c r="E104">
+        <f>0/36.25*(1-EXP(-H$2*D104))+I$2*EXP(-H$2*D104)</f>
+        <v>1.7389311166577958E-6</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="4"/>
+        <v>2.7408329120331206E-4</v>
+      </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>2.4074074074074098E-2</v>
       </c>
@@ -42674,11 +46764,19 @@
         <v>1.6156500000000001E-2</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57777777777777839</v>
       </c>
+      <c r="E105">
+        <f>0/36.25*(1-EXP(-H$2*D105))+I$2*EXP(-H$2*D105)</f>
+        <v>1.4801737989196153E-6</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6098466558494997E-4</v>
+      </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>2.4305555555555601E-2</v>
       </c>
@@ -42689,11 +46787,19 @@
         <v>1.5723399999999998E-2</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58333333333333437</v>
       </c>
+      <c r="E106">
+        <f>0/36.25*(1-EXP(-H$2*D106))+I$2*EXP(-H$2*D106)</f>
+        <v>1.2599202199676801E-6</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4718568868822567E-4</v>
+      </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>2.45370370370371E-2</v>
       </c>
@@ -42704,11 +46810,19 @@
         <v>1.58119E-2</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58888888888889035</v>
       </c>
+      <c r="E107">
+        <f>0/36.25*(1-EXP(-H$2*D107))+I$2*EXP(-H$2*D107)</f>
+        <v>1.0724409267628274E-6</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4998226810274985E-4</v>
+      </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>2.4768518518518499E-2</v>
       </c>
@@ -42719,11 +46833,19 @@
         <v>1.5884300000000001E-2</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.594444444444444</v>
       </c>
+      <c r="E108">
+        <f>0/36.25*(1-EXP(-H$2*D108))+I$2*EXP(-H$2*D108)</f>
+        <v>9.1285902326854426E-7</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="4"/>
+        <v>2.52281987070145E-4</v>
+      </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -42734,11 +46856,19 @@
         <v>1.5519399999999999E-2</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
+      <c r="E109">
+        <f>0/36.25*(1-EXP(-H$2*D109))+I$2*EXP(-H$2*D109)</f>
+        <v>7.7702330782740908E-7</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4082765909271822E-4</v>
+      </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>2.5231481481481501E-2</v>
       </c>
@@ -42749,11 +46879,19 @@
         <v>1.5995700000000002E-2</v>
       </c>
       <c r="D110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.60555555555555607</v>
       </c>
+      <c r="E110">
+        <f>0/36.25*(1-EXP(-H$2*D110))+I$2*EXP(-H$2*D110)</f>
+        <v>6.6140028801515757E-7</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5584125980627646E-4</v>
+      </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>2.5462962962963E-2</v>
       </c>
@@ -42764,11 +46902,19 @@
         <v>1.5526099999999999E-2</v>
       </c>
       <c r="D111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61111111111111205</v>
       </c>
+      <c r="E111">
+        <f>0/36.25*(1-EXP(-H$2*D111))+I$2*EXP(-H$2*D111)</f>
+        <v>5.6298226395506986E-7</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4104229968909221E-4</v>
+      </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>2.5694444444444499E-2</v>
       </c>
@@ -42779,11 +46925,19 @@
         <v>1.54763E-2</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61666666666666803</v>
       </c>
+      <c r="E112">
+        <f>0/36.25*(1-EXP(-H$2*D112))+I$2*EXP(-H$2*D112)</f>
+        <v>4.7920908906636793E-7</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3950102915239112E-4</v>
+      </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>2.5925925925925901E-2</v>
       </c>
@@ -42794,11 +46948,19 @@
         <v>1.5898800000000001E-2</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62222222222222157</v>
       </c>
+      <c r="E113">
+        <f>0/36.25*(1-EXP(-H$2*D113))+I$2*EXP(-H$2*D113)</f>
+        <v>4.079015730096974E-7</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5275887131532583E-4</v>
+      </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>2.61574074074074E-2</v>
       </c>
@@ -42809,11 +46971,19 @@
         <v>1.5093199999999999E-2</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62777777777777755</v>
       </c>
+      <c r="E114">
+        <f>0/36.25*(1-EXP(-H$2*D114))+I$2*EXP(-H$2*D114)</f>
+        <v>3.4720479444147395E-7</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2779420549774422E-4</v>
+      </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>2.6388888888888899E-2</v>
       </c>
@@ -42824,11 +46994,19 @@
         <v>1.4452100000000001E-2</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63333333333333353</v>
       </c>
+      <c r="E115">
+        <f>0/36.25*(1-EXP(-H$2*D115))+I$2*EXP(-H$2*D115)</f>
+        <v>2.9553984897302718E-7</v>
+      </c>
+      <c r="F115" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0885465215444112E-4</v>
+      </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>2.6620370370370398E-2</v>
       </c>
@@ -42839,11 +47017,19 @@
         <v>1.4755300000000001E-2</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63888888888888951</v>
       </c>
+      <c r="E116">
+        <f>0/36.25*(1-EXP(-H$2*D116))+I$2*EXP(-H$2*D116)</f>
+        <v>2.5156277715434129E-7</v>
+      </c>
+      <c r="F116" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1771145438479237E-4</v>
+      </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>2.6851851851851901E-2</v>
       </c>
@@ -42854,11 +47040,19 @@
         <v>1.4801099999999999E-2</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6444444444444456</v>
       </c>
+      <c r="E117">
+        <f>0/36.25*(1-EXP(-H$2*D117))+I$2*EXP(-H$2*D117)</f>
+        <v>2.1412960407711541E-7</v>
+      </c>
+      <c r="F117" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1906622254848565E-4</v>
+      </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>2.70833333333333E-2</v>
       </c>
@@ -42869,11 +47063,19 @@
         <v>1.4327100000000001E-2</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64999999999999925</v>
       </c>
+      <c r="E118">
+        <f>0/36.25*(1-EXP(-H$2*D118))+I$2*EXP(-H$2*D118)</f>
+        <v>1.8226658117267562E-7</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0526057174015085E-4</v>
+      </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>2.7314814814814799E-2</v>
       </c>
@@ -42884,11 +47086,19 @@
         <v>1.5821999999999999E-2</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.65555555555555522</v>
       </c>
+      <c r="E119">
+        <f>0/36.25*(1-EXP(-H$2*D119))+I$2*EXP(-H$2*D119)</f>
+        <v>1.5514485610503967E-7</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5033077462024333E-4</v>
+      </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>2.7546296296296301E-2</v>
       </c>
@@ -42899,11 +47109,19 @@
         <v>1.46035E-2</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.6611111111111112</v>
       </c>
+      <c r="E120">
+        <f>0/36.25*(1-EXP(-H$2*D120))+I$2*EXP(-H$2*D120)</f>
+        <v>1.3205891184764255E-7</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1325835522280123E-4</v>
+      </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>2.7777777777777801E-2</v>
       </c>
@@ -42914,11 +47132,19 @@
         <v>1.44993E-2</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.66666666666666718</v>
       </c>
+      <c r="E121">
+        <f>0/36.25*(1-EXP(-H$2*D121))+I$2*EXP(-H$2*D121)</f>
+        <v>1.1240821407946673E-7</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1022644082179881E-4</v>
+      </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>2.80092592592593E-2</v>
       </c>
@@ -42929,11 +47155,19 @@
         <v>1.48247E-2</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67222222222222316</v>
       </c>
+      <c r="E122">
+        <f>0/36.25*(1-EXP(-H$2*D122))+I$2*EXP(-H$2*D122)</f>
+        <v>9.5681589494793609E-8</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1976889319743538E-4</v>
+      </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>2.8240740740740799E-2</v>
       </c>
@@ -42944,11 +47178,19 @@
         <v>1.4504299999999999E-2</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67777777777777914</v>
       </c>
+      <c r="E123">
+        <f>0/36.25*(1-EXP(-H$2*D123))+I$2*EXP(-H$2*D123)</f>
+        <v>8.1443928659680643E-8</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="4"/>
+        <v>2.1037235592228417E-4</v>
+      </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>2.8472222222222201E-2</v>
       </c>
@@ -42959,11 +47201,19 @@
         <v>1.4482E-2</v>
       </c>
       <c r="D124" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68333333333333279</v>
       </c>
+      <c r="E124">
+        <f>0/36.25*(1-EXP(-H$2*D124))+I$2*EXP(-H$2*D124)</f>
+        <v>6.9324867516801709E-8</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0972631607934318E-4</v>
+      </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>2.87037037037037E-2</v>
       </c>
@@ -42974,11 +47224,19 @@
         <v>1.4146300000000001E-2</v>
       </c>
       <c r="D125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68888888888888877</v>
       </c>
+      <c r="E125">
+        <f>0/36.25*(1-EXP(-H$2*D125))+I$2*EXP(-H$2*D125)</f>
+        <v>5.900915311077096E-8</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0011613417111678E-4</v>
+      </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>2.8935185185185199E-2</v>
       </c>
@@ -42989,11 +47247,19 @@
         <v>1.4037600000000001E-2</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.69444444444444475</v>
       </c>
+      <c r="E126">
+        <f>0/36.25*(1-EXP(-H$2*D126))+I$2*EXP(-H$2*D126)</f>
+        <v>5.0228442917781077E-8</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9705280358894232E-4</v>
+      </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>2.9166666666666698E-2</v>
       </c>
@@ -43004,11 +47270,19 @@
         <v>1.3447799999999999E-2</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70000000000000073</v>
       </c>
+      <c r="E127">
+        <f>0/36.25*(1-EXP(-H$2*D127))+I$2*EXP(-H$2*D127)</f>
+        <v>4.275432445554413E-8</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8084217493861908E-4</v>
+      </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>2.9398148148148201E-2</v>
       </c>
@@ -43019,11 +47293,19 @@
         <v>1.4321E-2</v>
       </c>
       <c r="D128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.70555555555555682</v>
       </c>
+      <c r="E128">
+        <f>0/36.25*(1-EXP(-H$2*D128))+I$2*EXP(-H$2*D128)</f>
+        <v>3.6392373592828284E-8</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0508999865095998E-4</v>
+      </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>2.96296296296296E-2</v>
       </c>
@@ -43034,11 +47316,19 @@
         <v>1.3457200000000001E-2</v>
       </c>
       <c r="D129" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.71111111111111036</v>
       </c>
+      <c r="E129">
+        <f>0/36.25*(1-EXP(-H$2*D129))+I$2*EXP(-H$2*D129)</f>
+        <v>3.0977096997455733E-8</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8109539811098018E-4</v>
+      </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>2.9861111111111099E-2</v>
       </c>
@@ -43049,11 +47339,19 @@
         <v>1.39189E-2</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.71666666666666634</v>
       </c>
+      <c r="E130">
+        <f>0/36.25*(1-EXP(-H$2*D130))+I$2*EXP(-H$2*D130)</f>
+        <v>2.6367627160730469E-8</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9373504319396384E-4</v>
+      </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>3.0092592592592601E-2</v>
       </c>
@@ -43064,11 +47362,19 @@
         <v>1.4188600000000001E-2</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" ref="D131:D136" si="2">A131*24</f>
+        <f t="shared" ref="D131:D136" si="5">A131*24</f>
         <v>0.72222222222222243</v>
       </c>
+      <c r="E131">
+        <f>0/36.25*(1-EXP(-H$2*D131))+I$2*EXP(-H$2*D131)</f>
+        <v>2.2444058013066715E-8</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" ref="F131:F136" si="6">(E131-C131)^2</f>
+        <v>2.0131573306098071E-4</v>
+      </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>3.03240740740741E-2</v>
       </c>
@@ -43079,11 +47385,19 @@
         <v>1.4002300000000001E-2</v>
       </c>
       <c r="D132" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.72777777777777841</v>
       </c>
+      <c r="E132">
+        <f>0/36.25*(1-EXP(-H$2*D132))+I$2*EXP(-H$2*D132)</f>
+        <v>1.9104325809192344E-8</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9606387028136245E-4</v>
+      </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>3.05555555555556E-2</v>
       </c>
@@ -43094,11 +47408,19 @@
         <v>1.3887099999999999E-2</v>
       </c>
       <c r="D133" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73333333333333439</v>
       </c>
+      <c r="E133">
+        <f>0/36.25*(1-EXP(-H$2*D133))+I$2*EXP(-H$2*D133)</f>
+        <v>1.6261554145479792E-8</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9285109475860728E-4</v>
+      </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>3.0787037037037099E-2</v>
       </c>
@@ -43109,11 +47431,19 @@
         <v>1.42621E-2</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73888888888889037</v>
       </c>
+      <c r="E134">
+        <f>0/36.25*(1-EXP(-H$2*D134))+I$2*EXP(-H$2*D134)</f>
+        <v>1.3841794045363931E-8</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" si="6"/>
+        <v>2.0340710158408987E-4</v>
+      </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>3.1018518518518501E-2</v>
       </c>
@@ -43124,11 +47454,19 @@
         <v>1.3329000000000001E-2</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.74444444444444402</v>
       </c>
+      <c r="E135">
+        <f>0/36.25*(1-EXP(-H$2*D135))+I$2*EXP(-H$2*D135)</f>
+        <v>1.1782100325726996E-8</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7766192691290837E-4</v>
+      </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>3.125E-2</v>
       </c>
@@ -43139,11 +47477,19 @@
         <v>1.35476E-2</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
+      <c r="E136">
+        <f>0/36.25*(1-EXP(-H$2*D136))+I$2*EXP(-H$2*D136)</f>
+        <v>1.0028894204792907E-8</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="6"/>
+        <v>1.8353719402520633E-4</v>
+      </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>45</v>
       </c>
@@ -43155,6 +47501,7 @@
         <f>AVERAGE(C2:C136)</f>
         <v>1.9935308740740745E-2</v>
       </c>
+      <c r="F138" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43163,6 +47510,1898 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796A3DEE-4FE7-414A-BDA3-9C20DE00E731}">
+  <dimension ref="A1:D125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>3.6326900000000001E-3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <f>(A2-B2)^2</f>
+        <v>4.7744289355108118E-8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>3.6382200000000002E-3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">(A3-B3)^2</f>
+        <v>4.535820864177481E-8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3.3176199999999899E-3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8470192490844796E-7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4.7306400000000004E-3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7342409432179039E-7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3.1504699999999899E-3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9101505847511585E-7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4.4047199999999896E-3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0639029464177377E-7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>3.3522600000000001E-3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4893580160177087E-7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>5.3185599999999904E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1531610214684363E-6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4.1378300000000003E-3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2159814315115198E-8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>3.7037200000000002E-3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1748777308442383E-8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3.9327199999999903E-3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.64637997511063E-9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3.2292599999999899E-3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8680272960178191E-7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4.6995700000000001E-3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1974070620845622E-7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3.2386200000000002E-3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7524772224176917E-7</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3.28101999999999E-3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2509915050844816E-7</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.8511946666666599E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4.0054499999999903E-3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.9577145750141903E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0767794535435026E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.8591964057297501E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>6.7800100000000004E-3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.05289071031014E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9139659977377539E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.3175431448637003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1.8431300000000001E-2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.6119650681626397E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1287774983619301E-4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.9050679847666699E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2.7609399999999899E-2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.6356918862401002E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5146946349608513E-4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.59096342749873E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>3.2138600000000003E-2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.58203868970212E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6082703063592486E-4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.3517692106317401E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4.2484899999999902E-2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.8865921079868899E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8547658682697263E-4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3.1696200757059402E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2.4558199999999902E-2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.56896607574133E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8650988297298532E-5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.03091142384639E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1.4585000000000001E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.7339002716934398E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6266458530356999E-4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.9252831972367499E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2.0382899999999898E-2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.2905784822058701E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0728034070772682E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.8448460932268702E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4.0148900000000001E-2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.7614459888032303E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4233866811508376E-6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.7835923175158699E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>2.2443199999999899E-2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.4230108533703699E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1930421078234652E-6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.7369468659542099E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>3.0797399999999898E-2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.8380912379352301E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8394124207430877E-6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.7014258204980698E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>2.63187E-2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4.7903978266745098E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6592423785281827E-4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.6743761376660801E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>3.67368E-2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3.1984420470445397E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2585111192929625E-5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.6537774944697699E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>4.3904699999999901E-2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2.5984140243616002E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2114646198212613E-4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.6380913918206399E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>3.5737299999999902E-2</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3.9922112042854598E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7512651834021686E-5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.6261462450469401E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4.1001599999999902E-2</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4.0682134461597297E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0205823022686639E-7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.61704987900645E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>3.9562800000000002E-2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.6218864581606801E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1181904082384515E-5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.6101228921129298E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4.01933999999999E-2</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2.7492256363552701E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6131904967366318E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2.60484791227929E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>4.9366E-2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3.1603684244492398E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1549986099835357E-4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.60083095473727E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>4.7125899999999901E-2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.43876671550239E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6226257601282539E-4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2.5977719955747401E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>5.0790000000000002E-2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4.8208848718373297E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6623419386431809E-6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2.5954425631472801E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4.9934499999999903E-2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.6801427962203202E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3513902190589161E-4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2.5936686736817E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>5.1772400000000003E-2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4.1240164931182599E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1092797554482715E-4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.5923178365425702E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4.3770799999999901E-2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1.91880703087654E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0431059907230234E-4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2.5912891585939901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>3.9608400000000002E-2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.6367287655225301E-2</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7532705612694499E-4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.5905058085577502E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>5.30334999999999E-2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.4859690361762202E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3028735676690147E-4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.5899092785357701E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4.7620599999999902E-2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.44041728961924E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3900248746640764E-4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2.5894550140937399E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3.1067399999999901E-2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4.7864512432996401E-2</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8214298608672555E-4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2.5891090865197901E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>2.2966899999999901E-2</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-5.0655122102040004E-3</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8581613432278884E-4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.2618133678896799E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>2.1396499999999902E-2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-6.2747064335990001E-3</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6569566549084531E-4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3.2454196775502898E-7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>2.1524299999999899E-2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-5.1893115044248901E-3</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1361703960933637E-4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2.4714242446158799E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>2.0357299999999901E-2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-1.9701212863666002E-3</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9851374129889186E-4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.8820178601633299E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>2.1589500000000001E-2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3.6464238280623201E-4</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5049458087014833E-4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.43317814968036E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>2.0201799999999898E-2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5.2369275748124404E-3</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2394740670213597E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.09138157091823E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>1.9680799999999901E-2</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-1.37095969666968E-3</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4317658632632168E-4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8.3109956260887306E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>2.1660599999999901E-2</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-7.5807621710620504E-3</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5505726161921294E-4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>6.3289183304380198E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>2.0370900000000001E-2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2.1322940630939301E-3</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3264674652174538E-4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.8195437749502E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>1.9067299999999902E-2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-2.3890797056825498E-3</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6037623007442172E-4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3.6701377685582502E-8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>1.9205300000000002E-2</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-3.35290344939977E-3</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0887254286451186E-4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2.7948519339544602E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>1.8925199999999899E-2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-2.1242012056645302E-3</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4307729111702713E-4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2.1283117488522699E-8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>1.9504799999999899E-2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3.8584622257310402E-3</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4480788574651253E-4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.6207337659900498E-8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1.9884999999999899E-2</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4.76608212619818E-3</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2858167767476111E-4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.23420732025599E-8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1.8008400000000001E-2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-1.1851370463183301E-2</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9160589211399396E-4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9.3986300608907698E-9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1.8832000000000002E-2</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2.0486527583121099E-3</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>2.816807446350726E-4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>7.1571644059895696E-9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1.7975299999999899E-2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.7685352222452299E-4</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1678469702223471E-4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.45026264492732E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1.8065999999999902E-2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3.8813195348186098E-3</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0120515989929572E-4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>4.1504374097975097E-9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1.8600200000000001E-2</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3.8913625383797299E-3</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1634989947236384E-4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.1606056102047202E-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1.80406E-2</v>
+      </c>
+      <c r="B65" s="2">
+        <v>7.8501395519842507E-3</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0384548414257335E-4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2.4068373612083899E-9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1.7744699999999902E-2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-8.4211108386869193E-3</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8464965684594066E-4</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.83283420892661E-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1.82679E-2</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.01578798305449E-3</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C125" si="1">(A67-B67)^2</f>
+        <v>2.976353690452357E-4</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.3957242361091801E-9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1.8218999999999898E-2</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.1612967244102E-3</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9096524103806349E-4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.06285998688524E-9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>1.7785700000000002E-2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-1.72191091000743E-4</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2248585243624395E-4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8.0938004979468702E-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>1.7359200000000002E-2</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2.6128113841480502E-3</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1745597720972804E-4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6.1635217534666397E-10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>1.7323000000000002E-2</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-3.48610193687689E-3</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3301872341933363E-4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4.6935923877902904E-10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>1.7062600000000001E-2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-1.31076978922159E-2</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1024687490504725E-4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3.57422434508848E-10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>1.7619900000000001E-2</v>
+      </c>
+      <c r="B73" s="2">
+        <v>-1.24020245234204E-2</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0131595208995134E-4</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.7218127637703898E-10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1.7243700000000001E-2</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.0915361898135899E-2</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>4.004786313150494E-5</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2.0726915844562199E-10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1.6905400000000001E-2</v>
+      </c>
+      <c r="B75" s="2">
+        <v>-2.5902483214875699E-3</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>3.800803034751211E-4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1.5783783739497699E-10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1.7135799999999899E-2</v>
+      </c>
+      <c r="B76" s="2">
+        <v>-3.2318573094895098E-3</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1484146427679739E-4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1.2019532042466899E-10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>1.8509500000000002E-2</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3.23082121119872E-3</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>2.334380255313662E-4</v>
+      </c>
+      <c r="D77" s="2">
+        <v>9.1530112743731601E-11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>2.0698199999999899E-2</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5.0597526190735102E-3</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4456103648600337E-4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>6.9701228877132706E-11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>1.8204299999999899E-2</v>
+      </c>
+      <c r="B79" s="2">
+        <v>-3.98738083052341E-3</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9247069808381564E-4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5.3078283871284303E-11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>1.8048899999999899E-2</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-3.2401544798667799E-3</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5322384064673153E-4</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4.0419720916067303E-11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1.7940999999999901E-2</v>
+      </c>
+      <c r="B81" s="2">
+        <v>-2.9690822039203199E-3</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3723153777470113E-4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3.07800802847102E-11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1.7803900000000001E-2</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-3.3274035016497799E-3</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>4.465319876788363E-4</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2.3439383569731599E-11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>1.9567899999999899E-2</v>
+      </c>
+      <c r="B83" s="2">
+        <v>-5.43601928743257E-4</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0447250982983965E-4</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.7849358970058201E-11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>1.7153499999999901E-2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4.81797016894015E-4</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7794568035690166E-4</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.3592491231442699E-11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>1.72584E-2</v>
+      </c>
+      <c r="B85" s="2">
+        <v>-4.5677979376552696E-3</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>4.763829164137072E-4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.03508377072122E-11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>1.6745900000000001E-2</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2.21960966268425E-4</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7304056119047793E-4</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7.8822814314720605E-12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1.6183699999999902E-2</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1.04476532761133E-3</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2918734301484886E-4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6.0024475624458503E-12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>1.6945499999999902E-2</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2.65526016548923E-3</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>2.042109545278356E-4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4.5709325470232303E-12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>1.6771299999999899E-2</v>
+      </c>
+      <c r="B89" s="2">
+        <v>-2.8438806865904698E-3</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8475531336758776E-4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3.4808174718851701E-12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>1.6958899999999898E-2</v>
+      </c>
+      <c r="B90" s="2">
+        <v>-8.6890132239866892E-3</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5781545274514602E-4</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2.6506823603143298E-12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>1.6496799999999898E-2</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2.9880408277669999E-3</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8248657437338646E-4</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2.01852496777898E-12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>1.6108399999999901E-2</v>
+      </c>
+      <c r="B92" s="2">
+        <v>-3.1952075864962598E-3</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7262926585343212E-4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.53712987514052E-12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>1.6557200000000001E-2</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.17499832103249E-2</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3109333262934185E-5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.17054200010679E-12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1.6156500000000001E-2</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7.8738631133741903E-3</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8602073795694495E-5</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8.9138113582546901E-13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>1.5723399999999901E-2</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.3721424399897001E-3</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0595859355374994E-4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>6.7879694127421798E-13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>1.58119E-2</v>
+      </c>
+      <c r="B96" s="2">
+        <v>-3.2395555924971402E-3</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6295796019289054E-4</v>
+      </c>
+      <c r="D96" s="2">
+        <v>5.1691164302746996E-13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>1.5884300000000001E-2</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2.5697971028821398E-3</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7727598739735993E-4</v>
+      </c>
+      <c r="D97" s="2">
+        <v>3.9363413482061798E-13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>1.55193999999999E-2</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4.8674534426587602E-3</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1346396546045179E-4</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2.9975690078960499E-13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>1.5995700000000002E-2</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-3.4480615406315899E-3</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7805986284894424E-4</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2.2826831217758902E-13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>1.55260999999999E-2</v>
+      </c>
+      <c r="B100" s="2">
+        <v>6.3385073470004199E-3</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4411858757450027E-5</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.7382893340286701E-13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1.54763E-2</v>
+      </c>
+      <c r="B101" s="2">
+        <v>3.0488131208000402E-3</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>1.544424301326872E-4</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.32372723133249E-13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>1.5898800000000001E-2</v>
+      </c>
+      <c r="B102" s="2">
+        <v>-2.0950081584980901E-6</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5283846206047991E-4</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1.00803344337974E-13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>1.50931999999999E-2</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-8.8209185447910997E-4</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5520994983578343E-4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>7.6762900914953304E-14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>1.4452100000000001E-2</v>
+      </c>
+      <c r="B104" s="2">
+        <v>-6.1034338994143903E-3</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2252997388997419E-4</v>
+      </c>
+      <c r="D104" s="2">
+        <v>5.8455827984460202E-14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>1.4755300000000001E-2</v>
+      </c>
+      <c r="B105" s="2">
+        <v>-2.7314217592978298E-3</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0578543788710021E-4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4.4514782331306398E-14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>1.48010999999999E-2</v>
+      </c>
+      <c r="B106" s="2">
+        <v>3.1593459887647498E-3</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3553043645810972E-4</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.3898516441002E-14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>1.4327100000000001E-2</v>
+      </c>
+      <c r="B107" s="2">
+        <v>7.9836150015924097E-3</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0239801925022154E-5</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2.58141084089435E-14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>1.5821999999999899E-2</v>
+      </c>
+      <c r="B108" s="2">
+        <v>-4.3679087506207298E-3</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0763241535838739E-4</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.96577391257951E-14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>1.46035E-2</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5.9441202967786501E-3</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>7.4984856844561895E-5</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1.4969593426048199E-14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>1.4499299999999901E-2</v>
+      </c>
+      <c r="B110" s="2">
+        <v>-3.1222789184372798E-3</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1052004357870965E-4</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1.13995167962695E-14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>1.4824699999999901E-2</v>
+      </c>
+      <c r="B111" s="2">
+        <v>-1.6887881313759701E-3</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7269529026509179E-4</v>
+      </c>
+      <c r="D111" s="2">
+        <v>8.6808625651988994E-15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>1.4504299999999901E-2</v>
+      </c>
+      <c r="B112" s="2">
+        <v>8.2437053085618901E-3</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>3.91950458904618E-5</v>
+      </c>
+      <c r="D112" s="2">
+        <v>6.610576239559E-15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>1.4482E-2</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1.2257665777600801E-3</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7572772454491067E-4</v>
+      </c>
+      <c r="D113" s="2">
+        <v>5.0340294977380703E-15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>1.4146300000000001E-2</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1.2153979092150899E-3</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6720822888146555E-4</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3.8334711023297296E-15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>1.4037600000000001E-2</v>
+      </c>
+      <c r="B115" s="2">
+        <v>-2.6074144323170699E-3</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7705650545204358E-4</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2.9192321377934601E-15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>1.34477999999999E-2</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2.73958728069096E-3</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1466581964196978E-4</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2.2230286982330699E-15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>1.4321E-2</v>
+      </c>
+      <c r="B117" s="2">
+        <v>-6.06854711507327E-3</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1573363155779277E-4</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1.6928618074557001E-15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>1.3457200000000001E-2</v>
+      </c>
+      <c r="B118" s="2">
+        <v>7.5475086874277203E-3</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4924451409892281E-5</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1.28913364970052E-15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>1.3918899999999901E-2</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4.9246926342187804E-3</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0895766138671375E-5</v>
+      </c>
+      <c r="D119" s="2">
+        <v>9.8169003486934706E-16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>1.4188600000000001E-2</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-2.1948008321420699E-3</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6841582282663347E-4</v>
+      </c>
+      <c r="D120" s="2">
+        <v>7.4756820193598E-16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>1.4002300000000001E-2</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-2.7865641276986299E-3</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8186595869832587E-4</v>
+      </c>
+      <c r="D121" s="2">
+        <v>5.6928174545458202E-16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>1.3887099999999901E-2</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5.5798141152499899E-3</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9010998770965094E-5</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4.3351456745824898E-16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>1.4262099999999899E-2</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1.7833433655476E-3</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5571936714188725E-4</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3.3012630687541502E-16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>1.3329000000000001E-2</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-6.3216646911048004E-3</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8614862280223291E-4</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2.51394962642628E-16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>1.3547599999999899E-2</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6.09772504710244E-3</v>
+      </c>
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>5.550063681380892E-5</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1.91440142532896E-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>

--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317CCAC-02CF-9D40-9A9F-3CB6CF21F93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A4A03-F56B-D149-A043-6486D3269C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="41460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,21 +44,21 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{6F54CD7C-BB16-0840-92C9-FE7CEA94D749}" name="expt_data" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/expt_data.txt">
+    <textPr sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/expt_data.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{39B4AE3F-7D30-144D-82CE-4413462F921D}" name="prediction" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
+    <textPr sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{49CB3D86-75F8-784E-9CE2-4B948B5576F6}" name="prediction1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
+    <textPr sourceFile="/Users/marcofking/Documents/GitHub/ciarrai/prediction.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -2303,6 +2303,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Airborne Concentration (mg/m3)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2311,26 +2326,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2342,7 +2337,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>80cm</c:v>
+            <c:v>80cm from source</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -3225,8 +3220,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.14725077179229248"/>
-                  <c:y val="-0.16697611603123413"/>
+                  <c:x val="5.646402339533823E-3"/>
+                  <c:y val="-7.691060455469724E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3238,21 +3233,11 @@
                 <a:effectLst/>
               </c:spPr>
               <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:bodyPr rot="0" vert="horz"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
+                    <a:defRPr/>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
@@ -3807,851 +3792,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Analytical</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mass_conc!$D$2:$D$136</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="135"/>
-                <c:pt idx="0">
-                  <c:v>5.5555555555555549E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.111111111111111E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2222222222222223E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7777777777777839E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3333333333333361E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8888888888888883E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.4444444444444398E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5555555555555441E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.1111111111110963E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.6666666666666721E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.2222222222222243E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.7777777777777765E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3333333333333273E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.8888888888888795E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4444444444444303E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9999999999999839E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1055555555555556</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.11111111111111113</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.11666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.12222222222222218</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.12777777777777766</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.13333333333333319</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.13888888888888873</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.14444444444444449</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.15555555555555553</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.16111111111111104</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.16666666666666655</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.17222222222222208</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.17777777777777784</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.18333333333333338</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18888888888888888</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.19444444444444439</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.1999999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.20555555555555544</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.21111111111111097</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.21666666666666673</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.22222222222222227</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.22777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.23333333333333328</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.23888888888888882</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2444444444444448</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.25000000000000083</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.25555555555555681</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.26111111111111041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.26666666666666639</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.27222222222222242</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2777777777777784</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.28333333333333444</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.28888888888889042</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.29444444444444401</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.30000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.30555555555555602</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.311111111111112</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.31666666666666798</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.32222222222222163</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.32777777777777761</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.33333333333333359</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.33888888888888957</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.34444444444444561</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.35000000000000159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.35555555555555518</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.36111111111111122</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.3666666666666672</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.37222222222222323</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.37777777777777921</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.3833333333333328</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.38888888888888878</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.39444444444444476</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.4000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.40555555555555678</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.41111111111111037</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.41666666666666641</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.42222222222222239</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.42777777777777837</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.43333333333333435</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.43888888888889044</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.44444444444444398</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.44999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.45555555555555594</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.46111111111111203</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.46666666666666801</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.47222222222222154</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.47777777777777763</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.48333333333333361</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.48888888888888959</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.49444444444444557</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.50000000000000167</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.5055555555555552</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.51111111111111118</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.51666666666666716</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.52222222222222325</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.52777777777777923</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.53333333333333277</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.53888888888888886</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.54444444444444484</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.55000000000000082</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.5555555555555568</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.56111111111111045</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.56666666666666643</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.57222222222222241</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.57777777777777839</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.58333333333333437</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.58888888888889035</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.594444444444444</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.60555555555555607</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.61111111111111205</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.61666666666666803</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.62222222222222157</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.62777777777777755</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.63333333333333353</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.63888888888888951</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.6444444444444456</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.64999999999999925</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.65555555555555522</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.6611111111111112</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.66666666666666718</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.67222222222222316</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.67777777777777914</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.68333333333333279</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.68888888888888877</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.69444444444444475</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.70000000000000073</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.70555555555555682</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.71111111111111036</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.71666666666666634</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.72222222222222243</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.72777777777777841</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.73333333333333439</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.73888888888889037</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.74444444444444402</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mass_conc!$E$2:$E$136</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="135"/>
-                <c:pt idx="0">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.8511946666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.942111837477432</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.6356749064530303</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.374836560426167</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.1528116154216956</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9638245398819749</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.802959215851208</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.666031056072975</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5494781503848158</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4502686098026998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3658216980384537</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.2939406988454776</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2327557728720471</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1806753175583411</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1363445648029846</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0986103394007853</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0664910615134515</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0391512128480094</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.0158796023320094</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.99607086591083871</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9792097192216731</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.96485755350908786</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.95264102610209567</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.94224234865685663</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.93339102053326606</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.92585679226586948</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.91944367608797617</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.91398484770483146</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.744494536742571E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.336106856476371E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.9884882887590896E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.6925962370129499E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.4407336657428441E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2263488776672656E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.0438650845160418E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.8853533812042283E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5631904812181608E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.4377687415552824E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.4798125834157139E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.6644027076537305E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.9703278694261457E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.379533110397162E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.8766500953790282E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4485973360598998E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.0842399024443205E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.7740997700876546E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.5101092683879062E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.2854012163917808E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.0941302869197757E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.3132095215814857E-4</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.9273805532840914E-4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.7477664161812406E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.74368182545249E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.8890075437293078E-4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.1615109417661125E-4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.5422676613887301E-4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.0151693364514513E-4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.5665045661492738E-4</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.1846022405551654E-4</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8595279402130628E-4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.5828255122333237E-4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3472971005155343E-4</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.1468159080253611E-4</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.7616682051552371E-5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.30910745837258E-5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.0726913990301846E-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.0202571547569666E-5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.124427769373932E-5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.3619000465422369E-5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.7128383640676601E-5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.1603586901587471E-5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.6900893793606499E-5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.2897973231593793E-5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.9490697303128251E-5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.659043259068957E-5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.4121734551900189E-5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.2020384981779266E-5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.0231721505537862E-5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.7092156470507611E-6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.4132624843023803E-6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.3101504071466319E-6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.3711841776991503E-6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.5719384815438997E-6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.8916225523988676E-6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.3125393422234425E-6</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.8196251681741931E-6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4000578612495702E-6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.0429232233997526E-6</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.7389311166577958E-6</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.4801737989196153E-6</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.2599202199676801E-6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.0724409267628274E-6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>9.1285902326854426E-7</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.7702330782740908E-7</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6.6140028801515757E-7</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.6298226395506986E-7</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4.7920908906636793E-7</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>4.079015730096974E-7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.4720479444147395E-7</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.9553984897302718E-7</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2.5156277715434129E-7</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2.1412960407711541E-7</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.8226658117267562E-7</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.5514485610503967E-7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.3205891184764255E-7</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.1240821407946673E-7</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>9.5681589494793609E-8</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.1443928659680643E-8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>6.9324867516801709E-8</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5.900915311077096E-8</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.0228442917781077E-8</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>4.275432445554413E-8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3.6392373592828284E-8</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3.0977096997455733E-8</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.6367627160730469E-8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2.2444058013066715E-8</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.9104325809192344E-8</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1.6261554145479792E-8</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1.3841794045363931E-8</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1.1782100325726996E-8</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1.0028894204792907E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D798-684F-BE26-5BC043C7D996}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>2m</c:v>
+            <c:v>2m from source</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
@@ -5520,6 +4664,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Fraction of an hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5538,21 +4700,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5582,6 +4734,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Concentration (mg/m3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5600,21 +4770,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5635,21 +4795,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -5664,7 +4814,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -10250,15 +9400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409222</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>100189</xdr:rowOff>
+      <xdr:colOff>649110</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>145345</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100188</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>536222</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -44334,7 +43484,7 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="AK71" sqref="AK71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44744,7 +43894,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="E17">
-        <f>G$2/36.25*(1-EXP(-H$2*D17))+I$2*EXP(-H$2*D17)</f>
+        <f t="shared" ref="E17:E43" si="3">G$2/36.25*(1-EXP(-H$2*D17))+I$2*EXP(-H$2*D17)</f>
         <v>2.942111837477432</v>
       </c>
       <c r="F17" s="6">
@@ -44767,7 +43917,7 @@
         <v>9.4444444444444303E-2</v>
       </c>
       <c r="E18">
-        <f>G$2/36.25*(1-EXP(-H$2*D18))+I$2*EXP(-H$2*D18)</f>
+        <f t="shared" si="3"/>
         <v>2.6356749064530303</v>
       </c>
       <c r="F18" s="6">
@@ -44790,7 +43940,7 @@
         <v>9.9999999999999839E-2</v>
       </c>
       <c r="E19">
-        <f>G$2/36.25*(1-EXP(-H$2*D19))+I$2*EXP(-H$2*D19)</f>
+        <f t="shared" si="3"/>
         <v>2.374836560426167</v>
       </c>
       <c r="F19" s="6">
@@ -44813,7 +43963,7 @@
         <v>0.1055555555555556</v>
       </c>
       <c r="E20">
-        <f>G$2/36.25*(1-EXP(-H$2*D20))+I$2*EXP(-H$2*D20)</f>
+        <f t="shared" si="3"/>
         <v>2.1528116154216956</v>
       </c>
       <c r="F20" s="6">
@@ -44836,7 +43986,7 @@
         <v>0.11111111111111113</v>
       </c>
       <c r="E21">
-        <f>G$2/36.25*(1-EXP(-H$2*D21))+I$2*EXP(-H$2*D21)</f>
+        <f t="shared" si="3"/>
         <v>1.9638245398819749</v>
       </c>
       <c r="F21" s="6">
@@ -44859,7 +44009,7 @@
         <v>0.11666666666666664</v>
       </c>
       <c r="E22">
-        <f>G$2/36.25*(1-EXP(-H$2*D22))+I$2*EXP(-H$2*D22)</f>
+        <f t="shared" si="3"/>
         <v>1.802959215851208</v>
       </c>
       <c r="F22" s="6">
@@ -44882,7 +44032,7 @@
         <v>0.12222222222222218</v>
       </c>
       <c r="E23">
-        <f>G$2/36.25*(1-EXP(-H$2*D23))+I$2*EXP(-H$2*D23)</f>
+        <f t="shared" si="3"/>
         <v>1.666031056072975</v>
       </c>
       <c r="F23" s="6">
@@ -44905,7 +44055,7 @@
         <v>0.12777777777777766</v>
       </c>
       <c r="E24">
-        <f>G$2/36.25*(1-EXP(-H$2*D24))+I$2*EXP(-H$2*D24)</f>
+        <f t="shared" si="3"/>
         <v>1.5494781503848158</v>
       </c>
       <c r="F24" s="6">
@@ -44928,7 +44078,7 @@
         <v>0.13333333333333319</v>
       </c>
       <c r="E25">
-        <f>G$2/36.25*(1-EXP(-H$2*D25))+I$2*EXP(-H$2*D25)</f>
+        <f t="shared" si="3"/>
         <v>1.4502686098026998</v>
       </c>
       <c r="F25" s="6">
@@ -44951,7 +44101,7 @@
         <v>0.13888888888888873</v>
       </c>
       <c r="E26">
-        <f>G$2/36.25*(1-EXP(-H$2*D26))+I$2*EXP(-H$2*D26)</f>
+        <f t="shared" si="3"/>
         <v>1.3658216980384537</v>
       </c>
       <c r="F26" s="6">
@@ -44974,7 +44124,7 @@
         <v>0.14444444444444449</v>
       </c>
       <c r="E27">
-        <f>G$2/36.25*(1-EXP(-H$2*D27))+I$2*EXP(-H$2*D27)</f>
+        <f t="shared" si="3"/>
         <v>1.2939406988454776</v>
       </c>
       <c r="F27" s="6">
@@ -44997,7 +44147,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="E28">
-        <f>G$2/36.25*(1-EXP(-H$2*D28))+I$2*EXP(-H$2*D28)</f>
+        <f t="shared" si="3"/>
         <v>1.2327557728720471</v>
       </c>
       <c r="F28" s="6">
@@ -45020,7 +44170,7 @@
         <v>0.15555555555555553</v>
       </c>
       <c r="E29">
-        <f>G$2/36.25*(1-EXP(-H$2*D29))+I$2*EXP(-H$2*D29)</f>
+        <f t="shared" si="3"/>
         <v>1.1806753175583411</v>
       </c>
       <c r="F29" s="6">
@@ -45043,7 +44193,7 @@
         <v>0.16111111111111104</v>
       </c>
       <c r="E30">
-        <f>G$2/36.25*(1-EXP(-H$2*D30))+I$2*EXP(-H$2*D30)</f>
+        <f t="shared" si="3"/>
         <v>1.1363445648029846</v>
       </c>
       <c r="F30" s="6">
@@ -45066,7 +44216,7 @@
         <v>0.16666666666666655</v>
       </c>
       <c r="E31">
-        <f>G$2/36.25*(1-EXP(-H$2*D31))+I$2*EXP(-H$2*D31)</f>
+        <f t="shared" si="3"/>
         <v>1.0986103394007853</v>
       </c>
       <c r="F31" s="6">
@@ -45089,7 +44239,7 @@
         <v>0.17222222222222208</v>
       </c>
       <c r="E32">
-        <f>G$2/36.25*(1-EXP(-H$2*D32))+I$2*EXP(-H$2*D32)</f>
+        <f t="shared" si="3"/>
         <v>1.0664910615134515</v>
       </c>
       <c r="F32" s="6">
@@ -45112,7 +44262,7 @@
         <v>0.17777777777777784</v>
       </c>
       <c r="E33">
-        <f>G$2/36.25*(1-EXP(-H$2*D33))+I$2*EXP(-H$2*D33)</f>
+        <f t="shared" si="3"/>
         <v>1.0391512128480094</v>
       </c>
       <c r="F33" s="6">
@@ -45135,7 +44285,7 @@
         <v>0.18333333333333338</v>
       </c>
       <c r="E34">
-        <f>G$2/36.25*(1-EXP(-H$2*D34))+I$2*EXP(-H$2*D34)</f>
+        <f t="shared" si="3"/>
         <v>1.0158796023320094</v>
       </c>
       <c r="F34" s="6">
@@ -45158,7 +44308,7 @@
         <v>0.18888888888888888</v>
       </c>
       <c r="E35">
-        <f>G$2/36.25*(1-EXP(-H$2*D35))+I$2*EXP(-H$2*D35)</f>
+        <f t="shared" si="3"/>
         <v>0.99607086591083871</v>
       </c>
       <c r="F35" s="6">
@@ -45181,7 +44331,7 @@
         <v>0.19444444444444439</v>
       </c>
       <c r="E36">
-        <f>G$2/36.25*(1-EXP(-H$2*D36))+I$2*EXP(-H$2*D36)</f>
+        <f t="shared" si="3"/>
         <v>0.9792097192216731</v>
       </c>
       <c r="F36" s="6">
@@ -45204,7 +44354,7 @@
         <v>0.1999999999999999</v>
       </c>
       <c r="E37">
-        <f>G$2/36.25*(1-EXP(-H$2*D37))+I$2*EXP(-H$2*D37)</f>
+        <f t="shared" si="3"/>
         <v>0.96485755350908786</v>
       </c>
       <c r="F37" s="6">
@@ -45227,7 +44377,7 @@
         <v>0.20555555555555544</v>
       </c>
       <c r="E38">
-        <f>G$2/36.25*(1-EXP(-H$2*D38))+I$2*EXP(-H$2*D38)</f>
+        <f t="shared" si="3"/>
         <v>0.95264102610209567</v>
       </c>
       <c r="F38" s="6">
@@ -45250,7 +44400,7 @@
         <v>0.21111111111111097</v>
       </c>
       <c r="E39">
-        <f>G$2/36.25*(1-EXP(-H$2*D39))+I$2*EXP(-H$2*D39)</f>
+        <f t="shared" si="3"/>
         <v>0.94224234865685663</v>
       </c>
       <c r="F39" s="6">
@@ -45273,7 +44423,7 @@
         <v>0.21666666666666673</v>
       </c>
       <c r="E40">
-        <f>G$2/36.25*(1-EXP(-H$2*D40))+I$2*EXP(-H$2*D40)</f>
+        <f t="shared" si="3"/>
         <v>0.93339102053326606</v>
       </c>
       <c r="F40" s="6">
@@ -45296,7 +44446,7 @@
         <v>0.22222222222222227</v>
       </c>
       <c r="E41">
-        <f>G$2/36.25*(1-EXP(-H$2*D41))+I$2*EXP(-H$2*D41)</f>
+        <f t="shared" si="3"/>
         <v>0.92585679226586948</v>
       </c>
       <c r="F41" s="6">
@@ -45319,7 +44469,7 @@
         <v>0.22777777777777777</v>
       </c>
       <c r="E42">
-        <f>G$2/36.25*(1-EXP(-H$2*D42))+I$2*EXP(-H$2*D42)</f>
+        <f t="shared" si="3"/>
         <v>0.91944367608797617</v>
       </c>
       <c r="F42" s="6">
@@ -45342,7 +44492,7 @@
         <v>0.23333333333333328</v>
       </c>
       <c r="E43">
-        <f>G$2/36.25*(1-EXP(-H$2*D43))+I$2*EXP(-H$2*D43)</f>
+        <f t="shared" si="3"/>
         <v>0.91398484770483146</v>
       </c>
       <c r="F43" s="6">
@@ -45365,7 +44515,7 @@
         <v>0.23888888888888882</v>
       </c>
       <c r="E44">
-        <f>0/36.25*(1-EXP(-H$2*D44))+I$2*EXP(-H$2*D44)</f>
+        <f t="shared" ref="E44:E75" si="4">0/36.25*(1-EXP(-H$2*D44))+I$2*EXP(-H$2*D44)</f>
         <v>2.744494536742571E-2</v>
       </c>
       <c r="F44" s="6">
@@ -45388,7 +44538,7 @@
         <v>0.2444444444444448</v>
       </c>
       <c r="E45">
-        <f>0/36.25*(1-EXP(-H$2*D45))+I$2*EXP(-H$2*D45)</f>
+        <f t="shared" si="4"/>
         <v>2.336106856476371E-2</v>
       </c>
       <c r="F45" s="6">
@@ -45411,7 +44561,7 @@
         <v>0.25000000000000083</v>
       </c>
       <c r="E46">
-        <f>0/36.25*(1-EXP(-H$2*D46))+I$2*EXP(-H$2*D46)</f>
+        <f t="shared" si="4"/>
         <v>1.9884882887590896E-2</v>
       </c>
       <c r="F46" s="6">
@@ -45434,7 +44584,7 @@
         <v>0.25555555555555681</v>
       </c>
       <c r="E47">
-        <f>0/36.25*(1-EXP(-H$2*D47))+I$2*EXP(-H$2*D47)</f>
+        <f t="shared" si="4"/>
         <v>1.6925962370129499E-2</v>
       </c>
       <c r="F47" s="6">
@@ -45457,7 +44607,7 @@
         <v>0.26111111111111041</v>
       </c>
       <c r="E48">
-        <f>0/36.25*(1-EXP(-H$2*D48))+I$2*EXP(-H$2*D48)</f>
+        <f t="shared" si="4"/>
         <v>1.4407336657428441E-2</v>
       </c>
       <c r="F48" s="6">
@@ -45480,7 +44630,7 @@
         <v>0.26666666666666639</v>
       </c>
       <c r="E49">
-        <f>0/36.25*(1-EXP(-H$2*D49))+I$2*EXP(-H$2*D49)</f>
+        <f t="shared" si="4"/>
         <v>1.2263488776672656E-2</v>
       </c>
       <c r="F49" s="6">
@@ -45503,7 +44653,7 @@
         <v>0.27222222222222242</v>
       </c>
       <c r="E50">
-        <f>0/36.25*(1-EXP(-H$2*D50))+I$2*EXP(-H$2*D50)</f>
+        <f t="shared" si="4"/>
         <v>1.0438650845160418E-2</v>
       </c>
       <c r="F50" s="6">
@@ -45526,7 +44676,7 @@
         <v>0.2777777777777784</v>
       </c>
       <c r="E51">
-        <f>0/36.25*(1-EXP(-H$2*D51))+I$2*EXP(-H$2*D51)</f>
+        <f t="shared" si="4"/>
         <v>8.8853533812042283E-3</v>
       </c>
       <c r="F51" s="6">
@@ -45549,7 +44699,7 @@
         <v>0.28333333333333444</v>
       </c>
       <c r="E52">
-        <f>0/36.25*(1-EXP(-H$2*D52))+I$2*EXP(-H$2*D52)</f>
+        <f t="shared" si="4"/>
         <v>7.5631904812181608E-3</v>
       </c>
       <c r="F52" s="6">
@@ -45572,7 +44722,7 @@
         <v>0.28888888888889042</v>
       </c>
       <c r="E53">
-        <f>0/36.25*(1-EXP(-H$2*D53))+I$2*EXP(-H$2*D53)</f>
+        <f t="shared" si="4"/>
         <v>6.4377687415552824E-3</v>
       </c>
       <c r="F53" s="6">
@@ -45595,7 +44745,7 @@
         <v>0.29444444444444401</v>
       </c>
       <c r="E54">
-        <f>0/36.25*(1-EXP(-H$2*D54))+I$2*EXP(-H$2*D54)</f>
+        <f t="shared" si="4"/>
         <v>5.4798125834157139E-3</v>
       </c>
       <c r="F54" s="6">
@@ -45618,7 +44768,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="E55">
-        <f>0/36.25*(1-EXP(-H$2*D55))+I$2*EXP(-H$2*D55)</f>
+        <f t="shared" si="4"/>
         <v>4.6644027076537305E-3</v>
       </c>
       <c r="F55" s="6">
@@ -45641,7 +44791,7 @@
         <v>0.30555555555555602</v>
       </c>
       <c r="E56">
-        <f>0/36.25*(1-EXP(-H$2*D56))+I$2*EXP(-H$2*D56)</f>
+        <f t="shared" si="4"/>
         <v>3.9703278694261457E-3</v>
       </c>
       <c r="F56" s="6">
@@ -45664,7 +44814,7 @@
         <v>0.311111111111112</v>
       </c>
       <c r="E57">
-        <f>0/36.25*(1-EXP(-H$2*D57))+I$2*EXP(-H$2*D57)</f>
+        <f t="shared" si="4"/>
         <v>3.379533110397162E-3</v>
       </c>
       <c r="F57" s="6">
@@ -45687,7 +44837,7 @@
         <v>0.31666666666666798</v>
       </c>
       <c r="E58">
-        <f>0/36.25*(1-EXP(-H$2*D58))+I$2*EXP(-H$2*D58)</f>
+        <f t="shared" si="4"/>
         <v>2.8766500953790282E-3</v>
       </c>
       <c r="F58" s="6">
@@ -45710,7 +44860,7 @@
         <v>0.32222222222222163</v>
       </c>
       <c r="E59">
-        <f>0/36.25*(1-EXP(-H$2*D59))+I$2*EXP(-H$2*D59)</f>
+        <f t="shared" si="4"/>
         <v>2.4485973360598998E-3</v>
       </c>
       <c r="F59" s="6">
@@ -45733,7 +44883,7 @@
         <v>0.32777777777777761</v>
       </c>
       <c r="E60">
-        <f>0/36.25*(1-EXP(-H$2*D60))+I$2*EXP(-H$2*D60)</f>
+        <f t="shared" si="4"/>
         <v>2.0842399024443205E-3</v>
       </c>
       <c r="F60" s="6">
@@ -45756,7 +44906,7 @@
         <v>0.33333333333333359</v>
       </c>
       <c r="E61">
-        <f>0/36.25*(1-EXP(-H$2*D61))+I$2*EXP(-H$2*D61)</f>
+        <f t="shared" si="4"/>
         <v>1.7740997700876546E-3</v>
       </c>
       <c r="F61" s="6">
@@ -45779,7 +44929,7 @@
         <v>0.33888888888888957</v>
       </c>
       <c r="E62">
-        <f>0/36.25*(1-EXP(-H$2*D62))+I$2*EXP(-H$2*D62)</f>
+        <f t="shared" si="4"/>
         <v>1.5101092683879062E-3</v>
       </c>
       <c r="F62" s="6">
@@ -45802,7 +44952,7 @@
         <v>0.34444444444444561</v>
       </c>
       <c r="E63">
-        <f>0/36.25*(1-EXP(-H$2*D63))+I$2*EXP(-H$2*D63)</f>
+        <f t="shared" si="4"/>
         <v>1.2854012163917808E-3</v>
       </c>
       <c r="F63" s="6">
@@ -45825,7 +44975,7 @@
         <v>0.35000000000000159</v>
       </c>
       <c r="E64">
-        <f>0/36.25*(1-EXP(-H$2*D64))+I$2*EXP(-H$2*D64)</f>
+        <f t="shared" si="4"/>
         <v>1.0941302869197757E-3</v>
       </c>
       <c r="F64" s="6">
@@ -45848,7 +44998,7 @@
         <v>0.35555555555555518</v>
       </c>
       <c r="E65">
-        <f>0/36.25*(1-EXP(-H$2*D65))+I$2*EXP(-H$2*D65)</f>
+        <f t="shared" si="4"/>
         <v>9.3132095215814857E-4</v>
       </c>
       <c r="F65" s="6">
@@ -45871,7 +45021,7 @@
         <v>0.36111111111111122</v>
       </c>
       <c r="E66">
-        <f>0/36.25*(1-EXP(-H$2*D66))+I$2*EXP(-H$2*D66)</f>
+        <f t="shared" si="4"/>
         <v>7.9273805532840914E-4</v>
       </c>
       <c r="F66" s="6">
@@ -45890,15 +45040,15 @@
         <v>1.9205300000000002E-2</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D130" si="3">A67*24</f>
+        <f t="shared" ref="D67:D130" si="5">A67*24</f>
         <v>0.3666666666666672</v>
       </c>
       <c r="E67">
-        <f>0/36.25*(1-EXP(-H$2*D67))+I$2*EXP(-H$2*D67)</f>
+        <f t="shared" si="4"/>
         <v>6.7477664161812406E-4</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F130" si="4">(E67-C67)^2</f>
+        <f t="shared" ref="F67:F130" si="6">(E67-C67)^2</f>
         <v>3.4338029593553634E-4</v>
       </c>
     </row>
@@ -45913,15 +45063,15 @@
         <v>1.89252E-2</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37222222222222323</v>
       </c>
       <c r="E68">
-        <f>0/36.25*(1-EXP(-H$2*D68))+I$2*EXP(-H$2*D68)</f>
+        <f t="shared" si="4"/>
         <v>5.74368182545249E-4</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3675302839250966E-4</v>
       </c>
     </row>
@@ -45936,15 +45086,15 @@
         <v>1.9504799999999999E-2</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37777777777777921</v>
       </c>
       <c r="E69">
-        <f>0/36.25*(1-EXP(-H$2*D69))+I$2*EXP(-H$2*D69)</f>
+        <f t="shared" si="4"/>
         <v>4.8890075437293078E-4</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6160442411984018E-4</v>
       </c>
     </row>
@@ -45959,15 +45109,15 @@
         <v>1.9885E-2</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3833333333333328</v>
       </c>
       <c r="E70">
-        <f>0/36.25*(1-EXP(-H$2*D70))+I$2*EXP(-H$2*D70)</f>
+        <f t="shared" si="4"/>
         <v>4.1615109417661125E-4</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7903607771778058E-4</v>
       </c>
     </row>
@@ -45982,15 +45132,15 @@
         <v>1.8008400000000001E-2</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.38888888888888878</v>
       </c>
       <c r="E71">
-        <f>0/36.25*(1-EXP(-H$2*D71))+I$2*EXP(-H$2*D71)</f>
+        <f t="shared" si="4"/>
         <v>3.5422676613887301E-4</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1166983257117865E-4</v>
       </c>
     </row>
@@ -46005,15 +45155,15 @@
         <v>1.8832000000000002E-2</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39444444444444476</v>
       </c>
       <c r="E72">
-        <f>0/36.25*(1-EXP(-H$2*D72))+I$2*EXP(-H$2*D72)</f>
+        <f t="shared" si="4"/>
         <v>3.0151693364514513E-4</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4337880267246406E-4</v>
       </c>
     </row>
@@ -46028,15 +45178,15 @@
         <v>1.79753E-2</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4000000000000008</v>
       </c>
       <c r="E73">
-        <f>0/36.25*(1-EXP(-H$2*D73))+I$2*EXP(-H$2*D73)</f>
+        <f t="shared" si="4"/>
         <v>2.5665045661492738E-4</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1395054164130002E-4</v>
       </c>
     </row>
@@ -46051,15 +45201,15 @@
         <v>1.8065999999999999E-2</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.40555555555555678</v>
       </c>
       <c r="E74">
-        <f>0/36.25*(1-EXP(-H$2*D74))+I$2*EXP(-H$2*D74)</f>
+        <f t="shared" si="4"/>
         <v>2.1846022405551654E-4</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.185346760539204E-4</v>
       </c>
     </row>
@@ -46074,15 +45224,15 @@
         <v>1.8600200000000001E-2</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41111111111111037</v>
       </c>
       <c r="E75">
-        <f>0/36.25*(1-EXP(-H$2*D75))+I$2*EXP(-H$2*D75)</f>
+        <f t="shared" si="4"/>
         <v>1.8595279402130628E-4</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3908450016289414E-4</v>
       </c>
     </row>
@@ -46097,15 +45247,15 @@
         <v>1.80406E-2</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41666666666666641</v>
       </c>
       <c r="E76">
-        <f>0/36.25*(1-EXP(-H$2*D76))+I$2*EXP(-H$2*D76)</f>
+        <f t="shared" ref="E76:E107" si="7">0/36.25*(1-EXP(-H$2*D76))+I$2*EXP(-H$2*D76)</f>
         <v>1.5828255122333237E-4</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1977727733882246E-4</v>
       </c>
     </row>
@@ -46120,15 +45270,15 @@
         <v>1.7744699999999999E-2</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42222222222222239</v>
       </c>
       <c r="E77">
-        <f>0/36.25*(1-EXP(-H$2*D77))+I$2*EXP(-H$2*D77)</f>
+        <f t="shared" si="7"/>
         <v>1.3472971005155343E-4</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1011105361286698E-4</v>
       </c>
     </row>
@@ -46143,15 +45293,15 @@
         <v>1.82679E-2</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42777777777777837</v>
       </c>
       <c r="E78">
-        <f>0/36.25*(1-EXP(-H$2*D78))+I$2*EXP(-H$2*D78)</f>
+        <f t="shared" si="7"/>
         <v>1.1468159080253611E-4</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2953933861202568E-4</v>
       </c>
     </row>
@@ -46166,15 +45316,15 @@
         <v>1.8218999999999999E-2</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43333333333333435</v>
       </c>
       <c r="E79">
-        <f>0/36.25*(1-EXP(-H$2*D79))+I$2*EXP(-H$2*D79)</f>
+        <f t="shared" si="7"/>
         <v>9.7616682051552371E-5</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2838453335602024E-4</v>
       </c>
     </row>
@@ -46189,15 +45339,15 @@
         <v>1.7785700000000002E-2</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43888888888889044</v>
       </c>
       <c r="E80">
-        <f>0/36.25*(1-EXP(-H$2*D80))+I$2*EXP(-H$2*D80)</f>
+        <f t="shared" si="7"/>
         <v>8.30910745837258E-5</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1338236276622799E-4</v>
       </c>
     </row>
@@ -46212,15 +45362,15 @@
         <v>1.7359200000000002E-2</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.44444444444444398</v>
       </c>
       <c r="E81">
-        <f>0/36.25*(1-EXP(-H$2*D81))+I$2*EXP(-H$2*D81)</f>
+        <f t="shared" si="7"/>
         <v>7.0726913990301846E-5</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9889130164568182E-4</v>
       </c>
     </row>
@@ -46235,15 +45385,15 @@
         <v>1.7323000000000002E-2</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="E82">
-        <f>0/36.25*(1-EXP(-H$2*D82))+I$2*EXP(-H$2*D82)</f>
+        <f t="shared" si="7"/>
         <v>6.0202571547569666E-5</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9800417505578393E-4</v>
       </c>
     </row>
@@ -46258,15 +45408,15 @@
         <v>1.7062600000000001E-2</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.45555555555555594</v>
       </c>
       <c r="E83">
-        <f>0/36.25*(1-EXP(-H$2*D83))+I$2*EXP(-H$2*D83)</f>
+        <f t="shared" si="7"/>
         <v>5.124427769373932E-5</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8938622351084203E-4</v>
       </c>
     </row>
@@ -46281,15 +45431,15 @@
         <v>1.7619900000000001E-2</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46111111111111203</v>
       </c>
       <c r="E84">
-        <f>0/36.25*(1-EXP(-H$2*D84))+I$2*EXP(-H$2*D84)</f>
+        <f t="shared" si="7"/>
         <v>4.3619000465422369E-5</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0892565377460031E-4</v>
       </c>
     </row>
@@ -46304,15 +45454,15 @@
         <v>1.7243700000000001E-2</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.46666666666666801</v>
       </c>
       <c r="E85">
-        <f>0/36.25*(1-EXP(-H$2*D85))+I$2*EXP(-H$2*D85)</f>
+        <f t="shared" si="7"/>
         <v>3.7128383640676601E-5</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9606610678890237E-4</v>
       </c>
     </row>
@@ -46327,15 +45477,15 @@
         <v>1.6905400000000001E-2</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47222222222222154</v>
       </c>
       <c r="E86">
-        <f>0/36.25*(1-EXP(-H$2*D86))+I$2*EXP(-H$2*D86)</f>
+        <f t="shared" si="7"/>
         <v>3.1603586901587471E-5</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8472500539069288E-4</v>
       </c>
     </row>
@@ -46350,15 +45500,15 @@
         <v>1.71358E-2</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47777777777777763</v>
       </c>
       <c r="E87">
-        <f>0/36.25*(1-EXP(-H$2*D87))+I$2*EXP(-H$2*D87)</f>
+        <f t="shared" si="7"/>
         <v>2.6900893793606499E-5</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9271442862634998E-4</v>
       </c>
     </row>
@@ -46373,15 +45523,15 @@
         <v>1.8509500000000002E-2</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.48333333333333361</v>
       </c>
       <c r="E88">
-        <f>0/36.25*(1-EXP(-H$2*D88))+I$2*EXP(-H$2*D88)</f>
+        <f t="shared" si="7"/>
         <v>2.2897973231593793E-5</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4175445449611782E-4</v>
       </c>
     </row>
@@ -46396,15 +45546,15 @@
         <v>2.06982E-2</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.48888888888888959</v>
       </c>
       <c r="E89">
-        <f>0/36.25*(1-EXP(-H$2*D89))+I$2*EXP(-H$2*D89)</f>
+        <f t="shared" si="7"/>
         <v>1.9490697303128251E-5</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.2760901842544213E-4</v>
       </c>
     </row>
@@ -46419,15 +45569,15 @@
         <v>1.82043E-2</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.49444444444444557</v>
       </c>
       <c r="E90">
-        <f>0/36.25*(1-EXP(-H$2*D90))+I$2*EXP(-H$2*D90)</f>
+        <f t="shared" si="7"/>
         <v>1.659043259068957E-5</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3079277930843219E-4</v>
       </c>
     </row>
@@ -46442,15 +45592,15 @@
         <v>1.80489E-2</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50000000000000167</v>
       </c>
       <c r="E91">
-        <f>0/36.25*(1-EXP(-H$2*D91))+I$2*EXP(-H$2*D91)</f>
+        <f t="shared" si="7"/>
         <v>1.4121734551900189E-5</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2525322708387911E-4</v>
       </c>
     </row>
@@ -46465,15 +45615,15 @@
         <v>1.7940999999999999E-2</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5055555555555552</v>
       </c>
       <c r="E92">
-        <f>0/36.25*(1-EXP(-H$2*D92))+I$2*EXP(-H$2*D92)</f>
+        <f t="shared" si="7"/>
         <v>1.2020384981779266E-5</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2144831003573878E-4</v>
       </c>
     </row>
@@ -46488,15 +45638,15 @@
         <v>1.7803900000000001E-2</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51111111111111118</v>
       </c>
       <c r="E93">
-        <f>0/36.25*(1-EXP(-H$2*D93))+I$2*EXP(-H$2*D93)</f>
+        <f t="shared" si="7"/>
         <v>1.0231721505537862E-5</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.166146308051001E-4</v>
       </c>
     </row>
@@ -46511,15 +45661,15 @@
         <v>1.9567899999999999E-2</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51666666666666716</v>
       </c>
       <c r="E94">
-        <f>0/36.25*(1-EXP(-H$2*D94))+I$2*EXP(-H$2*D94)</f>
+        <f t="shared" si="7"/>
         <v>8.7092156470507611E-6</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8256194413871731E-4</v>
       </c>
     </row>
@@ -46534,15 +45684,15 @@
         <v>1.7153499999999999E-2</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52222222222222325</v>
       </c>
       <c r="E95">
-        <f>0/36.25*(1-EXP(-H$2*D95))+I$2*EXP(-H$2*D95)</f>
+        <f t="shared" si="7"/>
         <v>7.4132624843023803E-6</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9398829041041161E-4</v>
       </c>
     </row>
@@ -46557,15 +45707,15 @@
         <v>1.72584E-2</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52777777777777923</v>
       </c>
       <c r="E96">
-        <f>0/36.25*(1-EXP(-H$2*D96))+I$2*EXP(-H$2*D96)</f>
+        <f t="shared" si="7"/>
         <v>6.3101504071466319E-6</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9763460417842476E-4</v>
       </c>
     </row>
@@ -46580,15 +45730,15 @@
         <v>1.6745900000000001E-2</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53333333333333277</v>
       </c>
       <c r="E97">
-        <f>0/36.25*(1-EXP(-H$2*D97))+I$2*EXP(-H$2*D97)</f>
+        <f t="shared" si="7"/>
         <v>5.3711841776991503E-6</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8024530503337691E-4</v>
       </c>
     </row>
@@ -46603,15 +45753,15 @@
         <v>1.6183699999999999E-2</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.53888888888888886</v>
       </c>
       <c r="E98">
-        <f>0/36.25*(1-EXP(-H$2*D98))+I$2*EXP(-H$2*D98)</f>
+        <f t="shared" si="7"/>
         <v>4.5719384815438997E-6</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6176418483101388E-4</v>
       </c>
     </row>
@@ -46626,15 +45776,15 @@
         <v>1.6945499999999999E-2</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54444444444444484</v>
       </c>
       <c r="E99">
-        <f>0/36.25*(1-EXP(-H$2*D99))+I$2*EXP(-H$2*D99)</f>
+        <f t="shared" si="7"/>
         <v>3.8916225523988676E-6</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8701809441480274E-4</v>
       </c>
     </row>
@@ -46649,15 +45799,15 @@
         <v>1.6771299999999999E-2</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55000000000000082</v>
       </c>
       <c r="E100">
-        <f>0/36.25*(1-EXP(-H$2*D100))+I$2*EXP(-H$2*D100)</f>
+        <f t="shared" si="7"/>
         <v>3.3125393422234425E-6</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8116540348077645E-4</v>
       </c>
     </row>
@@ -46672,15 +45822,15 @@
         <v>1.6958899999999999E-2</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5555555555555568</v>
       </c>
       <c r="E101">
-        <f>0/36.25*(1-EXP(-H$2*D101))+I$2*EXP(-H$2*D101)</f>
+        <f t="shared" si="7"/>
         <v>2.8196251681741931E-6</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8750866167775692E-4</v>
       </c>
     </row>
@@ -46695,15 +45845,15 @@
         <v>1.6496799999999999E-2</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.56111111111111045</v>
       </c>
       <c r="E102">
-        <f>0/36.25*(1-EXP(-H$2*D102))+I$2*EXP(-H$2*D102)</f>
+        <f t="shared" si="7"/>
         <v>2.4000578612495702E-6</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7206522945122678E-4</v>
       </c>
     </row>
@@ -46718,15 +45868,15 @@
         <v>1.6108399999999998E-2</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.56666666666666643</v>
       </c>
       <c r="E103">
-        <f>0/36.25*(1-EXP(-H$2*D103))+I$2*EXP(-H$2*D103)</f>
+        <f t="shared" si="7"/>
         <v>2.0429232233997526E-6</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5941473828463158E-4</v>
       </c>
     </row>
@@ -46741,15 +45891,15 @@
         <v>1.6557200000000001E-2</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57222222222222241</v>
       </c>
       <c r="E104">
-        <f>0/36.25*(1-EXP(-H$2*D104))+I$2*EXP(-H$2*D104)</f>
+        <f t="shared" si="7"/>
         <v>1.7389311166577958E-6</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7408329120331206E-4</v>
       </c>
     </row>
@@ -46764,15 +45914,15 @@
         <v>1.6156500000000001E-2</v>
       </c>
       <c r="D105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57777777777777839</v>
       </c>
       <c r="E105">
-        <f>0/36.25*(1-EXP(-H$2*D105))+I$2*EXP(-H$2*D105)</f>
+        <f t="shared" si="7"/>
         <v>1.4801737989196153E-6</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6098466558494997E-4</v>
       </c>
     </row>
@@ -46787,15 +45937,15 @@
         <v>1.5723399999999998E-2</v>
       </c>
       <c r="D106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58333333333333437</v>
       </c>
       <c r="E106">
-        <f>0/36.25*(1-EXP(-H$2*D106))+I$2*EXP(-H$2*D106)</f>
+        <f t="shared" si="7"/>
         <v>1.2599202199676801E-6</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4718568868822567E-4</v>
       </c>
     </row>
@@ -46810,15 +45960,15 @@
         <v>1.58119E-2</v>
       </c>
       <c r="D107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58888888888889035</v>
       </c>
       <c r="E107">
-        <f>0/36.25*(1-EXP(-H$2*D107))+I$2*EXP(-H$2*D107)</f>
+        <f t="shared" si="7"/>
         <v>1.0724409267628274E-6</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4998226810274985E-4</v>
       </c>
     </row>
@@ -46833,15 +45983,15 @@
         <v>1.5884300000000001E-2</v>
       </c>
       <c r="D108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.594444444444444</v>
       </c>
       <c r="E108">
-        <f>0/36.25*(1-EXP(-H$2*D108))+I$2*EXP(-H$2*D108)</f>
+        <f t="shared" ref="E108:E139" si="8">0/36.25*(1-EXP(-H$2*D108))+I$2*EXP(-H$2*D108)</f>
         <v>9.1285902326854426E-7</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.52281987070145E-4</v>
       </c>
     </row>
@@ -46856,15 +46006,15 @@
         <v>1.5519399999999999E-2</v>
       </c>
       <c r="D109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E109">
-        <f>0/36.25*(1-EXP(-H$2*D109))+I$2*EXP(-H$2*D109)</f>
+        <f t="shared" si="8"/>
         <v>7.7702330782740908E-7</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4082765909271822E-4</v>
       </c>
     </row>
@@ -46879,15 +46029,15 @@
         <v>1.5995700000000002E-2</v>
       </c>
       <c r="D110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60555555555555607</v>
       </c>
       <c r="E110">
-        <f>0/36.25*(1-EXP(-H$2*D110))+I$2*EXP(-H$2*D110)</f>
+        <f t="shared" si="8"/>
         <v>6.6140028801515757E-7</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5584125980627646E-4</v>
       </c>
     </row>
@@ -46902,15 +46052,15 @@
         <v>1.5526099999999999E-2</v>
       </c>
       <c r="D111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61111111111111205</v>
       </c>
       <c r="E111">
-        <f>0/36.25*(1-EXP(-H$2*D111))+I$2*EXP(-H$2*D111)</f>
+        <f t="shared" si="8"/>
         <v>5.6298226395506986E-7</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4104229968909221E-4</v>
       </c>
     </row>
@@ -46925,15 +46075,15 @@
         <v>1.54763E-2</v>
       </c>
       <c r="D112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61666666666666803</v>
       </c>
       <c r="E112">
-        <f>0/36.25*(1-EXP(-H$2*D112))+I$2*EXP(-H$2*D112)</f>
+        <f t="shared" si="8"/>
         <v>4.7920908906636793E-7</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3950102915239112E-4</v>
       </c>
     </row>
@@ -46948,15 +46098,15 @@
         <v>1.5898800000000001E-2</v>
       </c>
       <c r="D113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.62222222222222157</v>
       </c>
       <c r="E113">
-        <f>0/36.25*(1-EXP(-H$2*D113))+I$2*EXP(-H$2*D113)</f>
+        <f t="shared" si="8"/>
         <v>4.079015730096974E-7</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5275887131532583E-4</v>
       </c>
     </row>
@@ -46971,15 +46121,15 @@
         <v>1.5093199999999999E-2</v>
       </c>
       <c r="D114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.62777777777777755</v>
       </c>
       <c r="E114">
-        <f>0/36.25*(1-EXP(-H$2*D114))+I$2*EXP(-H$2*D114)</f>
+        <f t="shared" si="8"/>
         <v>3.4720479444147395E-7</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2779420549774422E-4</v>
       </c>
     </row>
@@ -46994,15 +46144,15 @@
         <v>1.4452100000000001E-2</v>
       </c>
       <c r="D115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63333333333333353</v>
       </c>
       <c r="E115">
-        <f>0/36.25*(1-EXP(-H$2*D115))+I$2*EXP(-H$2*D115)</f>
+        <f t="shared" si="8"/>
         <v>2.9553984897302718E-7</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0885465215444112E-4</v>
       </c>
     </row>
@@ -47017,15 +46167,15 @@
         <v>1.4755300000000001E-2</v>
       </c>
       <c r="D116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63888888888888951</v>
       </c>
       <c r="E116">
-        <f>0/36.25*(1-EXP(-H$2*D116))+I$2*EXP(-H$2*D116)</f>
+        <f t="shared" si="8"/>
         <v>2.5156277715434129E-7</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1771145438479237E-4</v>
       </c>
     </row>
@@ -47040,15 +46190,15 @@
         <v>1.4801099999999999E-2</v>
       </c>
       <c r="D117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6444444444444456</v>
       </c>
       <c r="E117">
-        <f>0/36.25*(1-EXP(-H$2*D117))+I$2*EXP(-H$2*D117)</f>
+        <f t="shared" si="8"/>
         <v>2.1412960407711541E-7</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1906622254848565E-4</v>
       </c>
     </row>
@@ -47063,15 +46213,15 @@
         <v>1.4327100000000001E-2</v>
       </c>
       <c r="D118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64999999999999925</v>
       </c>
       <c r="E118">
-        <f>0/36.25*(1-EXP(-H$2*D118))+I$2*EXP(-H$2*D118)</f>
+        <f t="shared" si="8"/>
         <v>1.8226658117267562E-7</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0526057174015085E-4</v>
       </c>
     </row>
@@ -47086,15 +46236,15 @@
         <v>1.5821999999999999E-2</v>
       </c>
       <c r="D119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.65555555555555522</v>
       </c>
       <c r="E119">
-        <f>0/36.25*(1-EXP(-H$2*D119))+I$2*EXP(-H$2*D119)</f>
+        <f t="shared" si="8"/>
         <v>1.5514485610503967E-7</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5033077462024333E-4</v>
       </c>
     </row>
@@ -47109,15 +46259,15 @@
         <v>1.46035E-2</v>
       </c>
       <c r="D120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.6611111111111112</v>
       </c>
       <c r="E120">
-        <f>0/36.25*(1-EXP(-H$2*D120))+I$2*EXP(-H$2*D120)</f>
+        <f t="shared" si="8"/>
         <v>1.3205891184764255E-7</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1325835522280123E-4</v>
       </c>
     </row>
@@ -47132,15 +46282,15 @@
         <v>1.44993E-2</v>
       </c>
       <c r="D121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666718</v>
       </c>
       <c r="E121">
-        <f>0/36.25*(1-EXP(-H$2*D121))+I$2*EXP(-H$2*D121)</f>
+        <f t="shared" si="8"/>
         <v>1.1240821407946673E-7</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1022644082179881E-4</v>
       </c>
     </row>
@@ -47155,15 +46305,15 @@
         <v>1.48247E-2</v>
       </c>
       <c r="D122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67222222222222316</v>
       </c>
       <c r="E122">
-        <f>0/36.25*(1-EXP(-H$2*D122))+I$2*EXP(-H$2*D122)</f>
+        <f t="shared" si="8"/>
         <v>9.5681589494793609E-8</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1976889319743538E-4</v>
       </c>
     </row>
@@ -47178,15 +46328,15 @@
         <v>1.4504299999999999E-2</v>
       </c>
       <c r="D123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67777777777777914</v>
       </c>
       <c r="E123">
-        <f>0/36.25*(1-EXP(-H$2*D123))+I$2*EXP(-H$2*D123)</f>
+        <f t="shared" si="8"/>
         <v>8.1443928659680643E-8</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1037235592228417E-4</v>
       </c>
     </row>
@@ -47201,15 +46351,15 @@
         <v>1.4482E-2</v>
       </c>
       <c r="D124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.68333333333333279</v>
       </c>
       <c r="E124">
-        <f>0/36.25*(1-EXP(-H$2*D124))+I$2*EXP(-H$2*D124)</f>
+        <f t="shared" si="8"/>
         <v>6.9324867516801709E-8</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0972631607934318E-4</v>
       </c>
     </row>
@@ -47224,15 +46374,15 @@
         <v>1.4146300000000001E-2</v>
       </c>
       <c r="D125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.68888888888888877</v>
       </c>
       <c r="E125">
-        <f>0/36.25*(1-EXP(-H$2*D125))+I$2*EXP(-H$2*D125)</f>
+        <f t="shared" si="8"/>
         <v>5.900915311077096E-8</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0011613417111678E-4</v>
       </c>
     </row>
@@ -47247,15 +46397,15 @@
         <v>1.4037600000000001E-2</v>
       </c>
       <c r="D126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69444444444444475</v>
       </c>
       <c r="E126">
-        <f>0/36.25*(1-EXP(-H$2*D126))+I$2*EXP(-H$2*D126)</f>
+        <f t="shared" si="8"/>
         <v>5.0228442917781077E-8</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9705280358894232E-4</v>
       </c>
     </row>
@@ -47270,15 +46420,15 @@
         <v>1.3447799999999999E-2</v>
       </c>
       <c r="D127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.70000000000000073</v>
       </c>
       <c r="E127">
-        <f>0/36.25*(1-EXP(-H$2*D127))+I$2*EXP(-H$2*D127)</f>
+        <f t="shared" si="8"/>
         <v>4.275432445554413E-8</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8084217493861908E-4</v>
       </c>
     </row>
@@ -47293,15 +46443,15 @@
         <v>1.4321E-2</v>
       </c>
       <c r="D128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.70555555555555682</v>
       </c>
       <c r="E128">
-        <f>0/36.25*(1-EXP(-H$2*D128))+I$2*EXP(-H$2*D128)</f>
+        <f t="shared" si="8"/>
         <v>3.6392373592828284E-8</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0508999865095998E-4</v>
       </c>
     </row>
@@ -47316,15 +46466,15 @@
         <v>1.3457200000000001E-2</v>
       </c>
       <c r="D129" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.71111111111111036</v>
       </c>
       <c r="E129">
-        <f>0/36.25*(1-EXP(-H$2*D129))+I$2*EXP(-H$2*D129)</f>
+        <f t="shared" si="8"/>
         <v>3.0977096997455733E-8</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8109539811098018E-4</v>
       </c>
     </row>
@@ -47339,15 +46489,15 @@
         <v>1.39189E-2</v>
       </c>
       <c r="D130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.71666666666666634</v>
       </c>
       <c r="E130">
-        <f>0/36.25*(1-EXP(-H$2*D130))+I$2*EXP(-H$2*D130)</f>
+        <f t="shared" si="8"/>
         <v>2.6367627160730469E-8</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9373504319396384E-4</v>
       </c>
     </row>
@@ -47362,15 +46512,15 @@
         <v>1.4188600000000001E-2</v>
       </c>
       <c r="D131" s="4">
-        <f t="shared" ref="D131:D136" si="5">A131*24</f>
+        <f t="shared" ref="D131:D136" si="9">A131*24</f>
         <v>0.72222222222222243</v>
       </c>
       <c r="E131">
-        <f>0/36.25*(1-EXP(-H$2*D131))+I$2*EXP(-H$2*D131)</f>
+        <f t="shared" si="8"/>
         <v>2.2444058013066715E-8</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" ref="F131:F136" si="6">(E131-C131)^2</f>
+        <f t="shared" ref="F131:F136" si="10">(E131-C131)^2</f>
         <v>2.0131573306098071E-4</v>
       </c>
     </row>
@@ -47385,15 +46535,15 @@
         <v>1.4002300000000001E-2</v>
       </c>
       <c r="D132" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.72777777777777841</v>
       </c>
       <c r="E132">
-        <f>0/36.25*(1-EXP(-H$2*D132))+I$2*EXP(-H$2*D132)</f>
+        <f t="shared" si="8"/>
         <v>1.9104325809192344E-8</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9606387028136245E-4</v>
       </c>
     </row>
@@ -47408,15 +46558,15 @@
         <v>1.3887099999999999E-2</v>
       </c>
       <c r="D133" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.73333333333333439</v>
       </c>
       <c r="E133">
-        <f>0/36.25*(1-EXP(-H$2*D133))+I$2*EXP(-H$2*D133)</f>
+        <f t="shared" si="8"/>
         <v>1.6261554145479792E-8</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9285109475860728E-4</v>
       </c>
     </row>
@@ -47431,15 +46581,15 @@
         <v>1.42621E-2</v>
       </c>
       <c r="D134" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.73888888888889037</v>
       </c>
       <c r="E134">
-        <f>0/36.25*(1-EXP(-H$2*D134))+I$2*EXP(-H$2*D134)</f>
+        <f t="shared" si="8"/>
         <v>1.3841794045363931E-8</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.0340710158408987E-4</v>
       </c>
     </row>
@@ -47454,15 +46604,15 @@
         <v>1.3329000000000001E-2</v>
       </c>
       <c r="D135" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.74444444444444402</v>
       </c>
       <c r="E135">
-        <f>0/36.25*(1-EXP(-H$2*D135))+I$2*EXP(-H$2*D135)</f>
+        <f t="shared" si="8"/>
         <v>1.1782100325726996E-8</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7766192691290837E-4</v>
       </c>
     </row>
@@ -47477,15 +46627,15 @@
         <v>1.35476E-2</v>
       </c>
       <c r="D136" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="E136">
-        <f>0/36.25*(1-EXP(-H$2*D136))+I$2*EXP(-H$2*D136)</f>
+        <f t="shared" si="8"/>
         <v>1.0028894204792907E-8</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8353719402520633E-4</v>
       </c>
     </row>
@@ -50932,12 +50082,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51158,15 +50305,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51191,18 +50350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28A4A03-F56B-D149-A043-6486D3269C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEAAD4-93A4-A44A-A2B3-802482D31453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="41460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4629,6 +4629,847 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D798-684F-BE26-5BC043C7D996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Piecewise predicted</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mass_conc!$D$2:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>5.5555555555555549E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111111111111111E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7777777777777839E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333361E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8888888888888883E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4444444444444398E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5555555555555441E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1111111111110963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666721E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2222222222222243E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7777777777777765E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3333333333333273E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8888888888888795E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.4444444444444303E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9999999999999839E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1055555555555556</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.11666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12222222222222218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.12777777777777766</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.13333333333333319</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13888888888888873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14444444444444449</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16111111111111104</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16666666666666655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17222222222222208</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18333333333333338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19444444444444439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20555555555555544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21111111111111097</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21666666666666673</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22222222222222227</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.23333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.23888888888888882</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.25000000000000083</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25555555555555681</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26111111111111041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26666666666666639</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27222222222222242</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.28333333333333444</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28888888888889042</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.29444444444444401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.30555555555555602</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31666666666666798</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32222222222222163</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.32777777777777761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.33888888888888957</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.34444444444444561</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.35000000000000159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.35555555555555518</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36111111111111122</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37222222222222323</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.37777777777777921</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.3833333333333328</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.39444444444444476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.40555555555555678</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.41111111111111037</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41666666666666641</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.42222222222222239</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.42777777777777837</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.43333333333333435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43888888888889044</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44444444444444398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.45555555555555594</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.46111111111111203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.46666666666666801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47222222222222154</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.47777777777777763</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48333333333333361</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48888888888888959</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49444444444444557</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.50000000000000167</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5055555555555552</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51111111111111118</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51666666666666716</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52222222222222325</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.52777777777777923</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.53333333333333277</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.53888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54444444444444484</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.55000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5555555555555568</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.56111111111111045</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.56666666666666643</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.57222222222222241</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.57777777777777839</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.58333333333333437</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.58888888888889035</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.594444444444444</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.60555555555555607</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.61111111111111205</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.61666666666666803</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.62222222222222157</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.62777777777777755</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.63333333333333353</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.63888888888888951</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.6444444444444456</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.64999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.65555555555555522</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.6611111111111112</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.66666666666666718</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.67222222222222316</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.67777777777777914</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.68333333333333279</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.68888888888888877</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.69444444444444475</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.70000000000000073</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.70555555555555682</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.71111111111111036</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.71666666666666634</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.72222222222222243</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.72777777777777841</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.73333333333333439</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.73888888888889037</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.74444444444444402</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mass_conc!$E$2:$E$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8511946666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.408887986320093E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4478300110181784E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4865188736644251E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.524956220065005E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5631436853266994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6010828939264689E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6387754597805487E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6762229863131074E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7134270665244565E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7503892830588109E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.7871112082716235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8235944042964577E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8598404231114547E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8958508066053485E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9316270866430539E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9671707851308344E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0024834140810463E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0375664756764462E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0724214623341123E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1070498567689184E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1414531320566085E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1756327516964654E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2095901696735646E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.2433268305206273E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2768441693794651E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3101436120620409E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3432265751111102E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0774586755610211E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0639531194171976E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0505353628762737E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.037204835153145E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.0239609691733863E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0108032015491054E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.9977309725550112E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9847437261045806E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9718409097264075E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9590219745407023E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9462863752359477E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9336335700456786E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9210630207254709E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9085741925300201E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8961665541904003E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8838395778914701E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8715927392493979E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8594255172893853E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8473373944234858E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8353278564285928E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8233963924245613E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8115424948524837E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7997656594530769E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7880653852452615E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7764411745048312E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.764892532743283E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7534189686867891E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7420199942552766E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7306951245416952E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7194438777913709E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.708265775381515E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6971603418008706E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6861271046294632E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6751655945185361E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6642753451705621E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6534558933194145E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6427067787106578E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6320275440819761E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6214177351437008E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.610876900559513E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6004045919272271E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5900003637597197E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5796637734659807E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5693943813322734E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5591917505034508E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5490554469643571E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5389850395213676E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5289800997840478E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.519040202146933E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5091649237714054E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4993538445677339E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4896065471771858E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4799226169542776E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4703016419491391E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4607432128899724E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4512469231656694E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4418123688084948E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4324391484769069E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4231268634384899E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4138751175529736E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4046835172554081E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3955516715394047E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3864791919405064E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3774656925196629E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3685107898468177E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3596141029845805E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3507752534720465E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3419938653086803E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3332695649383261E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3246019812333195E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3159907454786851E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3074354913564753E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2989358549301701E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2904914746292011E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.2821019912335729E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2737670478585686E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2654862899395885E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2572593652170536E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2490859237214238E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2409656177583106E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2328981018936902E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2248830329391938E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2169200699375306E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2090088741479689E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2011491090319303E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.193340440238677E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1855825355910739E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1778750650714796E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.170217700807694E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.162610117059013E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.1550519902023732E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.1475429987185865E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1400828231786519E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C2C-844F-AD8B-AED2C362DF55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9400,15 +10241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>649110</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57855</xdr:rowOff>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>536222</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>578555</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -43484,14 +44325,14 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AK71" sqref="AK71"/>
+      <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -43548,13 +44389,13 @@
         <v>4.7744289355111148E-8</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -43579,6 +44420,15 @@
         <f t="shared" ref="F3:F66" si="2">(E3-C3)^2</f>
         <v>4.5358208641777768E-8</v>
       </c>
+      <c r="G3">
+        <v>3.83</v>
+      </c>
+      <c r="H3">
+        <v>2.35</v>
+      </c>
+      <c r="I3">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -43879,7 +44729,7 @@
         <v>3.2509915050844466E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>3.7037037037036999E-3</v>
       </c>
@@ -43894,15 +44744,15 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E43" si="3">G$2/36.25*(1-EXP(-H$2*D17))+I$2*EXP(-H$2*D17)</f>
-        <v>2.942111837477432</v>
+        <f>G$2/36.25*(1-EXP(-H$2*D17))/H$2+I$2*EXP(-H$2*D17)</f>
+        <v>3.408887986320093E-2</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>8.6324691441356851</v>
+        <v>9.0501275233412953E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>3.9351851851851796E-3</v>
       </c>
@@ -43917,15 +44767,15 @@
         <v>9.4444444444444303E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>2.6356749064530303</v>
+        <f t="shared" ref="E18:E44" si="3">G$2/36.25*(1-EXP(-H$2*D18))/H$2+I$2*EXP(-H$2*D18)</f>
+        <v>3.4478300110181784E-2</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>6.9110883765967888</v>
+        <v>7.6719527502779408E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>4.1666666666666597E-3</v>
       </c>
@@ -43941,14 +44791,14 @@
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>2.374836560426167</v>
+        <v>3.4865188736644251E-2</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>5.5526457513641114</v>
+        <v>2.7007269900840275E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>4.3981481481481502E-3</v>
       </c>
@@ -43964,14 +44814,14 @@
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>2.1528116154216956</v>
+        <v>3.524956220065005E-2</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>4.5164844564332842</v>
+        <v>5.837207845224183E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>4.6296296296296302E-3</v>
       </c>
@@ -43987,14 +44837,14 @@
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1.9638245398819749</v>
+        <v>3.5631436853266994E-2</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>3.7314105703377094</v>
+        <v>1.2199909283540055E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>4.8611111111111103E-3</v>
       </c>
@@ -44010,14 +44860,14 @@
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>1.802959215851208</v>
+        <v>3.6010828939264689E-2</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>3.0992698167717787</v>
+        <v>4.191359609945043E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>5.0925925925925904E-3</v>
       </c>
@@ -44033,14 +44883,14 @@
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>1.666031056072975</v>
+        <v>3.6387754597805487E-2</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>2.6944331372243697</v>
+        <v>1.3993836198246097E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>5.3240740740740696E-3</v>
       </c>
@@ -44056,14 +44906,14 @@
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1.5494781503848158</v>
+        <v>3.6762229863131074E-2</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>2.3558969830982246</v>
+        <v>4.9182952440215272E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>5.5555555555555497E-3</v>
       </c>
@@ -44079,14 +44929,14 @@
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>1.4502686098026998</v>
+        <v>3.7134270665244565E-2</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>2.0445731430979706</v>
+        <v>2.8060841916441618E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>5.7870370370370298E-3</v>
       </c>
@@ -44102,14 +44952,14 @@
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>1.3658216980384537</v>
+        <v>3.7503892830588109E-2</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>1.757408367459103</v>
+        <v>6.9960629262403094E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>6.0185185185185203E-3</v>
       </c>
@@ -44125,14 +44975,15 @@
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>1.2939406988454776</v>
+        <v>3.7871112082716235E-2</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>1.616705889570305</v>
-      </c>
+        <v>2.3802047123202161E-4</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>6.2500000000000003E-3</v>
       </c>
@@ -44148,14 +44999,14 @@
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>1.2327557728720471</v>
+        <v>3.8235944042964577E-2</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>1.4447039301172191</v>
+        <v>5.5331937479123813E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>6.4814814814814804E-3</v>
       </c>
@@ -44171,14 +45022,14 @@
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>1.1806753175583411</v>
+        <v>3.8598404231114547E-2</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>1.3325392005007342</v>
+        <v>1.5079113600365249E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>6.7129629629629596E-3</v>
       </c>
@@ -44194,14 +45045,14 @@
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>1.1363445648029846</v>
+        <v>3.8958508066053485E-2</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>1.2091372364150161</v>
+        <v>4.935986730767116E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -44217,14 +45068,14 @@
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>1.0986103394007853</v>
+        <v>3.9316270866430539E-2</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>1.1124039857838197</v>
+        <v>2.1053681913788979E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>7.1759259259259198E-3</v>
       </c>
@@ -44240,11 +45091,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>1.0664910615134515</v>
+        <v>3.9671707851308344E-2</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>1.062453316874129</v>
+        <v>1.5479565140436742E-5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -44263,11 +45114,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>1.0391512128480094</v>
+        <v>4.0024834140810463E-2</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>0.99630264962863102</v>
+        <v>9.5407154367827339E-7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -44286,11 +45137,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>1.0158796023320094</v>
+        <v>4.0375664756764462E-2</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>0.95319449851579985</v>
+        <v>6.6074911278974487E-7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -44309,11 +45160,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>0.99607086591083871</v>
+        <v>4.0724214623341123E-2</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>0.91370172983612652</v>
+        <v>2.8176416435278173E-7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -44332,11 +45183,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>0.9792097192216731</v>
+        <v>4.1070498567689184E-2</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>0.86460934217599361</v>
+        <v>6.8815344013470797E-5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -44355,11 +45206,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>0.96485755350908786</v>
+        <v>4.1414531320566085E-2</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>0.84223138785252438</v>
+        <v>3.2619732192418682E-5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -44378,11 +45229,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>0.95264102610209567</v>
+        <v>4.1756327516964654E-2</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>0.81333527328140287</v>
+        <v>8.1607238530750022E-5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -44401,11 +45252,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>0.94224234865685663</v>
+        <v>4.2095901696735646E-2</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>0.79621329677462782</v>
+        <v>6.1443623359938796E-5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -44424,11 +45275,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>0.93339102053326606</v>
+        <v>4.2433268305206273E-2</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="2"/>
-        <v>0.77725139207097893</v>
+        <v>8.721938081270081E-5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -44447,11 +45298,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>0.92585679226586948</v>
+        <v>4.2768441693794651E-2</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="2"/>
-        <v>0.77807569775166352</v>
+        <v>1.0047221740188533E-6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -44470,11 +45321,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>0.91944367608797617</v>
+        <v>4.3101436120620409E-2</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="2"/>
-        <v>0.77411011304880528</v>
+        <v>1.2201301339958866E-5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -44493,11 +45344,11 @@
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>0.91398484770483146</v>
+        <v>4.3432265751111102E-2</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="2"/>
-        <v>0.7412372231147657</v>
+        <v>9.218369910203712E-5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -44515,12 +45366,12 @@
         <v>0.23888888888888882</v>
       </c>
       <c r="E44">
-        <f t="shared" ref="E44:E75" si="4">0/36.25*(1-EXP(-H$2*D44))+I$2*EXP(-H$2*D44)</f>
-        <v>2.744494536742571E-2</v>
+        <f>0/36.25*(1-EXP(-H$2*D44))/H$2+I$2*EXP(-H$2*D44)</f>
+        <v>2.0774586755610211E-2</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="2"/>
-        <v>4.0705703985291638E-4</v>
+        <v>7.2070842711795193E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -44538,12 +45389,12 @@
         <v>0.2444444444444448</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
-        <v>2.336106856476371E-2</v>
+        <f t="shared" ref="E44:E75" si="4">0/36.25*(1-EXP(-H$2*D45))+I$2*EXP(-H$2*D45)</f>
+        <v>2.0639531194171976E-2</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="2"/>
-        <v>5.9387544189710993E-5</v>
+        <v>1.0874044783156115E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -44562,11 +45413,11 @@
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
-        <v>1.9884882887590896E-2</v>
+        <v>2.0505353628762737E-2</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="2"/>
-        <v>1.6238620006042776E-5</v>
+        <v>1.1622960819794454E-5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -44585,11 +45436,11 @@
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
-        <v>1.6925962370129499E-2</v>
+        <v>2.037204835153145E-2</v>
       </c>
       <c r="F47" s="6">
         <f t="shared" si="2"/>
-        <v>5.2599302072687599E-5</v>
+        <v>1.448907415212893E-5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -44608,11 +45459,11 @@
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
-        <v>1.4407336657428441E-2</v>
+        <v>2.0239609691733863E-2</v>
       </c>
       <c r="F48" s="6">
         <f t="shared" si="2"/>
-        <v>9.9629610459099765E-5</v>
+        <v>1.7215780214209629E-5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -44631,11 +45482,11 @@
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
-        <v>1.2263488776672656E-2</v>
+        <v>2.0108032015491054E-2</v>
       </c>
       <c r="F49" s="6">
         <f t="shared" si="2"/>
-        <v>1.4345358868819849E-4</v>
+        <v>1.7078944670185235E-5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -44654,11 +45505,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
-        <v>1.0438650845160418E-2</v>
+        <v>1.9977309725550112E-2</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="2"/>
-        <v>1.7214093788506878E-4</v>
+        <v>1.2827788894034031E-5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -44677,11 +45528,11 @@
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
-        <v>8.8853533812042283E-3</v>
+        <v>1.9847437261045806E-2</v>
       </c>
       <c r="F51" s="6">
         <f t="shared" si="2"/>
-        <v>2.1470298347463091E-4</v>
+        <v>1.3620991452704871E-5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -44700,11 +45551,11 @@
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
-        <v>7.5631904812181608E-3</v>
+        <v>1.9718409097264075E-2</v>
       </c>
       <c r="F52" s="6">
         <f t="shared" si="2"/>
-        <v>3.159154143737475E-4</v>
+        <v>3.1570811208668006E-5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -44723,11 +45574,11 @@
       </c>
       <c r="E53">
         <f t="shared" si="4"/>
-        <v>6.4377687415552824E-3</v>
+        <v>1.9590219745407023E-2</v>
       </c>
       <c r="F53" s="6">
         <f t="shared" si="2"/>
-        <v>3.5526713060056767E-4</v>
+        <v>3.2445330266764002E-5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -44746,11 +45597,11 @@
       </c>
       <c r="E54">
         <f t="shared" si="4"/>
-        <v>5.4798125834157139E-3</v>
+        <v>1.9462863752359477E-2</v>
       </c>
       <c r="F54" s="6">
         <f t="shared" si="2"/>
-        <v>3.3565491573115655E-4</v>
+        <v>1.8816823311344021E-5</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -44769,11 +45620,11 @@
       </c>
       <c r="E55">
         <f t="shared" si="4"/>
-        <v>4.6644027076537305E-3</v>
+        <v>1.9336335700456786E-2</v>
       </c>
       <c r="F55" s="6">
         <f t="shared" si="2"/>
-        <v>3.3657561665077659E-4</v>
+        <v>1.3498748477177971E-5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -44792,11 +45643,11 @@
       </c>
       <c r="E56">
         <f t="shared" si="4"/>
-        <v>3.9703278694261457E-3</v>
+        <v>1.9210630207254709E-2</v>
       </c>
       <c r="F56" s="6">
         <f t="shared" si="2"/>
-        <v>3.6797874661352099E-4</v>
+        <v>1.5543068066709089E-5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -44815,11 +45666,11 @@
       </c>
       <c r="E57">
         <f t="shared" si="4"/>
-        <v>3.379533110397162E-3</v>
+        <v>1.9085741925300201E-2</v>
       </c>
       <c r="F57" s="6">
         <f t="shared" si="2"/>
-        <v>3.8366494166790953E-4</v>
+        <v>1.506338800080744E-5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -44838,11 +45689,11 @@
       </c>
       <c r="E58">
         <f t="shared" si="4"/>
-        <v>2.8766500953790282E-3</v>
+        <v>1.8961665541904003E-2</v>
       </c>
       <c r="F58" s="6">
         <f t="shared" si="2"/>
-        <v>3.4298484048968936E-4</v>
+        <v>5.92841883833162E-6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -44861,11 +45712,11 @@
       </c>
       <c r="E59">
         <f t="shared" si="4"/>
-        <v>2.4485973360598998E-3</v>
+        <v>1.8838395778914701E-2</v>
       </c>
       <c r="F59" s="6">
         <f t="shared" si="2"/>
-        <v>3.6388243212305148E-4</v>
+        <v>7.2140814848438255E-6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -44884,11 +45735,11 @@
       </c>
       <c r="E60">
         <f t="shared" si="4"/>
-        <v>2.0842399024443205E-3</v>
+        <v>1.8715927392493979E-2</v>
       </c>
       <c r="F60" s="6">
         <f t="shared" si="2"/>
-        <v>3.3390472532888159E-4</v>
+        <v>2.6941040366711106E-6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -44907,11 +45758,11 @@
       </c>
       <c r="E61">
         <f t="shared" si="4"/>
-        <v>1.7740997700876546E-3</v>
+        <v>1.8594255172893853E-2</v>
       </c>
       <c r="F61" s="6">
         <f t="shared" si="2"/>
-        <v>3.9265008627161027E-4</v>
+        <v>8.971491574306142E-6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -44930,11 +45781,11 @@
       </c>
       <c r="E62">
         <f t="shared" si="4"/>
-        <v>1.5101092683879062E-3</v>
+        <v>1.8473373944234858E-2</v>
       </c>
       <c r="F62" s="6">
         <f t="shared" si="2"/>
-        <v>3.4937930240623344E-4</v>
+        <v>2.9874566302478412E-6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -44953,11 +45804,11 @@
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
-        <v>1.2854012163917808E-3</v>
+        <v>1.8353278564285928E-2</v>
       </c>
       <c r="F63" s="6">
         <f t="shared" si="2"/>
-        <v>3.3839069640797468E-4</v>
+        <v>1.7623131622803473E-6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -44976,11 +45827,11 @@
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
-        <v>1.0941302869197757E-3</v>
+        <v>1.8233963924245613E-2</v>
       </c>
       <c r="F64" s="6">
         <f t="shared" si="2"/>
-        <v>4.2297967645904614E-4</v>
+        <v>1.1741834795661415E-5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -44999,11 +45850,11 @@
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>9.3132095215814857E-4</v>
+        <v>1.8115424948524837E-2</v>
       </c>
       <c r="F65" s="6">
         <f t="shared" si="2"/>
-        <v>3.7789723355729203E-4</v>
+        <v>5.0871677078268948E-6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -45022,11 +45873,11 @@
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
-        <v>7.9273805532840914E-4</v>
+        <v>1.7997656594530769E-2</v>
       </c>
       <c r="F66" s="6">
         <f t="shared" si="2"/>
-        <v>3.3395961426963905E-4</v>
+        <v>1.144137014863811E-6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -45045,11 +45896,11 @@
       </c>
       <c r="E67">
         <f t="shared" si="4"/>
-        <v>6.7477664161812406E-4</v>
+        <v>1.7880653852452615E-2</v>
       </c>
       <c r="F67" s="6">
         <f t="shared" ref="F67:F130" si="6">(E67-C67)^2</f>
-        <v>3.4338029593553634E-4</v>
+        <v>1.7546874162121318E-6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -45068,11 +45919,11 @@
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
-        <v>5.74368182545249E-4</v>
+        <v>1.7764411745048312E-2</v>
       </c>
       <c r="F68" s="6">
         <f t="shared" si="6"/>
-        <v>3.3675302839250966E-4</v>
+        <v>1.3474293728337841E-6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -45091,11 +45942,11 @@
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>4.8890075437293078E-4</v>
+        <v>1.764892532743283E-2</v>
       </c>
       <c r="F69" s="6">
         <f t="shared" si="6"/>
-        <v>3.6160442411984018E-4</v>
+        <v>3.4442708002762968E-6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -45114,11 +45965,11 @@
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>4.1615109417661125E-4</v>
+        <v>1.7534189686867891E-2</v>
       </c>
       <c r="F70" s="6">
         <f t="shared" si="6"/>
-        <v>3.7903607771778058E-4</v>
+        <v>5.5263091283282837E-6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -45137,11 +45988,11 @@
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>3.5422676613887301E-4</v>
+        <v>1.7420199942552766E-2</v>
       </c>
       <c r="F71" s="6">
         <f t="shared" si="6"/>
-        <v>3.1166983257117865E-4</v>
+        <v>3.4597930758093056E-7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -45160,11 +46011,11 @@
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>3.0151693364514513E-4</v>
+        <v>1.7306951245416952E-2</v>
       </c>
       <c r="F72" s="6">
         <f t="shared" si="6"/>
-        <v>3.4337880267246406E-4</v>
+        <v>2.3257737038553117E-6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -45183,11 +46034,11 @@
       </c>
       <c r="E73">
         <f t="shared" si="4"/>
-        <v>2.5665045661492738E-4</v>
+        <v>1.7194438777913709E-2</v>
       </c>
       <c r="F73" s="6">
         <f t="shared" si="6"/>
-        <v>3.1395054164130002E-4</v>
+        <v>6.0974424815809601E-7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -45206,11 +46057,11 @@
       </c>
       <c r="E74">
         <f t="shared" si="4"/>
-        <v>2.1846022405551654E-4</v>
+        <v>1.708265775381515E-2</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="6"/>
-        <v>3.185346760539204E-4</v>
+        <v>9.6696197313186316E-7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -45229,11 +46080,11 @@
       </c>
       <c r="E75">
         <f t="shared" si="4"/>
-        <v>1.8595279402130628E-4</v>
+        <v>1.6971603418008706E-2</v>
       </c>
       <c r="F75" s="6">
         <f t="shared" si="6"/>
-        <v>3.3908450016289414E-4</v>
+        <v>2.6523268268737286E-6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -45252,11 +46103,11 @@
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E107" si="7">0/36.25*(1-EXP(-H$2*D76))+I$2*EXP(-H$2*D76)</f>
-        <v>1.5828255122333237E-4</v>
+        <v>1.6861271046294632E-2</v>
       </c>
       <c r="F76" s="6">
         <f t="shared" si="6"/>
-        <v>3.1977727733882246E-4</v>
+        <v>1.3908167810477992E-6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -45275,11 +46126,11 @@
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>1.3472971005155343E-4</v>
+        <v>1.6751655945185361E-2</v>
       </c>
       <c r="F77" s="6">
         <f t="shared" si="6"/>
-        <v>3.1011105361286698E-4</v>
+        <v>9.861364948026967E-7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -45298,11 +46149,11 @@
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>1.1468159080253611E-4</v>
+        <v>1.6642753451705621E-2</v>
       </c>
       <c r="F78" s="6">
         <f t="shared" si="6"/>
-        <v>3.2953933861202568E-4</v>
+        <v>2.6411013034331364E-6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -45321,11 +46172,11 @@
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>9.7616682051552371E-5</v>
+        <v>1.6534558933194145E-2</v>
       </c>
       <c r="F79" s="6">
         <f t="shared" si="6"/>
-        <v>3.2838453335602024E-4</v>
+        <v>2.8373417075420445E-6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -45344,11 +46195,11 @@
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>8.30910745837258E-5</v>
+        <v>1.6427067787106578E-2</v>
       </c>
       <c r="F80" s="6">
         <f t="shared" si="6"/>
-        <v>3.1338236276622799E-4</v>
+        <v>1.8458814899116811E-6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -45367,11 +46218,11 @@
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>7.0726913990301846E-5</v>
+        <v>1.6320275440819761E-2</v>
       </c>
       <c r="F81" s="6">
         <f t="shared" si="6"/>
-        <v>2.9889130164568182E-4</v>
+        <v>1.0793642396678569E-6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -45390,11 +46241,11 @@
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>6.0202571547569666E-5</v>
+        <v>1.6214177351437008E-2</v>
       </c>
       <c r="F82" s="6">
         <f t="shared" si="6"/>
-        <v>2.9800417505578393E-4</v>
+        <v>1.2294876659662527E-6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -45413,11 +46264,11 @@
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>5.124427769373932E-5</v>
+        <v>1.610876900559513E-2</v>
       </c>
       <c r="F83" s="6">
         <f t="shared" si="6"/>
-        <v>2.8938622351084203E-4</v>
+        <v>9.0979356588738349E-7</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -45436,11 +46287,11 @@
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>4.3619000465422369E-5</v>
+        <v>1.6004045919272271E-2</v>
       </c>
       <c r="F84" s="6">
         <f t="shared" si="6"/>
-        <v>3.0892565377460031E-4</v>
+        <v>2.6109844102044573E-6</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -45459,11 +46310,11 @@
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>3.7128383640676601E-5</v>
+        <v>1.5900003637597197E-2</v>
       </c>
       <c r="F85" s="6">
         <f t="shared" si="6"/>
-        <v>2.9606610678890237E-4</v>
+        <v>1.8055199143345278E-6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -45482,11 +46333,11 @@
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>3.1603586901587471E-5</v>
+        <v>1.5796637734659807E-2</v>
       </c>
       <c r="F86" s="6">
         <f t="shared" si="6"/>
-        <v>2.8472500539069288E-4</v>
+        <v>1.2293537610423177E-6</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -45505,11 +46356,11 @@
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>2.6900893793606499E-5</v>
+        <v>1.5693943813322734E-2</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="6"/>
-        <v>2.9271442862634998E-4</v>
+        <v>2.078949263059506E-6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -45528,11 +46379,11 @@
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>2.2897973231593793E-5</v>
+        <v>1.5591917505034508E-2</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="6"/>
-        <v>3.4175445449611782E-4</v>
+        <v>8.5122876149290782E-6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -45551,11 +46402,11 @@
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>1.9490697303128251E-5</v>
+        <v>1.5490554469643571E-2</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="6"/>
-        <v>4.2760901842544213E-4</v>
+        <v>2.7119571969841294E-5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -45574,11 +46425,11 @@
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>1.659043259068957E-5</v>
+        <v>1.5389850395213676E-2</v>
       </c>
       <c r="F90" s="6">
         <f t="shared" si="6"/>
-        <v>3.3079277930843219E-4</v>
+        <v>7.921126577881893E-6</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -45597,11 +46448,11 @@
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>1.4121734551900189E-5</v>
+        <v>1.5289800997840478E-2</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="6"/>
-        <v>3.2525322708387911E-4</v>
+        <v>7.6126273037176692E-6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -45620,11 +46471,11 @@
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>1.2020384981779266E-5</v>
+        <v>1.519040202146933E-2</v>
       </c>
       <c r="F92" s="6">
         <f t="shared" si="6"/>
-        <v>3.2144831003573878E-4</v>
+        <v>7.5657892394969992E-6</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -45643,11 +46494,11 @@
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>1.0231721505537862E-5</v>
+        <v>1.5091649237714054E-2</v>
       </c>
       <c r="F93" s="6">
         <f t="shared" si="6"/>
-        <v>3.166146308051001E-4</v>
+        <v>7.3563041975207026E-6</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -45666,11 +46517,11 @@
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>8.7092156470507611E-6</v>
+        <v>1.4993538445677339E-2</v>
       </c>
       <c r="F94" s="6">
         <f t="shared" si="6"/>
-        <v>3.8256194413871731E-4</v>
+        <v>2.0924783629665218E-5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -45689,11 +46540,11 @@
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>7.4132624843023803E-6</v>
+        <v>1.4896065471771858E-2</v>
       </c>
       <c r="F95" s="6">
         <f t="shared" si="6"/>
-        <v>2.9398829041041161E-4</v>
+        <v>5.0960106492366093E-6</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -45712,11 +46563,11 @@
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>6.3101504071466319E-6</v>
+        <v>1.4799226169542776E-2</v>
       </c>
       <c r="F96" s="6">
         <f t="shared" si="6"/>
-        <v>2.9763460417842476E-4</v>
+        <v>6.0475359284056559E-6</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -45735,11 +46586,11 @@
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>5.3711841776991503E-6</v>
+        <v>1.4703016419491391E-2</v>
       </c>
       <c r="F97" s="6">
         <f t="shared" si="6"/>
-        <v>2.8024530503337691E-4</v>
+        <v>4.1733733235116804E-6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -45758,11 +46609,11 @@
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>4.5719384815438997E-6</v>
+        <v>1.4607432128899724E-2</v>
       </c>
       <c r="F98" s="6">
         <f t="shared" si="6"/>
-        <v>2.6176418483101388E-4</v>
+        <v>2.4846204014629917E-6</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -45781,11 +46632,11 @@
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>3.8916225523988676E-6</v>
+        <v>1.4512469231656694E-2</v>
       </c>
       <c r="F99" s="6">
         <f t="shared" si="6"/>
-        <v>2.8701809441480274E-4</v>
+        <v>5.9196387197052121E-6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -45804,11 +46655,11 @@
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>3.3125393422234425E-6</v>
+        <v>1.4418123688084948E-2</v>
       </c>
       <c r="F100" s="6">
         <f t="shared" si="6"/>
-        <v>2.8116540348077645E-4</v>
+        <v>5.5374387549581225E-6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -45827,11 +46678,11 @@
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>2.8196251681741931E-6</v>
+        <v>1.4324391484769069E-2</v>
       </c>
       <c r="F101" s="6">
         <f t="shared" si="6"/>
-        <v>2.8750866167775692E-4</v>
+        <v>6.9406351168242782E-6</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -45850,11 +46701,11 @@
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>2.4000578612495702E-6</v>
+        <v>1.4231268634384899E-2</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="6"/>
-        <v>2.7206522945122678E-4</v>
+        <v>5.1326323685858202E-6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -45873,11 +46724,11 @@
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>2.0429232233997526E-6</v>
+        <v>1.4138751175529736E-2</v>
       </c>
       <c r="F103" s="6">
         <f t="shared" si="6"/>
-        <v>2.5941473828463158E-4</v>
+        <v>3.8795164917370852E-6</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -45896,11 +46747,11 @@
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>1.7389311166577958E-6</v>
+        <v>1.4046835172554081E-2</v>
       </c>
       <c r="F104" s="6">
         <f t="shared" si="6"/>
-        <v>2.7408329120331206E-4</v>
+        <v>6.3019315668775839E-6</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -45919,11 +46770,11 @@
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>1.4801737989196153E-6</v>
+        <v>1.3955516715394047E-2</v>
       </c>
       <c r="F105" s="6">
         <f t="shared" si="6"/>
-        <v>2.6098466558494997E-4</v>
+        <v>4.8443274191148119E-6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -45942,11 +46793,11 @@
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>1.2599202199676801E-6</v>
+        <v>1.3864791919405064E-2</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="6"/>
-        <v>2.4718568868822567E-4</v>
+        <v>3.4544239972527873E-6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -45965,11 +46816,11 @@
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>1.0724409267628274E-6</v>
+        <v>1.3774656925196629E-2</v>
       </c>
       <c r="F107" s="6">
         <f t="shared" si="6"/>
-        <v>2.4998226810274985E-4</v>
+        <v>4.1503593458342939E-6</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -45987,12 +46838,12 @@
         <v>0.594444444444444</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108:E139" si="8">0/36.25*(1-EXP(-H$2*D108))+I$2*EXP(-H$2*D108)</f>
-        <v>9.1285902326854426E-7</v>
+        <f t="shared" ref="E108:E136" si="8">0/36.25*(1-EXP(-H$2*D108))+I$2*EXP(-H$2*D108)</f>
+        <v>1.3685107898468177E-2</v>
       </c>
       <c r="F108" s="6">
         <f t="shared" si="6"/>
-        <v>2.52281987070145E-4</v>
+        <v>4.8364458994399596E-6</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -46011,11 +46862,11 @@
       </c>
       <c r="E109">
         <f t="shared" si="8"/>
-        <v>7.7702330782740908E-7</v>
+        <v>1.3596141029845805E-2</v>
       </c>
       <c r="F109" s="6">
         <f t="shared" si="6"/>
-        <v>2.4082765909271822E-4</v>
+        <v>3.6989250662785696E-6</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -46034,11 +46885,11 @@
       </c>
       <c r="E110">
         <f t="shared" si="8"/>
-        <v>6.6140028801515757E-7</v>
+        <v>1.3507752534720465E-2</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" si="6"/>
-        <v>2.5584125980627646E-4</v>
+        <v>6.1898825899908685E-6</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -46057,11 +46908,11 @@
       </c>
       <c r="E111">
         <f t="shared" si="8"/>
-        <v>5.6298226395506986E-7</v>
+        <v>1.3419938653086803E-2</v>
       </c>
       <c r="F111" s="6">
         <f t="shared" si="6"/>
-        <v>2.4104229968909221E-4</v>
+        <v>4.4359156192312105E-6</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -46080,11 +46931,11 @@
       </c>
       <c r="E112">
         <f t="shared" si="8"/>
-        <v>4.7920908906636793E-7</v>
+        <v>1.3332695649383261E-2</v>
       </c>
       <c r="F112" s="6">
         <f t="shared" si="6"/>
-        <v>2.3950102915239112E-4</v>
+        <v>4.5950396119830121E-6</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -46103,11 +46954,11 @@
       </c>
       <c r="E113">
         <f t="shared" si="8"/>
-        <v>4.079015730096974E-7</v>
+        <v>1.3246019812333195E-2</v>
       </c>
       <c r="F113" s="6">
         <f t="shared" si="6"/>
-        <v>2.5275887131532583E-4</v>
+        <v>7.0372427240775354E-6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -46126,11 +46977,11 @@
       </c>
       <c r="E114">
         <f t="shared" si="8"/>
-        <v>3.4720479444147395E-7</v>
+        <v>1.3159907454786851E-2</v>
       </c>
       <c r="F114" s="6">
         <f t="shared" si="6"/>
-        <v>2.2779420549774422E-4</v>
+        <v>3.7376200653767343E-6</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -46149,11 +47000,11 @@
       </c>
       <c r="E115">
         <f t="shared" si="8"/>
-        <v>2.9553984897302718E-7</v>
+        <v>1.3074354913564753E-2</v>
       </c>
       <c r="F115" s="6">
         <f t="shared" si="6"/>
-        <v>2.0885465215444112E-4</v>
+        <v>1.8981815231964677E-6</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -46172,11 +47023,11 @@
       </c>
       <c r="E116">
         <f t="shared" si="8"/>
-        <v>2.5156277715434129E-7</v>
+        <v>1.2989358549301701E-2</v>
       </c>
       <c r="F116" s="6">
         <f t="shared" si="6"/>
-        <v>2.1771145438479237E-4</v>
+        <v>3.1185492072944161E-6</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -46195,11 +47046,11 @@
       </c>
       <c r="E117">
         <f t="shared" si="8"/>
-        <v>2.1412960407711541E-7</v>
+        <v>1.2904914746292011E-2</v>
       </c>
       <c r="F117" s="6">
         <f t="shared" si="6"/>
-        <v>2.1906622254848565E-4</v>
+        <v>3.5955185163796287E-6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -46218,11 +47069,11 @@
       </c>
       <c r="E118">
         <f t="shared" si="8"/>
-        <v>1.8226658117267562E-7</v>
+        <v>1.2821019912335729E-2</v>
       </c>
       <c r="F118" s="6">
         <f t="shared" si="6"/>
-        <v>2.0526057174015085E-4</v>
+        <v>2.2682772304588201E-6</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -46241,11 +47092,11 @@
       </c>
       <c r="E119">
         <f t="shared" si="8"/>
-        <v>1.5514485610503967E-7</v>
+        <v>1.2737670478585686E-2</v>
       </c>
       <c r="F119" s="6">
         <f t="shared" si="6"/>
-        <v>2.5033077462024333E-4</v>
+        <v>9.5130885966678458E-6</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -46264,11 +47115,11 @@
       </c>
       <c r="E120">
         <f t="shared" si="8"/>
-        <v>1.3205891184764255E-7</v>
+        <v>1.2654862899395885E-2</v>
       </c>
       <c r="F120" s="6">
         <f t="shared" si="6"/>
-        <v>2.1325835522280123E-4</v>
+        <v>3.7971865498508116E-6</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -46287,11 +47138,11 @@
       </c>
       <c r="E121">
         <f t="shared" si="8"/>
-        <v>1.1240821407946673E-7</v>
+        <v>1.2572593652170536E-2</v>
       </c>
       <c r="F121" s="6">
         <f t="shared" si="6"/>
-        <v>2.1022644082179881E-4</v>
+        <v>3.7121973507663494E-6</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -46310,11 +47161,11 @@
       </c>
       <c r="E122">
         <f t="shared" si="8"/>
-        <v>9.5681589494793609E-8</v>
+        <v>1.2490859237214238E-2</v>
       </c>
       <c r="F122" s="6">
         <f t="shared" si="6"/>
-        <v>2.1976889319743538E-4</v>
+        <v>5.4468127060404266E-6</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -46333,11 +47184,11 @@
       </c>
       <c r="E123">
         <f t="shared" si="8"/>
-        <v>8.1443928659680643E-8</v>
+        <v>1.2409656177583106E-2</v>
       </c>
       <c r="F123" s="6">
         <f t="shared" si="6"/>
-        <v>2.1037235592228417E-4</v>
+        <v>4.3875327427892546E-6</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -46356,11 +47207,11 @@
       </c>
       <c r="E124">
         <f t="shared" si="8"/>
-        <v>6.9324867516801709E-8</v>
+        <v>1.2328981018936902E-2</v>
       </c>
       <c r="F124" s="6">
         <f t="shared" si="6"/>
-        <v>2.0972631607934318E-4</v>
+        <v>4.6354907328179829E-6</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -46379,11 +47230,11 @@
       </c>
       <c r="E125">
         <f t="shared" si="8"/>
-        <v>5.900915311077096E-8</v>
+        <v>1.2248830329391938E-2</v>
       </c>
       <c r="F125" s="6">
         <f t="shared" si="6"/>
-        <v>2.0011613417111678E-4</v>
+        <v>3.60039115087747E-6</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -46402,11 +47253,11 @@
       </c>
       <c r="E126">
         <f t="shared" si="8"/>
-        <v>5.0228442917781077E-8</v>
+        <v>1.2169200699375306E-2</v>
       </c>
       <c r="F126" s="6">
         <f t="shared" si="6"/>
-        <v>1.9705280358894232E-4</v>
+        <v>3.4909159465748494E-6</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -46425,11 +47276,11 @@
       </c>
       <c r="E127">
         <f t="shared" si="8"/>
-        <v>4.275432445554413E-8</v>
+        <v>1.2090088741479689E-2</v>
       </c>
       <c r="F127" s="6">
         <f t="shared" si="6"/>
-        <v>1.8084217493861908E-4</v>
+        <v>1.8433798615128051E-6</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -46448,11 +47299,11 @@
       </c>
       <c r="E128">
         <f t="shared" si="8"/>
-        <v>3.6392373592828284E-8</v>
+        <v>1.2011491090319303E-2</v>
       </c>
       <c r="F128" s="6">
         <f t="shared" si="6"/>
-        <v>2.0508999865095998E-4</v>
+        <v>5.3338314038945229E-6</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -46471,11 +47322,11 @@
       </c>
       <c r="E129">
         <f t="shared" si="8"/>
-        <v>3.0977096997455733E-8</v>
+        <v>1.193340440238677E-2</v>
       </c>
       <c r="F129" s="6">
         <f t="shared" si="6"/>
-        <v>1.8109539811098018E-4</v>
+        <v>2.3219530233054641E-6</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -46494,11 +47345,11 @@
       </c>
       <c r="E130">
         <f t="shared" si="8"/>
-        <v>2.6367627160730469E-8</v>
+        <v>1.1855825355910739E-2</v>
       </c>
       <c r="F130" s="6">
         <f t="shared" si="6"/>
-        <v>1.9373504319396384E-4</v>
+        <v>4.2562769870840306E-6</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -46517,11 +47368,11 @@
       </c>
       <c r="E131">
         <f t="shared" si="8"/>
-        <v>2.2444058013066715E-8</v>
+        <v>1.1778750650714796E-2</v>
       </c>
       <c r="F131" s="6">
         <f t="shared" ref="F131:F136" si="10">(E131-C131)^2</f>
-        <v>2.0131573306098071E-4</v>
+        <v>5.807373886250327E-6</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -46540,11 +47391,11 @@
       </c>
       <c r="E132">
         <f t="shared" si="8"/>
-        <v>1.9104325809192344E-8</v>
+        <v>1.170217700807694E-2</v>
       </c>
       <c r="F132" s="6">
         <f t="shared" si="10"/>
-        <v>1.9606387028136245E-4</v>
+        <v>5.290565777973094E-6</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -46563,11 +47414,11 @@
       </c>
       <c r="E133">
         <f t="shared" si="8"/>
-        <v>1.6261554145479792E-8</v>
+        <v>1.162610117059013E-2</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="10"/>
-        <v>1.9285109475860728E-4</v>
+        <v>5.1121157065927983E-6</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -46586,11 +47437,11 @@
       </c>
       <c r="E134">
         <f t="shared" si="8"/>
-        <v>1.3841794045363931E-8</v>
+        <v>1.1550519902023732E-2</v>
       </c>
       <c r="F134" s="6">
         <f t="shared" si="10"/>
-        <v>2.0340710158408987E-4</v>
+        <v>7.3526666277409854E-6</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -46609,11 +47460,11 @@
       </c>
       <c r="E135">
         <f t="shared" si="8"/>
-        <v>1.1782100325726996E-8</v>
+        <v>1.1475429987185865E-2</v>
       </c>
       <c r="F135" s="6">
         <f t="shared" si="10"/>
-        <v>1.7766192691290837E-4</v>
+        <v>3.4357217924037953E-6</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -46632,11 +47483,11 @@
       </c>
       <c r="E136">
         <f t="shared" si="8"/>
-        <v>1.0028894204792907E-8</v>
+        <v>1.1400828231786519E-2</v>
       </c>
       <c r="F136" s="6">
         <f t="shared" si="10"/>
-        <v>1.8353719402520633E-4</v>
+        <v>4.6086290247984366E-6</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -50082,12 +50933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -50304,6 +51149,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -50314,23 +51165,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50349,6 +51183,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FA8A0D-417C-4577-9A5A-39B711A4238C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
   <ds:schemaRefs>

--- a/data/VMN_ad_mp_0.8m.xlsx
+++ b/data/VMN_ad_mp_0.8m.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcofking/Documents/GitHub/ciarrai/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEAAD4-93A4-A44A-A2B3-802482D31453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDE0F9-3F8A-C14B-AD99-DF7464C3F33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="mass_conc" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="MMAD" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="MMAD" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="expt_data" localSheetId="2">Sheet2!$A$2:$A$125</definedName>
-    <definedName name="prediction" localSheetId="2">Sheet2!$B$2:$B$125</definedName>
-    <definedName name="prediction_1" localSheetId="2">Sheet2!$D$2:$D$125</definedName>
+    <definedName name="expt_data" localSheetId="3">Sheet2!$A$2:$A$125</definedName>
+    <definedName name="prediction" localSheetId="3">Sheet2!$B$2:$B$125</definedName>
+    <definedName name="prediction_1" localSheetId="3">Sheet2!$D$2:$D$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="195">
   <si>
     <t>Sample File</t>
   </si>
@@ -239,6 +240,420 @@
   </si>
   <si>
     <t>pred2</t>
+  </si>
+  <si>
+    <t>0_8m</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 00:40</t>
   </si>
 </sst>
 </file>
@@ -44324,8 +44739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+    <sheetView topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C136" sqref="C2:C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44767,7 +45182,7 @@
         <v>9.4444444444444303E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E44" si="3">G$2/36.25*(1-EXP(-H$2*D18))/H$2+I$2*EXP(-H$2*D18)</f>
+        <f t="shared" ref="E18:E43" si="3">G$2/36.25*(1-EXP(-H$2*D18))/H$2+I$2*EXP(-H$2*D18)</f>
         <v>3.4478300110181784E-2</v>
       </c>
       <c r="F18" s="6">
@@ -45389,7 +45804,7 @@
         <v>0.2444444444444448</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E44:E75" si="4">0/36.25*(1-EXP(-H$2*D45))+I$2*EXP(-H$2*D45)</f>
+        <f t="shared" ref="E45:E75" si="4">0/36.25*(1-EXP(-H$2*D45))+I$2*EXP(-H$2*D45)</f>
         <v>2.0639531194171976E-2</v>
       </c>
       <c r="F45" s="6">
@@ -47511,6 +47926,1520 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE576BA9-CB1F-8340-8769-6EAB772EF7A5}">
+  <dimension ref="A1:C136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2">
+        <v>4.0416699999999998E-3</v>
+      </c>
+      <c r="C2">
+        <v>3.6326900000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3">
+        <v>3.8558199999999998E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.6382200000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>3.3782500000000002E-3</v>
+      </c>
+      <c r="C4">
+        <v>3.3176199999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>3.03222E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.7306400000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>2.8012699999999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>3.1504699999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>5.2236899999999996E-3</v>
+      </c>
+      <c r="C7">
+        <v>4.40472E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>4.1138399999999997E-3</v>
+      </c>
+      <c r="C8">
+        <v>3.3522600000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>3.3455799999999999E-3</v>
+      </c>
+      <c r="C9">
+        <v>5.31856E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>2.9750599999999999E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.1378300000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>2.7991600000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>3.7037200000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>3.7537199999999999E-3</v>
+      </c>
+      <c r="C12">
+        <v>3.9327199999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>3.27853E-3</v>
+      </c>
+      <c r="C13">
+        <v>3.2292599999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>4.0413200000000002E-3</v>
+      </c>
+      <c r="C14">
+        <v>4.6995700000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>3.0645799999999999E-3</v>
+      </c>
+      <c r="C15">
+        <v>3.2386200000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>2.6114799999999998E-3</v>
+      </c>
+      <c r="C16">
+        <v>3.2810199999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17">
+        <v>2.9873299999999998E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.0054499999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>5.6827500000000003E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.7800100000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19">
+        <v>5.21171E-2</v>
+      </c>
+      <c r="C19">
+        <v>1.8431300000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20">
+        <v>5.0446100000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.7609399999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>3.2091099999999997E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.2138600000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <v>6.71794E-2</v>
+      </c>
+      <c r="C22">
+        <v>4.2484899999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23">
+        <v>3.2810899999999997E-2</v>
+      </c>
+      <c r="C23">
+        <v>2.4558199999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>2.2348799999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>1.4585000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>7.4035100000000006E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.0382899999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26">
+        <v>4.6245700000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.0148900000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>5.0746600000000003E-2</v>
+      </c>
+      <c r="C27">
+        <v>2.24432E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>4.8176700000000003E-2</v>
+      </c>
+      <c r="C28">
+        <v>3.0797399999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29">
+        <v>5.5447000000000003E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.63187E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30">
+        <v>5.6009700000000003E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.67368E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>7.0573200000000003E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.3904699999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>4.6516799999999997E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.57373E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>4.8563500000000002E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.1001599999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>8.4387400000000001E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.9562800000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>8.1036800000000006E-2</v>
+      </c>
+      <c r="C35">
+        <v>4.0193399999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>5.8882999999999998E-2</v>
+      </c>
+      <c r="C36">
+        <v>4.9366E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37">
+        <v>5.5333399999999998E-2</v>
+      </c>
+      <c r="C37">
+        <v>4.7125899999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38">
+        <v>9.4362600000000005E-2</v>
+      </c>
+      <c r="C38">
+        <v>5.0790000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>0.123312</v>
+      </c>
+      <c r="C39">
+        <v>4.99345E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>8.5886599999999994E-2</v>
+      </c>
+      <c r="C40">
+        <v>5.1772400000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>0.130327</v>
+      </c>
+      <c r="C41">
+        <v>4.3770799999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>0.145485</v>
+      </c>
+      <c r="C42">
+        <v>3.9608400000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>8.8846999999999995E-2</v>
+      </c>
+      <c r="C43">
+        <v>5.3033499999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>5.61129E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.7620599999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>2.6887399999999999E-2</v>
+      </c>
+      <c r="C45">
+        <v>3.1067399999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>2.36373E-2</v>
+      </c>
+      <c r="C46">
+        <v>2.3914600000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47">
+        <v>2.2617999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>2.4178499999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>2.1260899999999999E-2</v>
+      </c>
+      <c r="C48">
+        <v>2.4388799999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49">
+        <v>2.2346700000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.42407E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50">
+        <v>2.0624300000000002E-2</v>
+      </c>
+      <c r="C50">
+        <v>2.3558900000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
+        <v>2.14284E-2</v>
+      </c>
+      <c r="C51">
+        <v>2.3538099999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>2.2241899999999998E-2</v>
+      </c>
+      <c r="C52">
+        <v>2.5337200000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53">
+        <v>2.1193300000000002E-2</v>
+      </c>
+      <c r="C53">
+        <v>2.5286300000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>2.1445599999999999E-2</v>
+      </c>
+      <c r="C54">
+        <v>2.3800700000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55">
+        <v>1.97284E-2</v>
+      </c>
+      <c r="C55">
+        <v>2.30104E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56">
+        <v>1.9697599999999999E-2</v>
+      </c>
+      <c r="C56">
+        <v>2.3153099999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57">
+        <v>2.0802000000000001E-2</v>
+      </c>
+      <c r="C57">
+        <v>2.2966899999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58">
+        <v>1.9127999999999999E-2</v>
+      </c>
+      <c r="C58">
+        <v>2.1396499999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="C59">
+        <v>2.15243E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <v>2.0881799999999999E-2</v>
+      </c>
+      <c r="C60">
+        <v>2.0357299999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61">
+        <v>1.77427E-2</v>
+      </c>
+      <c r="C61">
+        <v>2.1589500000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62">
+        <v>1.8108200000000001E-2</v>
+      </c>
+      <c r="C62">
+        <v>2.0201799999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63">
+        <v>1.7759899999999999E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.9680799999999998E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64">
+        <v>1.83083E-2</v>
+      </c>
+      <c r="C64">
+        <v>2.1660599999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65">
+        <v>1.8782199999999999E-2</v>
+      </c>
+      <c r="C65">
+        <v>2.0370900000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66">
+        <v>1.8237E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.9067299999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67">
+        <v>1.80144E-2</v>
+      </c>
+      <c r="C67">
+        <v>1.9205300000000002E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68">
+        <v>1.7800199999999999E-2</v>
+      </c>
+      <c r="C68">
+        <v>1.89252E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69">
+        <v>1.7595599999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>1.9504799999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70">
+        <v>1.7033699999999999E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.9885E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71">
+        <v>1.6772700000000001E-2</v>
+      </c>
+      <c r="C71">
+        <v>1.8008400000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72">
+        <v>1.7220599999999999E-2</v>
+      </c>
+      <c r="C72">
+        <v>1.8832000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73">
+        <v>1.63161E-2</v>
+      </c>
+      <c r="C73">
+        <v>1.79753E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74">
+        <v>1.6228699999999999E-2</v>
+      </c>
+      <c r="C74">
+        <v>1.8065999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75">
+        <v>1.7170500000000002E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.8600200000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76">
+        <v>1.6586500000000001E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.80406E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77">
+        <v>1.6978400000000001E-2</v>
+      </c>
+      <c r="C77">
+        <v>1.7744699999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78">
+        <v>1.7223100000000002E-2</v>
+      </c>
+      <c r="C78">
+        <v>1.82679E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79">
+        <v>1.58581E-2</v>
+      </c>
+      <c r="C79">
+        <v>1.8218999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80">
+        <v>1.56119E-2</v>
+      </c>
+      <c r="C80">
+        <v>1.7785700000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81">
+        <v>1.55566E-2</v>
+      </c>
+      <c r="C81">
+        <v>1.7359200000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B82">
+        <v>1.5356699999999999E-2</v>
+      </c>
+      <c r="C82">
+        <v>1.7323000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83">
+        <v>1.50169E-2</v>
+      </c>
+      <c r="C83">
+        <v>1.7062600000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84">
+        <v>1.50543E-2</v>
+      </c>
+      <c r="C84">
+        <v>1.7619900000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85">
+        <v>1.57961E-2</v>
+      </c>
+      <c r="C85">
+        <v>1.7243700000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86">
+        <v>1.50913E-2</v>
+      </c>
+      <c r="C86">
+        <v>1.6905400000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87">
+        <v>1.54427E-2</v>
+      </c>
+      <c r="C87">
+        <v>1.71358E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88">
+        <v>1.51834E-2</v>
+      </c>
+      <c r="C88">
+        <v>1.8509500000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89">
+        <v>1.5082999999999999E-2</v>
+      </c>
+      <c r="C89">
+        <v>2.06982E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90">
+        <v>1.4970600000000001E-2</v>
+      </c>
+      <c r="C90">
+        <v>1.82043E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91">
+        <v>1.51856E-2</v>
+      </c>
+      <c r="C91">
+        <v>1.80489E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92">
+        <v>1.48387E-2</v>
+      </c>
+      <c r="C92">
+        <v>1.7940999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B93">
+        <v>1.4629700000000001E-2</v>
+      </c>
+      <c r="C93">
+        <v>1.7803900000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94">
+        <v>1.45215E-2</v>
+      </c>
+      <c r="C94">
+        <v>1.9567899999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B95">
+        <v>1.5080700000000001E-2</v>
+      </c>
+      <c r="C95">
+        <v>1.7153499999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96">
+        <v>1.4664699999999999E-2</v>
+      </c>
+      <c r="C96">
+        <v>1.72584E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97">
+        <v>1.49131E-2</v>
+      </c>
+      <c r="C97">
+        <v>1.6745900000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98">
+        <v>1.45685E-2</v>
+      </c>
+      <c r="C98">
+        <v>1.6183699999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99">
+        <v>1.4250799999999999E-2</v>
+      </c>
+      <c r="C99">
+        <v>1.6945499999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B100">
+        <v>1.42311E-2</v>
+      </c>
+      <c r="C100">
+        <v>1.6771299999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101">
+        <v>1.41727E-2</v>
+      </c>
+      <c r="C101">
+        <v>1.6958899999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102">
+        <v>1.40424E-2</v>
+      </c>
+      <c r="C102">
+        <v>1.6496799999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103">
+        <v>1.3542800000000001E-2</v>
+      </c>
+      <c r="C103">
+        <v>1.6108399999999998E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104">
+        <v>1.44171E-2</v>
+      </c>
+      <c r="C104">
+        <v>1.6557200000000001E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105">
+        <v>1.42957E-2</v>
+      </c>
+      <c r="C105">
+        <v>1.6156500000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106">
+        <v>1.39385E-2</v>
+      </c>
+      <c r="C106">
+        <v>1.5723399999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107">
+        <v>1.40597E-2</v>
+      </c>
+      <c r="C107">
+        <v>1.58119E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108">
+        <v>1.34968E-2</v>
+      </c>
+      <c r="C108">
+        <v>1.5884300000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109">
+        <v>1.3901699999999999E-2</v>
+      </c>
+      <c r="C109">
+        <v>1.5519399999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110">
+        <v>1.3880099999999999E-2</v>
+      </c>
+      <c r="C110">
+        <v>1.5995700000000002E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111">
+        <v>1.3290400000000001E-2</v>
+      </c>
+      <c r="C111">
+        <v>1.5526099999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112">
+        <v>1.2989000000000001E-2</v>
+      </c>
+      <c r="C112">
+        <v>1.54763E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113">
+        <v>1.3479E-2</v>
+      </c>
+      <c r="C113">
+        <v>1.5898800000000001E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114">
+        <v>1.2885499999999999E-2</v>
+      </c>
+      <c r="C114">
+        <v>1.5093199999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B115">
+        <v>1.3632E-2</v>
+      </c>
+      <c r="C115">
+        <v>1.4452100000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116">
+        <v>1.2692500000000001E-2</v>
+      </c>
+      <c r="C116">
+        <v>1.4755300000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117">
+        <v>1.2464599999999999E-2</v>
+      </c>
+      <c r="C117">
+        <v>1.4801099999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B118">
+        <v>1.28386E-2</v>
+      </c>
+      <c r="C118">
+        <v>1.4327100000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B119">
+        <v>1.30463E-2</v>
+      </c>
+      <c r="C119">
+        <v>1.5821999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120">
+        <v>1.27063E-2</v>
+      </c>
+      <c r="C120">
+        <v>1.46035E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121">
+        <v>1.3693500000000001E-2</v>
+      </c>
+      <c r="C121">
+        <v>1.44993E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122">
+        <v>1.24408E-2</v>
+      </c>
+      <c r="C122">
+        <v>1.48247E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123">
+        <v>1.2278300000000001E-2</v>
+      </c>
+      <c r="C123">
+        <v>1.4504299999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124">
+        <v>1.49643E-2</v>
+      </c>
+      <c r="C124">
+        <v>1.4482E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B125">
+        <v>1.20318E-2</v>
+      </c>
+      <c r="C125">
+        <v>1.4146300000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126">
+        <v>1.22814E-2</v>
+      </c>
+      <c r="C126">
+        <v>1.4037600000000001E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B127">
+        <v>1.2331399999999999E-2</v>
+      </c>
+      <c r="C127">
+        <v>1.3447799999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B128">
+        <v>1.14968E-2</v>
+      </c>
+      <c r="C128">
+        <v>1.4321E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B129">
+        <v>1.2777699999999999E-2</v>
+      </c>
+      <c r="C129">
+        <v>1.3457200000000001E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B130">
+        <v>1.18639E-2</v>
+      </c>
+      <c r="C130">
+        <v>1.39189E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B131">
+        <v>1.24309E-2</v>
+      </c>
+      <c r="C131">
+        <v>1.4188600000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B132">
+        <v>1.21598E-2</v>
+      </c>
+      <c r="C132">
+        <v>1.4002300000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B133">
+        <v>1.2577E-2</v>
+      </c>
+      <c r="C133">
+        <v>1.3887099999999999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134">
+        <v>1.17068E-2</v>
+      </c>
+      <c r="C134">
+        <v>1.42621E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135">
+        <v>1.14298E-2</v>
+      </c>
+      <c r="C135">
+        <v>1.3329000000000001E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136">
+        <v>1.16174E-2</v>
+      </c>
+      <c r="C136">
+        <v>1.35476E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796A3DEE-4FE7-414A-BDA3-9C20DE00E731}">
   <dimension ref="A1:D125"/>
   <sheetViews>
@@ -49402,7 +51331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C138"/>
   <sheetViews>
@@ -50933,6 +52862,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063F3C2B24EE74845B032A2CC0F813651" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="926914e20f5f300737307ea7be0184e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1" xmlns:ns4="1e8eff21-aac5-419e-8496-4266dd95c283" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d2603b88a961a7e06a76e94fde58845" ns3:_="" ns4:_="">
     <xsd:import namespace="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
@@ -51149,36 +53093,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
-    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51201,9 +53119,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC804984-24DD-47D8-B978-D9B6EA987778}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9559CC0-1BA7-4F4A-B0F5-5D8CA041055D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dcdbe96c-9c47-4202-80f5-cac5e6e6d6c1"/>
+    <ds:schemaRef ds:uri="1e8eff21-aac5-419e-8496-4266dd95c283"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>